--- a/Data Transformation/Nicaragua.xlsx
+++ b/Data Transformation/Nicaragua.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Nicaragua" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R38"/>
+  <dimension ref="A1:BH38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,2234 +436,6362 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Rank</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Rtk Theatre Number</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>Nombre Cine</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Titulo</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Ciudad</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Cine</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Thu 18-Aug $</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>mf_thursday $</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Fri 19-Aug $</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>mf_friday $</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Sat 20-Aug $</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>mf_saturday $</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Sun 21-Aug $</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>mf_sunday $</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Weekend
+Gross $</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>mf_wkend_rev $</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>Mon 22-Aug $</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>mf_monday $</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>Tue 23-Aug $</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>mf_tuesday $</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Wed 24-Aug $</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>mf_wednesday $</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>Week
+Gross $</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>mf_rev $</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>Thu Adm 18-Aug</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>mf_thursday_xtns</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>Fri Adm 19-Aug</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>mf_friday_xtns</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>Sat Adm 20-Aug</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>mf_saturday_xtns</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>Sun Adm 21-Aug</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>mf_sunday_xtns</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>Weekend
+Adm</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
         <is>
           <t>Mon Adm 22-Aug</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>mf_monday_xtns</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
         <is>
           <t>Tue Adm 23-Aug</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>mf_tuesday_xtns</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
         <is>
           <t>Wed Adm 24-Aug</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>mf_wednesday_xtns</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>mf_thursday_xtns</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>Week
+Adm</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>mf_xtns</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>%</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>%</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1004434</v>
+      </c>
+      <c r="C2" t="inlineStr">
         <is>
           <t>Metrocentro Managua</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>Dragon Ball Super: Super Heroe</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Managua</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Cinemark</t>
         </is>
       </c>
-      <c r="E2" t="n">
+      <c r="G2" t="n">
         <v>2837.31534611</v>
       </c>
-      <c r="F2" t="n">
+      <c r="H2" t="n">
+        <v>2837.31534611</v>
+      </c>
+      <c r="I2" t="n">
         <v>1435.92102453</v>
       </c>
-      <c r="G2" t="n">
+      <c r="J2" t="n">
+        <v>1435.92102453</v>
+      </c>
+      <c r="K2" t="n">
         <v>3305.65336497</v>
       </c>
-      <c r="H2" t="n">
+      <c r="L2" t="n">
+        <v>3305.65336497</v>
+      </c>
+      <c r="M2" t="n">
         <v>2763.24999949</v>
       </c>
-      <c r="I2" t="n">
+      <c r="N2" t="n">
+        <v>2763.24999949</v>
+      </c>
+      <c r="O2" t="n">
+        <v>10342.13973509</v>
+      </c>
+      <c r="P2" t="n">
+        <v>10342.13973509</v>
+      </c>
+      <c r="Q2" t="n">
         <v>771.2819930000001</v>
       </c>
-      <c r="J2" t="n">
+      <c r="R2" t="n">
+        <v>771.2819930000001</v>
+      </c>
+      <c r="S2" t="n">
         <v>699.4441756</v>
       </c>
-      <c r="K2" t="n">
+      <c r="T2" t="n">
+        <v>699.4441756</v>
+      </c>
+      <c r="U2" t="n">
         <v>591.1305672</v>
       </c>
-      <c r="L2" t="n">
+      <c r="V2" t="n">
+        <v>591.1305672</v>
+      </c>
+      <c r="W2" t="n">
+        <v>12403.99647091</v>
+      </c>
+      <c r="X2" t="n">
+        <v>12403.99647091</v>
+      </c>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
+      <c r="AB2" t="inlineStr"/>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
+      <c r="AF2" t="inlineStr"/>
+      <c r="AG2" t="inlineStr"/>
+      <c r="AH2" t="n">
         <v>583</v>
       </c>
-      <c r="M2" t="n">
+      <c r="AI2" t="n">
+        <v>583</v>
+      </c>
+      <c r="AJ2" t="n">
         <v>305</v>
       </c>
-      <c r="N2" t="n">
+      <c r="AK2" t="n">
+        <v>305</v>
+      </c>
+      <c r="AL2" t="n">
         <v>754</v>
       </c>
-      <c r="O2" t="n">
+      <c r="AM2" t="n">
+        <v>754</v>
+      </c>
+      <c r="AN2" t="n">
         <v>656</v>
       </c>
-      <c r="P2" t="n">
+      <c r="AO2" t="n">
+        <v>656</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>2298</v>
+      </c>
+      <c r="AQ2" t="n">
         <v>168</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="AR2" t="n">
+        <v>168</v>
+      </c>
+      <c r="AS2" t="n">
         <v>211</v>
       </c>
-      <c r="R2" t="n">
+      <c r="AT2" t="n">
+        <v>211</v>
+      </c>
+      <c r="AU2" t="n">
         <v>129</v>
       </c>
+      <c r="AV2" t="n">
+        <v>129</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>583</v>
+      </c>
+      <c r="AX2" t="n">
+        <v>2806</v>
+      </c>
+      <c r="AY2" t="n">
+        <v>2806</v>
+      </c>
+      <c r="AZ2" t="inlineStr"/>
+      <c r="BA2" t="inlineStr"/>
+      <c r="BB2" t="inlineStr"/>
+      <c r="BC2" t="inlineStr"/>
+      <c r="BD2" t="inlineStr"/>
+      <c r="BE2" t="inlineStr"/>
+      <c r="BF2" t="inlineStr"/>
+      <c r="BG2" t="inlineStr"/>
+      <c r="BH2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1004437</v>
+      </c>
+      <c r="C3" t="inlineStr">
         <is>
           <t>GALERÍAS</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>Dragon Ball Super: Super Heroe</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Managua</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Cinemas</t>
         </is>
       </c>
-      <c r="E3" t="n">
+      <c r="G3" t="n">
         <v>1435.3362981</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
+        <v>1435.3362981</v>
+      </c>
+      <c r="I3" t="n">
         <v>1051.28241617</v>
       </c>
-      <c r="G3" t="n">
+      <c r="J3" t="n">
+        <v>1051.28241617</v>
+      </c>
+      <c r="K3" t="n">
         <v>1767.07108744</v>
       </c>
-      <c r="H3" t="n">
+      <c r="L3" t="n">
+        <v>1767.07108744</v>
+      </c>
+      <c r="M3" t="n">
         <v>1618.07722663</v>
       </c>
-      <c r="I3" t="n">
+      <c r="N3" t="n">
+        <v>1618.07722663</v>
+      </c>
+      <c r="O3" t="n">
+        <v>5871.76702834</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5871.76702834</v>
+      </c>
+      <c r="Q3" t="n">
         <v>278.13486744</v>
       </c>
-      <c r="J3" t="n">
+      <c r="R3" t="n">
+        <v>278.13486744</v>
+      </c>
+      <c r="S3" t="n">
         <v>400.2313129</v>
       </c>
-      <c r="K3" t="n">
+      <c r="T3" t="n">
+        <v>400.2313129</v>
+      </c>
+      <c r="U3" t="n">
         <v>298.7879615</v>
       </c>
-      <c r="L3" t="n">
+      <c r="V3" t="n">
+        <v>298.7879615</v>
+      </c>
+      <c r="W3" t="n">
+        <v>6848.92117019</v>
+      </c>
+      <c r="X3" t="n">
+        <v>6848.92117019</v>
+      </c>
+      <c r="Y3" t="inlineStr"/>
+      <c r="Z3" t="inlineStr"/>
+      <c r="AA3" t="inlineStr"/>
+      <c r="AB3" t="inlineStr"/>
+      <c r="AC3" t="inlineStr"/>
+      <c r="AD3" t="inlineStr"/>
+      <c r="AE3" t="inlineStr"/>
+      <c r="AF3" t="inlineStr"/>
+      <c r="AG3" t="inlineStr"/>
+      <c r="AH3" t="n">
         <v>239</v>
       </c>
-      <c r="M3" t="n">
+      <c r="AI3" t="n">
+        <v>239</v>
+      </c>
+      <c r="AJ3" t="n">
         <v>174</v>
       </c>
-      <c r="N3" t="n">
+      <c r="AK3" t="n">
+        <v>174</v>
+      </c>
+      <c r="AL3" t="n">
         <v>300</v>
       </c>
-      <c r="O3" t="n">
+      <c r="AM3" t="n">
+        <v>300</v>
+      </c>
+      <c r="AN3" t="n">
         <v>274</v>
       </c>
-      <c r="P3" t="n">
+      <c r="AO3" t="n">
+        <v>274</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>987</v>
+      </c>
+      <c r="AQ3" t="n">
         <v>47</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="AR3" t="n">
+        <v>47</v>
+      </c>
+      <c r="AS3" t="n">
         <v>143</v>
       </c>
-      <c r="R3" t="n">
+      <c r="AT3" t="n">
+        <v>143</v>
+      </c>
+      <c r="AU3" t="n">
         <v>52</v>
       </c>
+      <c r="AV3" t="n">
+        <v>52</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>239</v>
+      </c>
+      <c r="AX3" t="n">
+        <v>1229</v>
+      </c>
+      <c r="AY3" t="n">
+        <v>1229</v>
+      </c>
+      <c r="AZ3" t="inlineStr"/>
+      <c r="BA3" t="inlineStr"/>
+      <c r="BB3" t="inlineStr"/>
+      <c r="BC3" t="inlineStr"/>
+      <c r="BD3" t="inlineStr"/>
+      <c r="BE3" t="inlineStr"/>
+      <c r="BF3" t="inlineStr"/>
+      <c r="BG3" t="inlineStr"/>
+      <c r="BH3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1004432</v>
+      </c>
+      <c r="C4" t="inlineStr">
         <is>
           <t>BELLO HORIZONTE</t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Dragon Ball Super: Super Heroe</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Managua</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Cinemas</t>
         </is>
       </c>
-      <c r="E4" t="n">
+      <c r="G4" t="n">
         <v>1581.68496796</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
+        <v>1581.68496796</v>
+      </c>
+      <c r="I4" t="n">
         <v>607.90608977</v>
       </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
+        <v>607.90608977</v>
+      </c>
+      <c r="K4" t="n">
         <v>1434.66803934</v>
       </c>
-      <c r="H4" t="n">
+      <c r="L4" t="n">
+        <v>1434.66803934</v>
+      </c>
+      <c r="M4" t="n">
         <v>1646.67313301</v>
       </c>
-      <c r="I4" t="n">
+      <c r="N4" t="n">
+        <v>1646.67313301</v>
+      </c>
+      <c r="O4" t="n">
+        <v>5270.93223008</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5270.93223008</v>
+      </c>
+      <c r="Q4" t="n">
         <v>447.14864714</v>
       </c>
-      <c r="J4" t="n">
+      <c r="R4" t="n">
+        <v>447.14864714</v>
+      </c>
+      <c r="S4" t="n">
         <v>559.97606507</v>
       </c>
-      <c r="K4" t="n">
+      <c r="T4" t="n">
+        <v>559.97606507</v>
+      </c>
+      <c r="U4" t="n">
         <v>471.95775384</v>
       </c>
-      <c r="L4" t="n">
+      <c r="V4" t="n">
+        <v>471.95775384</v>
+      </c>
+      <c r="W4" t="n">
+        <v>6750.014696120001</v>
+      </c>
+      <c r="X4" t="n">
+        <v>6750.01469612</v>
+      </c>
+      <c r="Y4" t="inlineStr"/>
+      <c r="Z4" t="inlineStr"/>
+      <c r="AA4" t="inlineStr"/>
+      <c r="AB4" t="inlineStr"/>
+      <c r="AC4" t="inlineStr"/>
+      <c r="AD4" t="inlineStr"/>
+      <c r="AE4" t="inlineStr"/>
+      <c r="AF4" t="inlineStr"/>
+      <c r="AG4" t="inlineStr"/>
+      <c r="AH4" t="n">
         <v>355</v>
       </c>
-      <c r="M4" t="n">
+      <c r="AI4" t="n">
+        <v>355</v>
+      </c>
+      <c r="AJ4" t="n">
         <v>143</v>
       </c>
-      <c r="N4" t="n">
+      <c r="AK4" t="n">
+        <v>143</v>
+      </c>
+      <c r="AL4" t="n">
         <v>334</v>
       </c>
-      <c r="O4" t="n">
+      <c r="AM4" t="n">
+        <v>334</v>
+      </c>
+      <c r="AN4" t="n">
         <v>394</v>
       </c>
-      <c r="P4" t="n">
+      <c r="AO4" t="n">
+        <v>394</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>1226</v>
+      </c>
+      <c r="AQ4" t="n">
         <v>101</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="AR4" t="n">
+        <v>101</v>
+      </c>
+      <c r="AS4" t="n">
         <v>237</v>
       </c>
-      <c r="R4" t="n">
+      <c r="AT4" t="n">
+        <v>237</v>
+      </c>
+      <c r="AU4" t="n">
         <v>106</v>
       </c>
+      <c r="AV4" t="n">
+        <v>106</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>355</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>1670</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>1670</v>
+      </c>
+      <c r="AZ4" t="inlineStr"/>
+      <c r="BA4" t="inlineStr"/>
+      <c r="BB4" t="inlineStr"/>
+      <c r="BC4" t="inlineStr"/>
+      <c r="BD4" t="inlineStr"/>
+      <c r="BE4" t="inlineStr"/>
+      <c r="BF4" t="inlineStr"/>
+      <c r="BG4" t="inlineStr"/>
+      <c r="BH4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1068469</v>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>MASAYA</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Dragon Ball Super: Super Heroe</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>Masaya</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>Cinemas</t>
         </is>
       </c>
-      <c r="E5" t="n">
+      <c r="G5" t="n">
         <v>830.54819236</v>
       </c>
-      <c r="F5" t="n">
+      <c r="H5" t="n">
+        <v>830.54819236</v>
+      </c>
+      <c r="I5" t="n">
         <v>238.86742544</v>
       </c>
-      <c r="G5" t="n">
+      <c r="J5" t="n">
+        <v>238.86742544</v>
+      </c>
+      <c r="K5" t="n">
         <v>822.82145037</v>
       </c>
-      <c r="H5" t="n">
+      <c r="L5" t="n">
+        <v>822.82145037</v>
+      </c>
+      <c r="M5" t="n">
         <v>713.40799942</v>
       </c>
-      <c r="I5" t="n">
+      <c r="N5" t="n">
+        <v>713.40799942</v>
+      </c>
+      <c r="O5" t="n">
+        <v>2605.64506758</v>
+      </c>
+      <c r="P5" t="n">
+        <v>2605.64506758</v>
+      </c>
+      <c r="Q5" t="n">
         <v>160.04797458</v>
       </c>
-      <c r="J5" t="n">
+      <c r="R5" t="n">
+        <v>160.04797458</v>
+      </c>
+      <c r="S5" t="n">
         <v>236.03456515</v>
       </c>
-      <c r="K5" t="n">
+      <c r="T5" t="n">
+        <v>236.03456515</v>
+      </c>
+      <c r="U5" t="n">
         <v>146.44612427</v>
       </c>
-      <c r="L5" t="n">
+      <c r="V5" t="n">
+        <v>146.44612427</v>
+      </c>
+      <c r="W5" t="n">
+        <v>3148.17373158</v>
+      </c>
+      <c r="X5" t="n">
+        <v>3148.17373158</v>
+      </c>
+      <c r="Y5" t="inlineStr"/>
+      <c r="Z5" t="inlineStr"/>
+      <c r="AA5" t="inlineStr"/>
+      <c r="AB5" t="inlineStr"/>
+      <c r="AC5" t="inlineStr"/>
+      <c r="AD5" t="inlineStr"/>
+      <c r="AE5" t="inlineStr"/>
+      <c r="AF5" t="inlineStr"/>
+      <c r="AG5" t="inlineStr"/>
+      <c r="AH5" t="n">
         <v>190</v>
       </c>
-      <c r="M5" t="n">
+      <c r="AI5" t="n">
+        <v>190</v>
+      </c>
+      <c r="AJ5" t="n">
         <v>55</v>
       </c>
-      <c r="N5" t="n">
+      <c r="AK5" t="n">
+        <v>55</v>
+      </c>
+      <c r="AL5" t="n">
         <v>196</v>
       </c>
-      <c r="O5" t="n">
+      <c r="AM5" t="n">
+        <v>196</v>
+      </c>
+      <c r="AN5" t="n">
         <v>178</v>
       </c>
-      <c r="P5" t="n">
+      <c r="AO5" t="n">
+        <v>178</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>619</v>
+      </c>
+      <c r="AQ5" t="n">
         <v>37</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="AR5" t="n">
+        <v>37</v>
+      </c>
+      <c r="AS5" t="n">
         <v>106</v>
       </c>
-      <c r="R5" t="n">
+      <c r="AT5" t="n">
+        <v>106</v>
+      </c>
+      <c r="AU5" t="n">
         <v>34</v>
       </c>
+      <c r="AV5" t="n">
+        <v>34</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>190</v>
+      </c>
+      <c r="AX5" t="n">
+        <v>796</v>
+      </c>
+      <c r="AY5" t="n">
+        <v>796</v>
+      </c>
+      <c r="AZ5" t="inlineStr"/>
+      <c r="BA5" t="inlineStr"/>
+      <c r="BB5" t="inlineStr"/>
+      <c r="BC5" t="inlineStr"/>
+      <c r="BD5" t="inlineStr"/>
+      <c r="BE5" t="inlineStr"/>
+      <c r="BF5" t="inlineStr"/>
+      <c r="BG5" t="inlineStr"/>
+      <c r="BH5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1004436</v>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>PLAZA INTER</t>
         </is>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>Dragon Ball Super: Super Heroe</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Managua</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>Cinemas</t>
         </is>
       </c>
-      <c r="E6" t="n">
+      <c r="G6" t="n">
         <v>565.90379877</v>
       </c>
-      <c r="F6" t="n">
+      <c r="H6" t="n">
+        <v>565.90379877</v>
+      </c>
+      <c r="I6" t="n">
         <v>354.51127563</v>
       </c>
-      <c r="G6" t="n">
+      <c r="J6" t="n">
+        <v>354.51127563</v>
+      </c>
+      <c r="K6" t="n">
         <v>985.31970709</v>
       </c>
-      <c r="H6" t="n">
+      <c r="L6" t="n">
+        <v>985.31970709</v>
+      </c>
+      <c r="M6" t="n">
         <v>556.4367995699999</v>
       </c>
-      <c r="I6" t="n">
+      <c r="N6" t="n">
+        <v>556.4367995699999</v>
+      </c>
+      <c r="O6" t="n">
+        <v>2462.17158107</v>
+      </c>
+      <c r="P6" t="n">
+        <v>2462.17158107</v>
+      </c>
+      <c r="Q6" t="n">
         <v>174.77751156</v>
       </c>
-      <c r="J6" t="n">
+      <c r="R6" t="n">
+        <v>174.77751156</v>
+      </c>
+      <c r="S6" t="n">
         <v>248.92639052</v>
       </c>
-      <c r="K6" t="n">
+      <c r="T6" t="n">
+        <v>248.92639052</v>
+      </c>
+      <c r="U6" t="n">
         <v>199.33602122</v>
       </c>
-      <c r="L6" t="n">
+      <c r="V6" t="n">
+        <v>199.33602122</v>
+      </c>
+      <c r="W6" t="n">
+        <v>3085.21150437</v>
+      </c>
+      <c r="X6" t="n">
+        <v>3085.21150437</v>
+      </c>
+      <c r="Y6" t="inlineStr"/>
+      <c r="Z6" t="inlineStr"/>
+      <c r="AA6" t="inlineStr"/>
+      <c r="AB6" t="inlineStr"/>
+      <c r="AC6" t="inlineStr"/>
+      <c r="AD6" t="inlineStr"/>
+      <c r="AE6" t="inlineStr"/>
+      <c r="AF6" t="inlineStr"/>
+      <c r="AG6" t="inlineStr"/>
+      <c r="AH6" t="n">
         <v>136</v>
       </c>
-      <c r="M6" t="n">
+      <c r="AI6" t="n">
+        <v>136</v>
+      </c>
+      <c r="AJ6" t="n">
         <v>88</v>
       </c>
-      <c r="N6" t="n">
+      <c r="AK6" t="n">
+        <v>88</v>
+      </c>
+      <c r="AL6" t="n">
         <v>249</v>
       </c>
-      <c r="O6" t="n">
+      <c r="AM6" t="n">
+        <v>249</v>
+      </c>
+      <c r="AN6" t="n">
         <v>158</v>
       </c>
-      <c r="P6" t="n">
+      <c r="AO6" t="n">
+        <v>158</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>631</v>
+      </c>
+      <c r="AQ6" t="n">
         <v>44</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="AR6" t="n">
+        <v>44</v>
+      </c>
+      <c r="AS6" t="n">
         <v>95</v>
       </c>
-      <c r="R6" t="n">
+      <c r="AT6" t="n">
+        <v>95</v>
+      </c>
+      <c r="AU6" t="n">
         <v>48</v>
       </c>
+      <c r="AV6" t="n">
+        <v>48</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>136</v>
+      </c>
+      <c r="AX6" t="n">
+        <v>818</v>
+      </c>
+      <c r="AY6" t="n">
+        <v>818</v>
+      </c>
+      <c r="AZ6" t="inlineStr"/>
+      <c r="BA6" t="inlineStr"/>
+      <c r="BB6" t="inlineStr"/>
+      <c r="BC6" t="inlineStr"/>
+      <c r="BD6" t="inlineStr"/>
+      <c r="BE6" t="inlineStr"/>
+      <c r="BF6" t="inlineStr"/>
+      <c r="BG6" t="inlineStr"/>
+      <c r="BH6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>8</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1004434</v>
+      </c>
+      <c r="C7" t="inlineStr">
         <is>
           <t>Metrocentro Managua</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Tren Bala</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Managua</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Cinemark</t>
         </is>
       </c>
-      <c r="E7" t="n">
+      <c r="G7" t="n">
         <v>181.26519041</v>
       </c>
-      <c r="F7" t="n">
+      <c r="H7" t="n">
+        <v>181.26519041</v>
+      </c>
+      <c r="I7" t="n">
         <v>215.5134522</v>
       </c>
-      <c r="G7" t="n">
+      <c r="J7" t="n">
+        <v>215.5134522</v>
+      </c>
+      <c r="K7" t="n">
         <v>676.89044224</v>
       </c>
-      <c r="H7" t="n">
+      <c r="L7" t="n">
+        <v>676.89044224</v>
+      </c>
+      <c r="M7" t="n">
         <v>631.50453435</v>
       </c>
-      <c r="I7" t="n">
+      <c r="N7" t="n">
+        <v>631.50453435</v>
+      </c>
+      <c r="O7" t="n">
+        <v>1705.17361919</v>
+      </c>
+      <c r="P7" t="n">
+        <v>1705.17361919</v>
+      </c>
+      <c r="Q7" t="n">
         <v>99.96037382</v>
       </c>
-      <c r="J7" t="n">
+      <c r="R7" t="n">
+        <v>99.96037382</v>
+      </c>
+      <c r="S7" t="n">
         <v>54.57446593</v>
       </c>
-      <c r="K7" t="n">
+      <c r="T7" t="n">
+        <v>54.57446593</v>
+      </c>
+      <c r="U7" t="n">
         <v>148.9660167</v>
       </c>
-      <c r="L7" t="n">
+      <c r="V7" t="n">
+        <v>148.9660167</v>
+      </c>
+      <c r="W7" t="n">
+        <v>2008.67447565</v>
+      </c>
+      <c r="X7" t="n">
+        <v>2008.67447565</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>-0.05803077</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>-0.28439342</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>0.1804786</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>0.1247825</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0.04711875</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>-0.49935276</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>-0.68947197</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>-0.38917612</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>-0.10635428</v>
+      </c>
+      <c r="AH7" t="n">
         <v>47</v>
       </c>
-      <c r="M7" t="n">
+      <c r="AI7" t="n">
+        <v>47</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>46</v>
       </c>
-      <c r="N7" t="n">
+      <c r="AK7" t="n">
+        <v>46</v>
+      </c>
+      <c r="AL7" t="n">
         <v>162</v>
       </c>
-      <c r="O7" t="n">
+      <c r="AM7" t="n">
+        <v>162</v>
+      </c>
+      <c r="AN7" t="n">
         <v>139</v>
       </c>
-      <c r="P7" t="n">
+      <c r="AO7" t="n">
+        <v>139</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>394</v>
+      </c>
+      <c r="AQ7" t="n">
         <v>28</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="AR7" t="n">
+        <v>28</v>
+      </c>
+      <c r="AS7" t="n">
         <v>17</v>
       </c>
-      <c r="R7" t="n">
+      <c r="AT7" t="n">
+        <v>17</v>
+      </c>
+      <c r="AU7" t="n">
         <v>46</v>
+      </c>
+      <c r="AV7" t="n">
+        <v>46</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>47</v>
+      </c>
+      <c r="AX7" t="n">
+        <v>485</v>
+      </c>
+      <c r="AY7" t="n">
+        <v>485</v>
+      </c>
+      <c r="AZ7" t="n">
+        <v>-0.02083333</v>
+      </c>
+      <c r="BA7" t="n">
+        <v>-0.22033898</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>0.37288136</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>0.112</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>0.12571429</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>-0.45098039</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>-0.69642857</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>-0.28125</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>-0.06909789</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>9</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1004437</v>
+      </c>
+      <c r="C8" t="inlineStr">
         <is>
           <t>GALERÍAS</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>Tren Bala</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Managua</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>Cinemas</t>
         </is>
       </c>
-      <c r="E8" t="n">
+      <c r="G8" t="n">
         <v>105.94685861</v>
       </c>
-      <c r="F8" t="n">
+      <c r="H8" t="n">
+        <v>105.94685861</v>
+      </c>
+      <c r="I8" t="n">
         <v>365.42616882</v>
       </c>
-      <c r="G8" t="n">
+      <c r="J8" t="n">
+        <v>365.42616882</v>
+      </c>
+      <c r="K8" t="n">
         <v>549.1973296</v>
       </c>
-      <c r="H8" t="n">
+      <c r="L8" t="n">
+        <v>549.1973296</v>
+      </c>
+      <c r="M8" t="n">
         <v>358.24238708</v>
       </c>
-      <c r="I8" t="n">
+      <c r="N8" t="n">
+        <v>358.24238708</v>
+      </c>
+      <c r="O8" t="n">
+        <v>1378.8127441</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1378.8127441</v>
+      </c>
+      <c r="Q8" t="n">
         <v>153.7685697</v>
       </c>
-      <c r="J8" t="n">
+      <c r="R8" t="n">
+        <v>153.7685697</v>
+      </c>
+      <c r="S8" t="n">
         <v>130.25477124</v>
       </c>
-      <c r="K8" t="n">
+      <c r="T8" t="n">
+        <v>130.25477124</v>
+      </c>
+      <c r="U8" t="n">
         <v>126.52365979</v>
       </c>
-      <c r="L8" t="n">
+      <c r="V8" t="n">
+        <v>126.52365979</v>
+      </c>
+      <c r="W8" t="n">
+        <v>1789.35974483</v>
+      </c>
+      <c r="X8" t="n">
+        <v>1789.35974483</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>-0.53874994</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>-0.43450432</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>-0.38673667</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>-0.6648109800000001</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>-0.51453845</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>-0.17750577</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>-0.43023287</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>0.01627923</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>-0.47064614</v>
+      </c>
+      <c r="AH8" t="n">
         <v>25</v>
       </c>
-      <c r="M8" t="n">
+      <c r="AI8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ8" t="n">
         <v>69</v>
       </c>
-      <c r="N8" t="n">
+      <c r="AK8" t="n">
+        <v>69</v>
+      </c>
+      <c r="AL8" t="n">
         <v>91</v>
       </c>
-      <c r="O8" t="n">
+      <c r="AM8" t="n">
+        <v>91</v>
+      </c>
+      <c r="AN8" t="n">
         <v>61</v>
       </c>
-      <c r="P8" t="n">
+      <c r="AO8" t="n">
+        <v>61</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>246</v>
+      </c>
+      <c r="AQ8" t="n">
         <v>39</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="AR8" t="n">
+        <v>39</v>
+      </c>
+      <c r="AS8" t="n">
         <v>48</v>
       </c>
-      <c r="R8" t="n">
+      <c r="AT8" t="n">
+        <v>48</v>
+      </c>
+      <c r="AU8" t="n">
         <v>42</v>
+      </c>
+      <c r="AV8" t="n">
+        <v>42</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AX8" t="n">
+        <v>375</v>
+      </c>
+      <c r="AY8" t="n">
+        <v>375</v>
+      </c>
+      <c r="AZ8" t="n">
+        <v>-0.47916667</v>
+      </c>
+      <c r="BA8" t="n">
+        <v>-0.37837838</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>-0.38513514</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>-0.64534884</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>-0.48643006</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>-0.39240506</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>-0.16</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>-0.43181818</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
+      <c r="A9" t="n">
+        <v>10</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1009211</v>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>GALERÍAS</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>Tren Bala</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Managua</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>Cinemas</t>
         </is>
       </c>
-      <c r="E9" t="n">
+      <c r="G9" t="n">
         <v>211.44821137</v>
       </c>
-      <c r="F9" t="n">
+      <c r="H9" t="n">
+        <v>211.44821137</v>
+      </c>
+      <c r="I9" t="n">
         <v>390.43018433</v>
       </c>
-      <c r="G9" t="n">
+      <c r="J9" t="n">
+        <v>390.43018433</v>
+      </c>
+      <c r="K9" t="n">
         <v>527.98011377</v>
       </c>
-      <c r="H9" t="n">
+      <c r="L9" t="n">
+        <v>527.98011377</v>
+      </c>
+      <c r="M9" t="n">
         <v>89.88080409</v>
       </c>
-      <c r="I9" t="n">
+      <c r="N9" t="n">
+        <v>89.88080409</v>
+      </c>
+      <c r="O9" t="n">
+        <v>1219.73931356</v>
+      </c>
+      <c r="P9" t="n">
+        <v>1219.73931356</v>
+      </c>
+      <c r="Q9" t="n">
         <v>131.86972992</v>
       </c>
-      <c r="J9" t="n">
+      <c r="R9" t="n">
+        <v>131.86972992</v>
+      </c>
+      <c r="S9" t="n">
         <v>151.41629884</v>
       </c>
-      <c r="K9" t="n">
+      <c r="T9" t="n">
+        <v>151.41629884</v>
+      </c>
+      <c r="U9" t="n">
         <v>9.466999189999999</v>
       </c>
-      <c r="L9" t="n">
+      <c r="V9" t="n">
+        <v>9.466999189999999</v>
+      </c>
+      <c r="W9" t="n">
+        <v>1512.49234152</v>
+      </c>
+      <c r="X9" t="n">
+        <v>1512.49234152</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>1.20656711</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>0.99490639</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>-0.09216095000000001</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>-0.86971225</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>-0.21960812</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>0.3298179</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>-0.39499563</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>-0.91978319</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>-0.25509045</v>
+      </c>
+      <c r="AH9" t="n">
         <v>23</v>
       </c>
-      <c r="M9" t="n">
+      <c r="AI9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AJ9" t="n">
         <v>43</v>
       </c>
-      <c r="N9" t="n">
+      <c r="AK9" t="n">
+        <v>43</v>
+      </c>
+      <c r="AL9" t="n">
         <v>57</v>
       </c>
-      <c r="O9" t="n">
+      <c r="AM9" t="n">
+        <v>57</v>
+      </c>
+      <c r="AN9" t="n">
         <v>10</v>
       </c>
-      <c r="P9" t="n">
+      <c r="AO9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>133</v>
+      </c>
+      <c r="AQ9" t="n">
         <v>16</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="AR9" t="n">
+        <v>16</v>
+      </c>
+      <c r="AS9" t="n">
         <v>28</v>
       </c>
-      <c r="R9" t="n">
+      <c r="AT9" t="n">
+        <v>28</v>
+      </c>
+      <c r="AU9" t="n">
         <v>2</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>23</v>
+      </c>
+      <c r="AX9" t="n">
+        <v>179</v>
+      </c>
+      <c r="AY9" t="n">
+        <v>179</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>1.09090909</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>1.04761905</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>-0.09523810000000001</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>-0.86842105</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>-0.22222222</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>0.45454545</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>-0.3</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>-0.85714286</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>-0.24152542</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
+      <c r="A10" t="n">
+        <v>11</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1004434</v>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>Metrocentro Managua</t>
         </is>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>DC Liga de Super Mascotas</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Managua</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>Cinemark</t>
         </is>
       </c>
-      <c r="E10" t="n">
+      <c r="G10" t="n">
         <v>144.78939941</v>
       </c>
-      <c r="F10" t="n">
+      <c r="H10" t="n">
+        <v>144.78939941</v>
+      </c>
+      <c r="I10" t="n">
         <v>121.95722489</v>
       </c>
-      <c r="G10" t="n">
+      <c r="J10" t="n">
+        <v>121.95722489</v>
+      </c>
+      <c r="K10" t="n">
         <v>273.98609427</v>
       </c>
-      <c r="H10" t="n">
+      <c r="L10" t="n">
+        <v>273.98609427</v>
+      </c>
+      <c r="M10" t="n">
         <v>569.9690396</v>
       </c>
-      <c r="I10" t="n">
+      <c r="N10" t="n">
+        <v>569.9690396</v>
+      </c>
+      <c r="O10" t="n">
+        <v>1110.70175816</v>
+      </c>
+      <c r="P10" t="n">
+        <v>1110.70175816</v>
+      </c>
+      <c r="Q10" t="n">
         <v>137.82837059</v>
       </c>
-      <c r="J10" t="n">
+      <c r="R10" t="n">
+        <v>137.82837059</v>
+      </c>
+      <c r="S10" t="n">
         <v>96.89752113999999</v>
       </c>
-      <c r="K10" t="n">
+      <c r="T10" t="n">
+        <v>96.89752113999999</v>
+      </c>
+      <c r="U10" t="n">
         <v>144.78939941</v>
       </c>
-      <c r="L10" t="n">
+      <c r="V10" t="n">
+        <v>144.78939941</v>
+      </c>
+      <c r="W10" t="n">
+        <v>1490.2170493</v>
+      </c>
+      <c r="X10" t="n">
+        <v>1490.2170493</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>-0.37718525</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>-0.52069182</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>-0.38110944</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>-0.12069936</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>-0.29605857</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>-0.14397104</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>-0.377767</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>0.29199287</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>-0.25735476</v>
+      </c>
+      <c r="AH10" t="n">
         <v>40</v>
       </c>
-      <c r="M10" t="n">
+      <c r="AI10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AJ10" t="n">
         <v>30</v>
       </c>
-      <c r="N10" t="n">
+      <c r="AK10" t="n">
+        <v>30</v>
+      </c>
+      <c r="AL10" t="n">
         <v>66</v>
       </c>
-      <c r="O10" t="n">
+      <c r="AM10" t="n">
+        <v>66</v>
+      </c>
+      <c r="AN10" t="n">
         <v>144</v>
       </c>
-      <c r="P10" t="n">
+      <c r="AO10" t="n">
+        <v>144</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>280</v>
+      </c>
+      <c r="AQ10" t="n">
         <v>42</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="AR10" t="n">
+        <v>42</v>
+      </c>
+      <c r="AS10" t="n">
         <v>30</v>
       </c>
-      <c r="R10" t="n">
+      <c r="AT10" t="n">
+        <v>30</v>
+      </c>
+      <c r="AU10" t="n">
         <v>36</v>
+      </c>
+      <c r="AV10" t="n">
+        <v>36</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>40</v>
+      </c>
+      <c r="AX10" t="n">
+        <v>388</v>
+      </c>
+      <c r="AY10" t="n">
+        <v>388</v>
+      </c>
+      <c r="AZ10" t="n">
+        <v>-0.31034483</v>
+      </c>
+      <c r="BA10" t="n">
+        <v>-0.44444444</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>-0.34653465</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>-0.03355705</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>-0.22651934</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>-0.02325581</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>-0.375</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>-0.18828452</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
+      <c r="A11" t="n">
+        <v>12</v>
+      </c>
+      <c r="B11" t="n">
+        <v>1004437</v>
+      </c>
+      <c r="C11" t="inlineStr">
         <is>
           <t>GALERÍAS</t>
         </is>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Thor Amor y Trueno</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>Managua</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>Cinemas</t>
         </is>
       </c>
-      <c r="E11" t="n">
+      <c r="G11" t="n">
         <v>110.84742289</v>
       </c>
-      <c r="F11" t="n">
+      <c r="H11" t="n">
+        <v>110.84742289</v>
+      </c>
+      <c r="I11" t="n">
         <v>198.30578896</v>
       </c>
-      <c r="G11" t="n">
+      <c r="J11" t="n">
+        <v>198.30578896</v>
+      </c>
+      <c r="K11" t="n">
         <v>469.39609524</v>
       </c>
-      <c r="H11" t="n">
+      <c r="L11" t="n">
+        <v>469.39609524</v>
+      </c>
+      <c r="M11" t="n">
         <v>398.83910714</v>
       </c>
-      <c r="I11" t="n">
+      <c r="N11" t="n">
+        <v>398.83910714</v>
+      </c>
+      <c r="O11" t="n">
+        <v>1177.38841423</v>
+      </c>
+      <c r="P11" t="n">
+        <v>1177.38841423</v>
+      </c>
+      <c r="Q11" t="n">
         <v>83.61587815999999</v>
       </c>
-      <c r="J11" t="n">
+      <c r="R11" t="n">
+        <v>83.61587815999999</v>
+      </c>
+      <c r="S11" t="n">
         <v>57.97144799</v>
       </c>
-      <c r="K11" t="n">
+      <c r="T11" t="n">
+        <v>57.97144799</v>
+      </c>
+      <c r="U11" t="n">
         <v>88.37722187</v>
       </c>
-      <c r="L11" t="n">
+      <c r="V11" t="n">
+        <v>88.37722187</v>
+      </c>
+      <c r="W11" t="n">
+        <v>1407.35296225</v>
+      </c>
+      <c r="X11" t="n">
+        <v>1407.35296225</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>-0.09240589</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>-0.21909557</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>-0.16170926</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>-0.23280334</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>-0.19129124</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>0.68453071</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>-0.53817122</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>0.12858973</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>-0.17667737</v>
+      </c>
+      <c r="AH11" t="n">
         <v>24</v>
       </c>
-      <c r="M11" t="n">
+      <c r="AI11" t="n">
+        <v>24</v>
+      </c>
+      <c r="AJ11" t="n">
         <v>35</v>
       </c>
-      <c r="N11" t="n">
+      <c r="AK11" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL11" t="n">
         <v>80</v>
       </c>
-      <c r="O11" t="n">
+      <c r="AM11" t="n">
+        <v>80</v>
+      </c>
+      <c r="AN11" t="n">
         <v>70</v>
       </c>
-      <c r="P11" t="n">
+      <c r="AO11" t="n">
+        <v>70</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>209</v>
+      </c>
+      <c r="AQ11" t="n">
         <v>19</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="AR11" t="n">
+        <v>19</v>
+      </c>
+      <c r="AS11" t="n">
         <v>21</v>
       </c>
-      <c r="R11" t="n">
+      <c r="AT11" t="n">
+        <v>21</v>
+      </c>
+      <c r="AU11" t="n">
         <v>20</v>
+      </c>
+      <c r="AV11" t="n">
+        <v>20</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>24</v>
+      </c>
+      <c r="AX11" t="n">
+        <v>269</v>
+      </c>
+      <c r="AY11" t="n">
+        <v>269</v>
+      </c>
+      <c r="AZ11" t="n">
+        <v>0.14285714</v>
+      </c>
+      <c r="BA11" t="n">
+        <v>-0.18604651</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>-0.2</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>-0.21348315</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>-0.17391304</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>0.11764706</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>-0.55319149</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>-0.16666667</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>-0.2111437</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" t="n">
+        <v>13</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1004437</v>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>GALERÍAS</t>
         </is>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>DC Liga de Super Mascotas</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>Managua</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>Cinemas</t>
         </is>
       </c>
-      <c r="E12" t="n">
+      <c r="G12" t="n">
         <v>42.4901199</v>
       </c>
-      <c r="F12" t="n">
+      <c r="H12" t="n">
+        <v>42.4901199</v>
+      </c>
+      <c r="I12" t="n">
         <v>143.75916714</v>
       </c>
-      <c r="G12" t="n">
+      <c r="J12" t="n">
+        <v>143.75916714</v>
+      </c>
+      <c r="K12" t="n">
         <v>657.39956155</v>
       </c>
-      <c r="H12" t="n">
+      <c r="L12" t="n">
+        <v>657.39956155</v>
+      </c>
+      <c r="M12" t="n">
         <v>405.29894188</v>
       </c>
-      <c r="I12" t="n">
+      <c r="N12" t="n">
+        <v>405.29894188</v>
+      </c>
+      <c r="O12" t="n">
+        <v>1248.94779048</v>
+      </c>
+      <c r="P12" t="n">
+        <v>1248.94779048</v>
+      </c>
+      <c r="Q12" t="n">
         <v>18.0429867</v>
       </c>
-      <c r="J12" t="n">
+      <c r="R12" t="n">
+        <v>18.0429867</v>
+      </c>
+      <c r="S12" t="n">
         <v>47.11224304</v>
       </c>
-      <c r="K12" t="n">
+      <c r="T12" t="n">
+        <v>47.11224304</v>
+      </c>
+      <c r="U12" t="n">
         <v>52.79244255</v>
       </c>
-      <c r="L12" t="n">
+      <c r="V12" t="n">
+        <v>52.79244255</v>
+      </c>
+      <c r="W12" t="n">
+        <v>1366.89546277</v>
+      </c>
+      <c r="X12" t="n">
+        <v>1366.89546277</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>-0.70649724</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>-0.50390439</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>0.07242617</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>-0.51729342</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>-0.33819736</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>-0.69919387</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>-0.4280249</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>0.14640962</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>-0.34144268</v>
+      </c>
+      <c r="AH12" t="n">
         <v>8</v>
       </c>
-      <c r="M12" t="n">
+      <c r="AI12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AJ12" t="n">
         <v>25</v>
       </c>
-      <c r="N12" t="n">
+      <c r="AK12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL12" t="n">
         <v>115</v>
       </c>
-      <c r="O12" t="n">
+      <c r="AM12" t="n">
+        <v>115</v>
+      </c>
+      <c r="AN12" t="n">
         <v>75</v>
       </c>
-      <c r="P12" t="n">
+      <c r="AO12" t="n">
+        <v>75</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>223</v>
+      </c>
+      <c r="AQ12" t="n">
         <v>3</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="AR12" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS12" t="n">
         <v>19</v>
       </c>
-      <c r="R12" t="n">
+      <c r="AT12" t="n">
+        <v>19</v>
+      </c>
+      <c r="AU12" t="n">
         <v>16</v>
+      </c>
+      <c r="AV12" t="n">
+        <v>16</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX12" t="n">
+        <v>261</v>
+      </c>
+      <c r="AY12" t="n">
+        <v>261</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>-0.71428571</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>-0.58333333</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>0.04545455</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>-0.52531646</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>-0.37359551</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>-0.85</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>-0.36666667</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>-0.05882353</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>-0.38297872</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
+      <c r="A13" t="n">
+        <v>14</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1004432</v>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>BELLO HORIZONTE</t>
         </is>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>Minions Nace un Villano</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>Managua</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>Cinemas</t>
         </is>
       </c>
-      <c r="E13" t="n">
+      <c r="G13" t="n">
         <v>73.25786728</v>
       </c>
-      <c r="F13" t="n">
+      <c r="H13" t="n">
+        <v>73.25786728</v>
+      </c>
+      <c r="I13" t="n">
         <v>75.83344794</v>
       </c>
-      <c r="G13" t="n">
+      <c r="J13" t="n">
+        <v>75.83344794</v>
+      </c>
+      <c r="K13" t="n">
         <v>421.89403459</v>
       </c>
-      <c r="H13" t="n">
+      <c r="L13" t="n">
+        <v>421.89403459</v>
+      </c>
+      <c r="M13" t="n">
         <v>533.70876204</v>
       </c>
-      <c r="I13" t="n">
+      <c r="N13" t="n">
+        <v>533.70876204</v>
+      </c>
+      <c r="O13" t="n">
+        <v>1104.69411185</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1104.69411185</v>
+      </c>
+      <c r="Q13" t="n">
         <v>85.75987503</v>
       </c>
-      <c r="J13" t="n">
+      <c r="R13" t="n">
+        <v>85.75987503</v>
+      </c>
+      <c r="S13" t="n">
         <v>64.37559451</v>
       </c>
-      <c r="K13" t="n">
+      <c r="T13" t="n">
+        <v>64.37559451</v>
+      </c>
+      <c r="U13" t="n">
         <v>90.64651726</v>
       </c>
-      <c r="L13" t="n">
+      <c r="V13" t="n">
+        <v>90.64651726</v>
+      </c>
+      <c r="W13" t="n">
+        <v>1345.47609865</v>
+      </c>
+      <c r="X13" t="n">
+        <v>1345.47609865</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>6.52687362</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>-0.51631332</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>0.25947318</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>0.28947542</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0.20680471</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>1.64039982</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>-0.46356324</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>-0.14823251</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>0.14577338</v>
+      </c>
+      <c r="AH13" t="n">
         <v>20</v>
       </c>
-      <c r="M13" t="n">
+      <c r="AI13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AJ13" t="n">
         <v>21</v>
       </c>
-      <c r="N13" t="n">
+      <c r="AK13" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL13" t="n">
         <v>105</v>
       </c>
-      <c r="O13" t="n">
+      <c r="AM13" t="n">
+        <v>105</v>
+      </c>
+      <c r="AN13" t="n">
         <v>133</v>
       </c>
-      <c r="P13" t="n">
+      <c r="AO13" t="n">
+        <v>133</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>279</v>
+      </c>
+      <c r="AQ13" t="n">
         <v>33</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="AR13" t="n">
+        <v>33</v>
+      </c>
+      <c r="AS13" t="n">
         <v>30</v>
       </c>
-      <c r="R13" t="n">
+      <c r="AT13" t="n">
+        <v>30</v>
+      </c>
+      <c r="AU13" t="n">
         <v>41</v>
+      </c>
+      <c r="AV13" t="n">
+        <v>41</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>20</v>
+      </c>
+      <c r="AX13" t="n">
+        <v>383</v>
+      </c>
+      <c r="AY13" t="n">
+        <v>383</v>
+      </c>
+      <c r="AZ13" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA13" t="n">
+        <v>-0.55319149</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>0.16666667</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>0.25471698</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>0.12955466</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>1.35714286</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>-0.42307692</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>-0.04651163</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>0.0758427</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" t="n">
+        <v>15</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1004437</v>
+      </c>
+      <c r="C14" t="inlineStr">
         <is>
           <t>GALERÍAS</t>
         </is>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>El Telefono Negro</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>Managua</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>Cinemas</t>
         </is>
       </c>
-      <c r="E14" t="n">
+      <c r="G14" t="n">
         <v>168.12276801</v>
       </c>
-      <c r="F14" t="n">
+      <c r="H14" t="n">
+        <v>168.12276801</v>
+      </c>
+      <c r="I14" t="n">
         <v>193.90641875</v>
       </c>
-      <c r="G14" t="n">
+      <c r="J14" t="n">
+        <v>193.90641875</v>
+      </c>
+      <c r="K14" t="n">
         <v>306.20173563</v>
       </c>
-      <c r="H14" t="n">
+      <c r="L14" t="n">
+        <v>306.20173563</v>
+      </c>
+      <c r="M14" t="n">
         <v>344.87721175</v>
       </c>
-      <c r="I14" t="n">
+      <c r="N14" t="n">
+        <v>344.87721175</v>
+      </c>
+      <c r="O14" t="n">
+        <v>1013.10813413</v>
+      </c>
+      <c r="P14" t="n">
+        <v>1013.10813413</v>
+      </c>
+      <c r="Q14" t="n">
         <v>44.4948962</v>
       </c>
-      <c r="J14" t="n">
+      <c r="R14" t="n">
+        <v>44.4948962</v>
+      </c>
+      <c r="S14" t="n">
         <v>46.33260781</v>
       </c>
-      <c r="K14" t="n">
+      <c r="T14" t="n">
+        <v>46.33260781</v>
+      </c>
+      <c r="U14" t="n">
         <v>151.86180469</v>
       </c>
-      <c r="L14" t="n">
+      <c r="V14" t="n">
+        <v>151.86180469</v>
+      </c>
+      <c r="W14" t="n">
+        <v>1255.79744284</v>
+      </c>
+      <c r="X14" t="n">
+        <v>1255.79744284</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>0.54981186</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>-0.06226268</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>-0.09847425999999999</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>0.2754045</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0.09487901999999999</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>0.3136852</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>-0.61618198</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>0.60713952</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>0.06931668000000001</v>
+      </c>
+      <c r="AH14" t="n">
         <v>30</v>
       </c>
-      <c r="M14" t="n">
+      <c r="AI14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>34</v>
       </c>
-      <c r="N14" t="n">
+      <c r="AK14" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL14" t="n">
         <v>51</v>
       </c>
-      <c r="O14" t="n">
+      <c r="AM14" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN14" t="n">
         <v>55</v>
       </c>
-      <c r="P14" t="n">
+      <c r="AO14" t="n">
+        <v>55</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>170</v>
+      </c>
+      <c r="AQ14" t="n">
         <v>18</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="AR14" t="n">
+        <v>18</v>
+      </c>
+      <c r="AS14" t="n">
         <v>21</v>
       </c>
-      <c r="R14" t="n">
+      <c r="AT14" t="n">
+        <v>21</v>
+      </c>
+      <c r="AU14" t="n">
         <v>38</v>
+      </c>
+      <c r="AV14" t="n">
+        <v>38</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>30</v>
+      </c>
+      <c r="AX14" t="n">
+        <v>247</v>
+      </c>
+      <c r="AY14" t="n">
+        <v>247</v>
+      </c>
+      <c r="AZ14" t="n">
+        <v>0.36363636</v>
+      </c>
+      <c r="BA14" t="n">
+        <v>-0.10526316</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>-0.07272727</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>0.22222222</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>-0.60377358</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>0.72727273</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>-0.012</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
+      <c r="A15" t="n">
+        <v>16</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1004432</v>
+      </c>
+      <c r="C15" t="inlineStr">
         <is>
           <t>BELLO HORIZONTE</t>
         </is>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>Tren Bala</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>Managua</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>Cinemas</t>
         </is>
       </c>
-      <c r="E15" t="n">
+      <c r="G15" t="n">
         <v>102.71694123</v>
       </c>
-      <c r="F15" t="n">
+      <c r="H15" t="n">
+        <v>102.71694123</v>
+      </c>
+      <c r="I15" t="n">
         <v>101.95122806</v>
       </c>
-      <c r="G15" t="n">
+      <c r="J15" t="n">
+        <v>101.95122806</v>
+      </c>
+      <c r="K15" t="n">
         <v>426.40478126</v>
       </c>
-      <c r="H15" t="n">
+      <c r="L15" t="n">
+        <v>426.40478126</v>
+      </c>
+      <c r="M15" t="n">
         <v>342.20417668</v>
       </c>
-      <c r="I15" t="n">
+      <c r="N15" t="n">
+        <v>342.20417668</v>
+      </c>
+      <c r="O15" t="n">
+        <v>973.27712724</v>
+      </c>
+      <c r="P15" t="n">
+        <v>973.27712724</v>
+      </c>
+      <c r="Q15" t="n">
         <v>80.92892104000001</v>
       </c>
-      <c r="J15" t="n">
+      <c r="R15" t="n">
+        <v>80.92892104000001</v>
+      </c>
+      <c r="S15" t="n">
         <v>73.00727024</v>
       </c>
-      <c r="K15" t="n">
+      <c r="T15" t="n">
+        <v>73.00727024</v>
+      </c>
+      <c r="U15" t="n">
         <v>55.82745112</v>
       </c>
-      <c r="L15" t="n">
+      <c r="V15" t="n">
+        <v>55.82745112</v>
+      </c>
+      <c r="W15" t="n">
+        <v>1183.04076963</v>
+      </c>
+      <c r="X15" t="n">
+        <v>1183.04076963</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>0.32014844</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>-0.19334659</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>0.5387680500000001</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>0.03970168</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0.20092464</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>-0.14341063</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>-0.64328884</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>-0.54164488</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>-0.03926019</v>
+      </c>
+      <c r="AH15" t="n">
         <v>25</v>
       </c>
-      <c r="M15" t="n">
+      <c r="AI15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>26</v>
       </c>
-      <c r="N15" t="n">
+      <c r="AK15" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL15" t="n">
         <v>92</v>
       </c>
-      <c r="O15" t="n">
+      <c r="AM15" t="n">
+        <v>92</v>
+      </c>
+      <c r="AN15" t="n">
         <v>79</v>
       </c>
-      <c r="P15" t="n">
+      <c r="AO15" t="n">
+        <v>79</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>222</v>
+      </c>
+      <c r="AQ15" t="n">
         <v>31</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="AR15" t="n">
+        <v>31</v>
+      </c>
+      <c r="AS15" t="n">
         <v>30</v>
       </c>
-      <c r="R15" t="n">
+      <c r="AT15" t="n">
+        <v>30</v>
+      </c>
+      <c r="AU15" t="n">
         <v>21</v>
+      </c>
+      <c r="AV15" t="n">
+        <v>21</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>25</v>
+      </c>
+      <c r="AX15" t="n">
+        <v>304</v>
+      </c>
+      <c r="AY15" t="n">
+        <v>304</v>
+      </c>
+      <c r="AZ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA15" t="n">
+        <v>-0.21212121</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>0.48387097</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>0.11267606</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>0.16230366</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>-0.18421053</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>-0.68085106</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>-0.5625</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>-0.18059299</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A16" t="n">
+        <v>17</v>
+      </c>
+      <c r="B16" t="n">
+        <v>1004437</v>
+      </c>
+      <c r="C16" t="inlineStr">
         <is>
           <t>GALERÍAS</t>
         </is>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Minions Nace un Villano</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>Managua</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>Cinemas</t>
         </is>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
         <v>153.1704781</v>
       </c>
-      <c r="G16" t="n">
+      <c r="J16" t="n">
+        <v>153.1704781</v>
+      </c>
+      <c r="K16" t="n">
         <v>366.06658347</v>
       </c>
-      <c r="H16" t="n">
+      <c r="L16" t="n">
+        <v>366.06658347</v>
+      </c>
+      <c r="M16" t="n">
         <v>442.02532993</v>
       </c>
-      <c r="I16" t="n">
+      <c r="N16" t="n">
+        <v>442.02532993</v>
+      </c>
+      <c r="O16" t="n">
+        <v>961.2623914999999</v>
+      </c>
+      <c r="P16" t="n">
+        <v>961.2623915</v>
+      </c>
+      <c r="Q16" t="n">
         <v>42.93562575</v>
       </c>
-      <c r="J16" t="n">
+      <c r="R16" t="n">
+        <v>42.93562575</v>
+      </c>
+      <c r="S16" t="n">
         <v>92.97150089</v>
       </c>
-      <c r="K16" t="n">
+      <c r="T16" t="n">
+        <v>92.97150089</v>
+      </c>
+      <c r="U16" t="n">
         <v>74.87282596</v>
       </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
+      <c r="V16" t="n">
+        <v>74.87282596</v>
+      </c>
+      <c r="W16" t="n">
+        <v>1172.0423441</v>
+      </c>
+      <c r="X16" t="n">
+        <v>1172.0423441</v>
+      </c>
+      <c r="Y16" t="inlineStr"/>
+      <c r="Z16" t="n">
+        <v>-0.17345124</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>0.18873203</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>-0.38717134</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>-0.2085427</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>-0.5776816</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>0.55070606</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>-0.10250638</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>-0.19700716</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="n">
         <v>27</v>
       </c>
-      <c r="N16" t="n">
+      <c r="AK16" t="n">
+        <v>27</v>
+      </c>
+      <c r="AL16" t="n">
         <v>67</v>
       </c>
-      <c r="O16" t="n">
+      <c r="AM16" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN16" t="n">
         <v>81</v>
       </c>
-      <c r="P16" t="n">
+      <c r="AO16" t="n">
+        <v>81</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>175</v>
+      </c>
+      <c r="AQ16" t="n">
         <v>13</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="AR16" t="n">
+        <v>13</v>
+      </c>
+      <c r="AS16" t="n">
         <v>35</v>
       </c>
-      <c r="R16" t="n">
+      <c r="AT16" t="n">
+        <v>35</v>
+      </c>
+      <c r="AU16" t="n">
         <v>18</v>
+      </c>
+      <c r="AV16" t="n">
+        <v>18</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX16" t="n">
+        <v>241</v>
+      </c>
+      <c r="AY16" t="n">
+        <v>241</v>
+      </c>
+      <c r="AZ16" t="inlineStr"/>
+      <c r="BA16" t="n">
+        <v>-0.15625</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>0.26415094</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>-0.38167939</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>-0.18981481</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>-0.51851852</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>0.45833333</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>-0.14285714</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>-0.16319444</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
+      <c r="A17" t="n">
+        <v>18</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1004437</v>
+      </c>
+      <c r="C17" t="inlineStr">
         <is>
           <t>GALERÍAS</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Bestia</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>Managua</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>Cinemas</t>
         </is>
       </c>
-      <c r="E17" t="n">
+      <c r="G17" t="n">
         <v>69.27615879</v>
       </c>
-      <c r="F17" t="n">
+      <c r="H17" t="n">
+        <v>69.27615879</v>
+      </c>
+      <c r="I17" t="n">
         <v>104.54741337</v>
       </c>
-      <c r="G17" t="n">
+      <c r="J17" t="n">
+        <v>104.54741337</v>
+      </c>
+      <c r="K17" t="n">
         <v>186.49988408</v>
       </c>
-      <c r="H17" t="n">
+      <c r="L17" t="n">
+        <v>186.49988408</v>
+      </c>
+      <c r="M17" t="n">
         <v>60.36604191</v>
       </c>
-      <c r="I17" t="n">
+      <c r="N17" t="n">
+        <v>60.36604191</v>
+      </c>
+      <c r="O17" t="n">
+        <v>420.68949816</v>
+      </c>
+      <c r="P17" t="n">
+        <v>420.68949816</v>
+      </c>
+      <c r="Q17" t="n">
         <v>65.71211203999999</v>
       </c>
-      <c r="J17" t="n">
+      <c r="R17" t="n">
+        <v>65.71211203999999</v>
+      </c>
+      <c r="S17" t="n">
         <v>398.72773068</v>
       </c>
-      <c r="K17" t="n">
+      <c r="T17" t="n">
+        <v>398.72773068</v>
+      </c>
+      <c r="U17" t="n">
         <v>72.25547913</v>
       </c>
-      <c r="L17" t="n">
+      <c r="V17" t="n">
+        <v>72.25547913</v>
+      </c>
+      <c r="W17" t="n">
+        <v>957.3848200099999</v>
+      </c>
+      <c r="X17" t="n">
+        <v>957.38482001</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>-0.44067789</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>-0.38646215</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>-0.5381399100000001</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>-0.79879447</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>-0.57850196</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>-0.16381636</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>5.05512538</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>-0.38833353</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>-0.24056014</v>
+      </c>
+      <c r="AH17" t="n">
         <v>13</v>
       </c>
-      <c r="M17" t="n">
+      <c r="AI17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ17" t="n">
         <v>18</v>
       </c>
-      <c r="N17" t="n">
+      <c r="AK17" t="n">
+        <v>18</v>
+      </c>
+      <c r="AL17" t="n">
         <v>30</v>
       </c>
-      <c r="O17" t="n">
+      <c r="AM17" t="n">
+        <v>30</v>
+      </c>
+      <c r="AN17" t="n">
         <v>11</v>
       </c>
-      <c r="P17" t="n">
+      <c r="AO17" t="n">
+        <v>11</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>72</v>
+      </c>
+      <c r="AQ17" t="n">
         <v>17</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="AR17" t="n">
+        <v>17</v>
+      </c>
+      <c r="AS17" t="n">
         <v>185</v>
       </c>
-      <c r="R17" t="n">
+      <c r="AT17" t="n">
+        <v>185</v>
+      </c>
+      <c r="AU17" t="n">
         <v>21</v>
+      </c>
+      <c r="AV17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX17" t="n">
+        <v>295</v>
+      </c>
+      <c r="AY17" t="n">
+        <v>295</v>
+      </c>
+      <c r="AZ17" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="BA17" t="n">
+        <v>-0.37931034</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>-0.55223881</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>-0.7755102</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>-0.5636363599999999</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>0.21428571</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>7.04347826</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>0.32882883</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
+      <c r="A18" t="n">
+        <v>19</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1004432</v>
+      </c>
+      <c r="C18" t="inlineStr">
         <is>
           <t>BELLO HORIZONTE</t>
         </is>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>Bestia</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>Managua</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>Cinemas</t>
         </is>
       </c>
-      <c r="E18" t="n">
+      <c r="G18" t="n">
         <v>119.01967073</v>
       </c>
-      <c r="F18" t="n">
+      <c r="H18" t="n">
+        <v>119.01967073</v>
+      </c>
+      <c r="I18" t="n">
         <v>54.85290707999999</v>
       </c>
-      <c r="G18" t="n">
+      <c r="J18" t="n">
+        <v>54.85290708</v>
+      </c>
+      <c r="K18" t="n">
         <v>159.90875401</v>
       </c>
-      <c r="H18" t="n">
+      <c r="L18" t="n">
+        <v>159.90875401</v>
+      </c>
+      <c r="M18" t="n">
         <v>383.83112901</v>
       </c>
-      <c r="I18" t="n">
+      <c r="N18" t="n">
+        <v>383.83112901</v>
+      </c>
+      <c r="O18" t="n">
+        <v>717.61246082</v>
+      </c>
+      <c r="P18" t="n">
+        <v>717.61246082</v>
+      </c>
+      <c r="Q18" t="n">
         <v>16.42802801</v>
       </c>
-      <c r="J18" t="n">
+      <c r="R18" t="n">
+        <v>16.42802801</v>
+      </c>
+      <c r="S18" t="n">
         <v>82.80839881999999</v>
       </c>
-      <c r="K18" t="n">
+      <c r="T18" t="n">
+        <v>82.80839881999999</v>
+      </c>
+      <c r="U18" t="n">
         <v>64.59834743</v>
       </c>
-      <c r="L18" t="n">
+      <c r="V18" t="n">
+        <v>64.59834743</v>
+      </c>
+      <c r="W18" t="n">
+        <v>881.44723507</v>
+      </c>
+      <c r="X18" t="n">
+        <v>881.44723507</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>-0.28997458</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>-0.18422245</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>-0.27117438</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>0.88254833</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0.09032709999999999</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>-0.68559673</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>0.38247436</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>-0.23206506</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>0.03161748</v>
+      </c>
+      <c r="AH18" t="n">
         <v>32</v>
       </c>
-      <c r="M18" t="n">
+      <c r="AI18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AJ18" t="n">
         <v>17</v>
       </c>
-      <c r="N18" t="n">
+      <c r="AK18" t="n">
+        <v>17</v>
+      </c>
+      <c r="AL18" t="n">
         <v>39</v>
       </c>
-      <c r="O18" t="n">
+      <c r="AM18" t="n">
+        <v>39</v>
+      </c>
+      <c r="AN18" t="n">
         <v>94</v>
       </c>
-      <c r="P18" t="n">
+      <c r="AO18" t="n">
+        <v>94</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>182</v>
+      </c>
+      <c r="AQ18" t="n">
         <v>6</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="AR18" t="n">
+        <v>6</v>
+      </c>
+      <c r="AS18" t="n">
         <v>38</v>
       </c>
-      <c r="R18" t="n">
+      <c r="AT18" t="n">
+        <v>38</v>
+      </c>
+      <c r="AU18" t="n">
         <v>29</v>
+      </c>
+      <c r="AV18" t="n">
+        <v>29</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>32</v>
+      </c>
+      <c r="AX18" t="n">
+        <v>255</v>
+      </c>
+      <c r="AY18" t="n">
+        <v>255</v>
+      </c>
+      <c r="AZ18" t="n">
+        <v>-0.15789474</v>
+      </c>
+      <c r="BA18" t="n">
+        <v>0.0625</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>-0.25</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>1.08888889</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>0.20529801</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>0.52631579</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>0.23188406</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
+      <c r="A19" t="n">
+        <v>20</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1004437</v>
+      </c>
+      <c r="C19" t="inlineStr">
         <is>
           <t>GALERÍAS</t>
         </is>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Elvis</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>Managua</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Cinemas</t>
         </is>
       </c>
-      <c r="E19" t="n">
+      <c r="G19" t="n">
         <v>79.74554614</v>
       </c>
-      <c r="F19" t="n">
+      <c r="H19" t="n">
+        <v>79.74554614</v>
+      </c>
+      <c r="I19" t="n">
         <v>118.78299575</v>
       </c>
-      <c r="G19" t="n">
+      <c r="J19" t="n">
+        <v>118.78299575</v>
+      </c>
+      <c r="K19" t="n">
         <v>197.74890665</v>
       </c>
-      <c r="H19" t="n">
+      <c r="L19" t="n">
+        <v>197.74890665</v>
+      </c>
+      <c r="M19" t="n">
         <v>251.65511382</v>
       </c>
-      <c r="I19" t="n">
+      <c r="N19" t="n">
+        <v>251.65511382</v>
+      </c>
+      <c r="O19" t="n">
+        <v>647.93256236</v>
+      </c>
+      <c r="P19" t="n">
+        <v>647.93256236</v>
+      </c>
+      <c r="Q19" t="n">
         <v>68.71927649</v>
       </c>
-      <c r="J19" t="n">
+      <c r="R19" t="n">
+        <v>68.71927649</v>
+      </c>
+      <c r="S19" t="n">
         <v>72.95158201</v>
       </c>
-      <c r="K19" t="n">
+      <c r="T19" t="n">
+        <v>72.95158201</v>
+      </c>
+      <c r="U19" t="n">
         <v>76.29287583999999</v>
       </c>
-      <c r="L19" t="n">
+      <c r="V19" t="n">
+        <v>76.29287583999999</v>
+      </c>
+      <c r="W19" t="n">
+        <v>865.8962967</v>
+      </c>
+      <c r="X19" t="n">
+        <v>865.8962967</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.82889501</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>-0.25764299</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>-0.22468454</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>-0.36352553</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>-0.24134676</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>0.06287947000000001</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>-0.3074468</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>-0.29724722</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>-0.23548605</v>
+      </c>
+      <c r="AH19" t="n">
         <v>16</v>
       </c>
-      <c r="M19" t="n">
+      <c r="AI19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AJ19" t="n">
         <v>20</v>
       </c>
-      <c r="N19" t="n">
+      <c r="AK19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL19" t="n">
         <v>36</v>
       </c>
-      <c r="O19" t="n">
+      <c r="AM19" t="n">
+        <v>36</v>
+      </c>
+      <c r="AN19" t="n">
         <v>42</v>
       </c>
-      <c r="P19" t="n">
+      <c r="AO19" t="n">
+        <v>42</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>114</v>
+      </c>
+      <c r="AQ19" t="n">
         <v>19</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="AR19" t="n">
+        <v>19</v>
+      </c>
+      <c r="AS19" t="n">
         <v>29</v>
       </c>
-      <c r="R19" t="n">
+      <c r="AT19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AU19" t="n">
         <v>24</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>24</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>16</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>186</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>186</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>1</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>-0.28571429</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>-0.14285714</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>-0.37313433</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>-0.2137931</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>0.11764706</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>-0.19444444</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>-0.29411765</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>-0.19827586</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
+      <c r="A20" t="n">
+        <v>21</v>
+      </c>
+      <c r="B20" t="n">
+        <v>1004437</v>
+      </c>
+      <c r="C20" t="inlineStr">
         <is>
           <t>GALERÍAS</t>
         </is>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>Top Gun Maverick</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>Managua</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>Cinemas</t>
         </is>
       </c>
-      <c r="E20" t="n">
+      <c r="G20" t="n">
         <v>19.21243954</v>
       </c>
-      <c r="F20" t="n">
+      <c r="H20" t="n">
+        <v>19.21243954</v>
+      </c>
+      <c r="I20" t="n">
         <v>53.57207779</v>
       </c>
-      <c r="G20" t="n">
+      <c r="J20" t="n">
+        <v>53.57207779</v>
+      </c>
+      <c r="K20" t="n">
         <v>433.9505365</v>
       </c>
-      <c r="H20" t="n">
+      <c r="L20" t="n">
+        <v>433.9505365</v>
+      </c>
+      <c r="M20" t="n">
         <v>121.59525139</v>
       </c>
-      <c r="I20" t="n">
+      <c r="N20" t="n">
+        <v>121.59525139</v>
+      </c>
+      <c r="O20" t="n">
+        <v>628.3303052</v>
+      </c>
+      <c r="P20" t="n">
+        <v>628.3303052</v>
+      </c>
+      <c r="Q20" t="n">
         <v>91.07810104999999</v>
       </c>
-      <c r="J20" t="n">
+      <c r="R20" t="n">
+        <v>91.07810105</v>
+      </c>
+      <c r="S20" t="n">
         <v>17.87592201</v>
       </c>
-      <c r="K20" t="n">
+      <c r="T20" t="n">
+        <v>17.87592201</v>
+      </c>
+      <c r="U20" t="n">
         <v>112.76866684</v>
       </c>
-      <c r="L20" t="n">
+      <c r="V20" t="n">
+        <v>112.76866684</v>
+      </c>
+      <c r="W20" t="n">
+        <v>850.0529951</v>
+      </c>
+      <c r="X20" t="n">
+        <v>850.0529951</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>-0.21310571</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>-0.45363285</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>2.37774338</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>-0.28199458</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0.49498552</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>2.46585633</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>-0.53819608</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>7.81574485</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>0.70668969</v>
+      </c>
+      <c r="AH20" t="n">
         <v>3</v>
       </c>
-      <c r="M20" t="n">
+      <c r="AI20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AJ20" t="n">
         <v>13</v>
       </c>
-      <c r="N20" t="n">
+      <c r="AK20" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL20" t="n">
         <v>78</v>
       </c>
-      <c r="O20" t="n">
+      <c r="AM20" t="n">
+        <v>78</v>
+      </c>
+      <c r="AN20" t="n">
         <v>26</v>
       </c>
-      <c r="P20" t="n">
+      <c r="AO20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>120</v>
+      </c>
+      <c r="AQ20" t="n">
         <v>23</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="AR20" t="n">
+        <v>23</v>
+      </c>
+      <c r="AS20" t="n">
         <v>5</v>
       </c>
-      <c r="R20" t="n">
+      <c r="AT20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU20" t="n">
         <v>26</v>
+      </c>
+      <c r="AV20" t="n">
+        <v>26</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX20" t="n">
+        <v>174</v>
+      </c>
+      <c r="AY20" t="n">
+        <v>174</v>
+      </c>
+      <c r="AZ20" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="BA20" t="n">
+        <v>-0.35</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>2.71428571</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>-0.07142857</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>0.62162162</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>1.09090909</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>-0.66666667</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>12</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>0.70588235</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
+      <c r="A21" t="n">
+        <v>22</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1004436</v>
+      </c>
+      <c r="C21" t="inlineStr">
         <is>
           <t>PLAZA INTER</t>
         </is>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>Tren Bala</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>Managua</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>Cinemas</t>
         </is>
       </c>
-      <c r="E21" t="n">
+      <c r="G21" t="n">
         <v>51.9571191</v>
       </c>
-      <c r="F21" t="n">
+      <c r="H21" t="n">
+        <v>51.9571191</v>
+      </c>
+      <c r="I21" t="n">
         <v>46.72242542</v>
       </c>
-      <c r="G21" t="n">
+      <c r="J21" t="n">
+        <v>46.72242542</v>
+      </c>
+      <c r="K21" t="n">
         <v>174.08140867</v>
       </c>
-      <c r="H21" t="n">
+      <c r="L21" t="n">
+        <v>174.08140867</v>
+      </c>
+      <c r="M21" t="n">
         <v>361.44446033</v>
       </c>
-      <c r="I21" t="n">
+      <c r="N21" t="n">
+        <v>361.44446033</v>
+      </c>
+      <c r="O21" t="n">
+        <v>634.20541353</v>
+      </c>
+      <c r="P21" t="n">
+        <v>634.20541353</v>
+      </c>
+      <c r="Q21" t="n">
         <v>42.10030229</v>
       </c>
-      <c r="J21" t="n">
+      <c r="R21" t="n">
+        <v>42.10030229</v>
+      </c>
+      <c r="S21" t="n">
         <v>98.28972691</v>
       </c>
-      <c r="K21" t="n">
+      <c r="T21" t="n">
+        <v>98.28972691</v>
+      </c>
+      <c r="U21" t="n">
         <v>70.02794991</v>
       </c>
-      <c r="L21" t="n">
+      <c r="V21" t="n">
+        <v>70.02794991</v>
+      </c>
+      <c r="W21" t="n">
+        <v>844.62339263</v>
+      </c>
+      <c r="X21" t="n">
+        <v>844.62339263</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>-0.22728888</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>-0.57453225</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.08909064999999999</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>0.65788311</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0.14289573</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>-0.3929602</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>0.16652459</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>0.46155288</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>0.11658211</v>
+      </c>
+      <c r="AH21" t="n">
         <v>17</v>
       </c>
-      <c r="M21" t="n">
+      <c r="AI21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ21" t="n">
         <v>12</v>
       </c>
-      <c r="N21" t="n">
+      <c r="AK21" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL21" t="n">
         <v>38</v>
       </c>
-      <c r="O21" t="n">
+      <c r="AM21" t="n">
+        <v>38</v>
+      </c>
+      <c r="AN21" t="n">
         <v>85</v>
       </c>
-      <c r="P21" t="n">
+      <c r="AO21" t="n">
+        <v>85</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>152</v>
+      </c>
+      <c r="AQ21" t="n">
         <v>19</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="AR21" t="n">
+        <v>19</v>
+      </c>
+      <c r="AS21" t="n">
         <v>39</v>
       </c>
-      <c r="R21" t="n">
+      <c r="AT21" t="n">
+        <v>39</v>
+      </c>
+      <c r="AU21" t="n">
         <v>24</v>
+      </c>
+      <c r="AV21" t="n">
+        <v>24</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>17</v>
+      </c>
+      <c r="AX21" t="n">
+        <v>234</v>
+      </c>
+      <c r="AY21" t="n">
+        <v>234</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>-0.05555556</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>-0.61290323</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>-0.02564103</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>0.54545455</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>0.06293706</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>-0.32142857</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>0.08333333</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>0.26315789</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>0.03539823</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
+      <c r="A22" t="n">
+        <v>23</v>
+      </c>
+      <c r="B22" t="n">
+        <v>1004436</v>
+      </c>
+      <c r="C22" t="inlineStr">
         <is>
           <t>PLAZA INTER</t>
         </is>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>Minions Nace un Villano</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>Managua</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>Cinemas</t>
         </is>
       </c>
-      <c r="E22" t="n">
+      <c r="G22" t="n">
         <v>32.18779725</v>
       </c>
-      <c r="F22" t="n">
+      <c r="H22" t="n">
+        <v>32.18779725</v>
+      </c>
+      <c r="I22" t="n">
         <v>85.23083683999999</v>
       </c>
-      <c r="G22" t="n">
+      <c r="J22" t="n">
+        <v>85.23083683999999</v>
+      </c>
+      <c r="K22" t="n">
         <v>198.97404773</v>
       </c>
-      <c r="H22" t="n">
+      <c r="L22" t="n">
+        <v>198.97404773</v>
+      </c>
+      <c r="M22" t="n">
         <v>312.18822042</v>
       </c>
-      <c r="I22" t="n">
+      <c r="N22" t="n">
+        <v>312.18822042</v>
+      </c>
+      <c r="O22" t="n">
+        <v>628.58090224</v>
+      </c>
+      <c r="P22" t="n">
+        <v>628.58090224</v>
+      </c>
+      <c r="Q22" t="n">
         <v>23.05492744</v>
       </c>
-      <c r="J22" t="n">
+      <c r="R22" t="n">
+        <v>23.05492744</v>
+      </c>
+      <c r="S22" t="n">
         <v>60.31035368</v>
       </c>
-      <c r="K22" t="n">
+      <c r="T22" t="n">
+        <v>60.31035368</v>
+      </c>
+      <c r="U22" t="n">
         <v>56.21726873</v>
       </c>
-      <c r="L22" t="n">
+      <c r="V22" t="n">
+        <v>56.21726873</v>
+      </c>
+      <c r="W22" t="n">
+        <v>768.1634521</v>
+      </c>
+      <c r="X22" t="n">
+        <v>768.1634521</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>-0.0418076</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>0.03511057</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>-0.16126476</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>0.25520054</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0.04436439</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>-0.67677512</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>1.58190933</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>-0.07094966</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>0.01464507</v>
+      </c>
+      <c r="AH22" t="n">
         <v>10</v>
       </c>
-      <c r="M22" t="n">
+      <c r="AI22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ22" t="n">
         <v>25</v>
       </c>
-      <c r="N22" t="n">
+      <c r="AK22" t="n">
+        <v>25</v>
+      </c>
+      <c r="AL22" t="n">
         <v>53</v>
       </c>
-      <c r="O22" t="n">
+      <c r="AM22" t="n">
+        <v>53</v>
+      </c>
+      <c r="AN22" t="n">
         <v>78</v>
       </c>
-      <c r="P22" t="n">
+      <c r="AO22" t="n">
+        <v>78</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>166</v>
+      </c>
+      <c r="AQ22" t="n">
         <v>10</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="AR22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AS22" t="n">
         <v>22</v>
       </c>
-      <c r="R22" t="n">
+      <c r="AT22" t="n">
+        <v>22</v>
+      </c>
+      <c r="AU22" t="n">
         <v>20</v>
+      </c>
+      <c r="AV22" t="n">
+        <v>20</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX22" t="n">
+        <v>218</v>
+      </c>
+      <c r="AY22" t="n">
+        <v>218</v>
+      </c>
+      <c r="AZ22" t="n">
+        <v>0.11111111</v>
+      </c>
+      <c r="BA22" t="n">
+        <v>0.04166667</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>-0.11666667</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>0.11428571</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>0.01840491</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>-0.64285714</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>1</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>0.05263158</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>-0.01357466</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
+      <c r="A23" t="n">
+        <v>24</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1004432</v>
+      </c>
+      <c r="C23" t="inlineStr">
         <is>
           <t>BELLO HORIZONTE</t>
         </is>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>Thor Amor y Trueno</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>Managua</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>Cinemas</t>
         </is>
       </c>
-      <c r="E23" t="n">
+      <c r="G23" t="n">
         <v>73.85651576000001</v>
       </c>
-      <c r="F23" t="n">
+      <c r="H23" t="n">
+        <v>73.85651575999999</v>
+      </c>
+      <c r="I23" t="n">
         <v>90.68828344000001</v>
       </c>
-      <c r="G23" t="n">
+      <c r="J23" t="n">
+        <v>90.68828344000001</v>
+      </c>
+      <c r="K23" t="n">
         <v>203.81892378</v>
       </c>
-      <c r="H23" t="n">
+      <c r="L23" t="n">
+        <v>203.81892378</v>
+      </c>
+      <c r="M23" t="n">
         <v>212.36706717</v>
       </c>
-      <c r="I23" t="n">
+      <c r="N23" t="n">
+        <v>212.36706717</v>
+      </c>
+      <c r="O23" t="n">
+        <v>580.73079015</v>
+      </c>
+      <c r="P23" t="n">
+        <v>580.73079015</v>
+      </c>
+      <c r="Q23" t="n">
         <v>28.67943873</v>
       </c>
-      <c r="J23" t="n">
+      <c r="R23" t="n">
+        <v>28.67943873</v>
+      </c>
+      <c r="S23" t="n">
         <v>88.98979241000001</v>
       </c>
-      <c r="K23" t="n">
+      <c r="T23" t="n">
+        <v>88.98979241000001</v>
+      </c>
+      <c r="U23" t="n">
         <v>38.2856585</v>
       </c>
-      <c r="L23" t="n">
+      <c r="V23" t="n">
+        <v>38.2856585</v>
+      </c>
+      <c r="W23" t="n">
+        <v>736.68567978</v>
+      </c>
+      <c r="X23" t="n">
+        <v>736.68567978</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>0.38329875</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>-0.40645807</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>-0.2763156</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>0.13205944</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>-0.14018987</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>-0.63258521</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>0.14372307</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>-0.41550418</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>-0.17852496</v>
+      </c>
+      <c r="AH23" t="n">
         <v>21</v>
       </c>
-      <c r="M23" t="n">
+      <c r="AI23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AJ23" t="n">
         <v>22</v>
       </c>
-      <c r="N23" t="n">
+      <c r="AK23" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL23" t="n">
         <v>50</v>
       </c>
-      <c r="O23" t="n">
+      <c r="AM23" t="n">
+        <v>50</v>
+      </c>
+      <c r="AN23" t="n">
         <v>53</v>
       </c>
-      <c r="P23" t="n">
+      <c r="AO23" t="n">
+        <v>53</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>146</v>
+      </c>
+      <c r="AQ23" t="n">
         <v>12</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="AR23" t="n">
+        <v>12</v>
+      </c>
+      <c r="AS23" t="n">
         <v>36</v>
       </c>
-      <c r="R23" t="n">
+      <c r="AT23" t="n">
+        <v>36</v>
+      </c>
+      <c r="AU23" t="n">
         <v>17</v>
+      </c>
+      <c r="AV23" t="n">
+        <v>17</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>21</v>
+      </c>
+      <c r="AX23" t="n">
+        <v>211</v>
+      </c>
+      <c r="AY23" t="n">
+        <v>211</v>
+      </c>
+      <c r="AZ23" t="n">
+        <v>0.10526316</v>
+      </c>
+      <c r="BA23" t="n">
+        <v>-0.5217391300000001</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>-0.28571429</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>0.15217391</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>-0.19337017</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>0.05882353</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>-0.34615385</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>-0.22140221</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
+      <c r="A24" t="n">
+        <v>25</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1004432</v>
+      </c>
+      <c r="C24" t="inlineStr">
         <is>
           <t>BELLO HORIZONTE</t>
         </is>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>DC Liga de Super Mascotas</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>Managua</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>Cinemas</t>
         </is>
       </c>
-      <c r="E24" t="n">
+      <c r="G24" t="n">
         <v>24.75341848</v>
       </c>
-      <c r="F24" t="n">
+      <c r="H24" t="n">
+        <v>24.75341848</v>
+      </c>
+      <c r="I24" t="n">
         <v>40.90300533</v>
       </c>
-      <c r="G24" t="n">
+      <c r="J24" t="n">
+        <v>40.90300533</v>
+      </c>
+      <c r="K24" t="n">
         <v>130.70027708</v>
       </c>
-      <c r="H24" t="n">
+      <c r="L24" t="n">
+        <v>130.70027708</v>
+      </c>
+      <c r="M24" t="n">
         <v>270.67264455</v>
       </c>
-      <c r="I24" t="n">
+      <c r="N24" t="n">
+        <v>270.67264455</v>
+      </c>
+      <c r="O24" t="n">
+        <v>467.02934544</v>
+      </c>
+      <c r="P24" t="n">
+        <v>467.02934544</v>
+      </c>
+      <c r="Q24" t="n">
         <v>57.23357894</v>
       </c>
-      <c r="J24" t="n">
+      <c r="R24" t="n">
+        <v>57.23357894</v>
+      </c>
+      <c r="S24" t="n">
         <v>69.91657345</v>
       </c>
-      <c r="K24" t="n">
+      <c r="T24" t="n">
+        <v>69.91657345</v>
+      </c>
+      <c r="U24" t="n">
         <v>31.04618853</v>
       </c>
-      <c r="L24" t="n">
+      <c r="V24" t="n">
+        <v>31.04618853</v>
+      </c>
+      <c r="W24" t="n">
+        <v>625.22568635</v>
+      </c>
+      <c r="X24" t="n">
+        <v>625.22568635</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>-0.7179943600000001</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>-0.52142457</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>-0.51319769</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>-0.26732528</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>-0.42424709</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>-0.04003694</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>-0.5223688399999999</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>-0.22790917</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>-0.40870064</v>
+      </c>
+      <c r="AH24" t="n">
         <v>13</v>
       </c>
-      <c r="M24" t="n">
+      <c r="AI24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AJ24" t="n">
         <v>12</v>
       </c>
-      <c r="N24" t="n">
+      <c r="AK24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL24" t="n">
         <v>31</v>
       </c>
-      <c r="O24" t="n">
+      <c r="AM24" t="n">
+        <v>31</v>
+      </c>
+      <c r="AN24" t="n">
         <v>75</v>
       </c>
-      <c r="P24" t="n">
+      <c r="AO24" t="n">
+        <v>75</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>131</v>
+      </c>
+      <c r="AQ24" t="n">
         <v>24</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="AR24" t="n">
+        <v>24</v>
+      </c>
+      <c r="AS24" t="n">
         <v>31</v>
       </c>
-      <c r="R24" t="n">
+      <c r="AT24" t="n">
+        <v>31</v>
+      </c>
+      <c r="AU24" t="n">
         <v>12</v>
+      </c>
+      <c r="AV24" t="n">
+        <v>12</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX24" t="n">
+        <v>198</v>
+      </c>
+      <c r="AY24" t="n">
+        <v>198</v>
+      </c>
+      <c r="AZ24" t="n">
+        <v>-0.55172414</v>
+      </c>
+      <c r="BA24" t="n">
+        <v>-0.5862069</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>-0.53731343</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>-0.15730337</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>-0.38785047</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>-0.04</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>-0.50793651</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>-0.14285714</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>-0.37341772</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
+      <c r="A25" t="n">
+        <v>26</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1004432</v>
+      </c>
+      <c r="C25" t="inlineStr">
         <is>
           <t>BELLO HORIZONTE</t>
         </is>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="D25" t="inlineStr">
         <is>
           <t>El Telefono Negro</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>Managua</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>Cinemas</t>
         </is>
       </c>
-      <c r="E25" t="n">
+      <c r="G25" t="n">
         <v>14.61816052</v>
       </c>
-      <c r="F25" t="n">
+      <c r="H25" t="n">
+        <v>14.61816052</v>
+      </c>
+      <c r="I25" t="n">
         <v>82.83624293</v>
       </c>
-      <c r="G25" t="n">
+      <c r="J25" t="n">
+        <v>82.83624293</v>
+      </c>
+      <c r="K25" t="n">
         <v>101.18551489</v>
       </c>
-      <c r="H25" t="n">
+      <c r="L25" t="n">
+        <v>101.18551489</v>
+      </c>
+      <c r="M25" t="n">
         <v>236.480071</v>
       </c>
-      <c r="I25" t="n">
+      <c r="N25" t="n">
+        <v>236.480071</v>
+      </c>
+      <c r="O25" t="n">
+        <v>435.11998934</v>
+      </c>
+      <c r="P25" t="n">
+        <v>435.11998934</v>
+      </c>
+      <c r="Q25" t="n">
         <v>20.88308645</v>
       </c>
-      <c r="J25" t="n">
+      <c r="R25" t="n">
+        <v>20.88308645</v>
+      </c>
+      <c r="S25" t="n">
         <v>44.4948962</v>
       </c>
-      <c r="K25" t="n">
+      <c r="T25" t="n">
+        <v>44.4948962</v>
+      </c>
+      <c r="U25" t="n">
         <v>22.26415457</v>
       </c>
-      <c r="L25" t="n">
+      <c r="V25" t="n">
+        <v>22.26415457</v>
+      </c>
+      <c r="W25" t="n">
+        <v>522.76212657</v>
+      </c>
+      <c r="X25" t="n">
+        <v>522.76212657</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>-0.72691969</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>0.70220061</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>-0.07997367</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>0.23694458</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0.07874725</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>0.22507481</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>-0.30005749</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>-0.4749934</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>-0.00687288</v>
+      </c>
+      <c r="AH25" t="n">
         <v>4</v>
       </c>
-      <c r="M25" t="n">
+      <c r="AI25" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ25" t="n">
         <v>20</v>
       </c>
-      <c r="N25" t="n">
+      <c r="AK25" t="n">
+        <v>20</v>
+      </c>
+      <c r="AL25" t="n">
         <v>21</v>
       </c>
-      <c r="O25" t="n">
+      <c r="AM25" t="n">
+        <v>21</v>
+      </c>
+      <c r="AN25" t="n">
         <v>49</v>
       </c>
-      <c r="P25" t="n">
+      <c r="AO25" t="n">
+        <v>49</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>94</v>
+      </c>
+      <c r="AQ25" t="n">
         <v>10</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="AR25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AS25" t="n">
         <v>18</v>
       </c>
-      <c r="R25" t="n">
+      <c r="AT25" t="n">
+        <v>18</v>
+      </c>
+      <c r="AU25" t="n">
         <v>10</v>
+      </c>
+      <c r="AV25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX25" t="n">
+        <v>132</v>
+      </c>
+      <c r="AY25" t="n">
+        <v>132</v>
+      </c>
+      <c r="AZ25" t="n">
+        <v>-0.77777778</v>
+      </c>
+      <c r="BA25" t="n">
+        <v>0.33333333</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>-0.125</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>0.19512195</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>-0.04081633</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>-0.35714286</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>-0.47368421</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
+      <c r="A26" t="n">
+        <v>28</v>
+      </c>
+      <c r="B26" t="n">
+        <v>1068469</v>
+      </c>
+      <c r="C26" t="inlineStr">
         <is>
           <t>MASAYA</t>
         </is>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>Tren Bala</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>Masaya</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>Cinemas</t>
         </is>
       </c>
-      <c r="E26" t="n">
+      <c r="G26" t="n">
         <v>56.13373639</v>
       </c>
-      <c r="F26" t="n">
+      <c r="H26" t="n">
+        <v>56.13373639</v>
+      </c>
+      <c r="I26" t="n">
         <v>23.38905683</v>
       </c>
-      <c r="G26" t="n">
+      <c r="J26" t="n">
+        <v>23.38905683</v>
+      </c>
+      <c r="K26" t="n">
         <v>121.20543377</v>
       </c>
-      <c r="H26" t="n">
+      <c r="L26" t="n">
+        <v>121.20543377</v>
+      </c>
+      <c r="M26" t="n">
         <v>218.52061665</v>
       </c>
-      <c r="I26" t="n">
+      <c r="N26" t="n">
+        <v>218.52061665</v>
+      </c>
+      <c r="O26" t="n">
+        <v>419.24884363</v>
+      </c>
+      <c r="P26" t="n">
+        <v>419.24884363</v>
+      </c>
+      <c r="Q26" t="n">
         <v>8.353234580000001</v>
       </c>
-      <c r="J26" t="n">
+      <c r="R26" t="n">
+        <v>8.353234580000001</v>
+      </c>
+      <c r="S26" t="n">
         <v>23.83456267</v>
       </c>
-      <c r="K26" t="n">
+      <c r="T26" t="n">
+        <v>23.83456267</v>
+      </c>
+      <c r="U26" t="n">
         <v>4.17661729</v>
       </c>
-      <c r="L26" t="n">
+      <c r="V26" t="n">
+        <v>4.17661729</v>
+      </c>
+      <c r="W26" t="n">
+        <v>455.61325818</v>
+      </c>
+      <c r="X26" t="n">
+        <v>455.61325818</v>
+      </c>
+      <c r="Y26" t="n">
+        <v>-0.04827456</v>
+      </c>
+      <c r="Z26" t="n">
+        <v>-0.59269377</v>
+      </c>
+      <c r="AA26" t="n">
+        <v>-0.29682199</v>
+      </c>
+      <c r="AB26" t="n">
+        <v>0.86477434</v>
+      </c>
+      <c r="AC26" t="n">
+        <v>0.03274388</v>
+      </c>
+      <c r="AD26" t="n">
+        <v>-0.74629363</v>
+      </c>
+      <c r="AE26" t="n">
+        <v>-0.70301176</v>
+      </c>
+      <c r="AF26" t="n">
+        <v>-0.92571999</v>
+      </c>
+      <c r="AG26" t="n">
+        <v>-0.20812946</v>
+      </c>
+      <c r="AH26" t="n">
         <v>12</v>
       </c>
-      <c r="M26" t="n">
+      <c r="AI26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AJ26" t="n">
         <v>6</v>
       </c>
-      <c r="N26" t="n">
+      <c r="AK26" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL26" t="n">
         <v>29</v>
       </c>
-      <c r="O26" t="n">
+      <c r="AM26" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN26" t="n">
         <v>49</v>
       </c>
-      <c r="P26" t="n">
+      <c r="AO26" t="n">
+        <v>49</v>
+      </c>
+      <c r="AP26" t="n">
+        <v>96</v>
+      </c>
+      <c r="AQ26" t="n">
         <v>4</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="AR26" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS26" t="n">
         <v>11</v>
       </c>
-      <c r="R26" t="n">
+      <c r="AT26" t="n">
+        <v>11</v>
+      </c>
+      <c r="AU26" t="n">
         <v>2</v>
+      </c>
+      <c r="AV26" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW26" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX26" t="n">
+        <v>113</v>
+      </c>
+      <c r="AY26" t="n">
+        <v>113</v>
+      </c>
+      <c r="AZ26" t="n">
+        <v>-0.07692308</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>-0.625</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>-0.275</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>-0.01030928</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>-0.63636364</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>-0.6944444400000001</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>-0.90909091</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>-0.31927711</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
+      <c r="A27" t="n">
+        <v>29</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1004434</v>
+      </c>
+      <c r="C27" t="inlineStr">
         <is>
           <t>Metrocentro Managua</t>
         </is>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="D27" t="inlineStr">
         <is>
           <t>Thor Amor y Trueno</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>Managua</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>Cinemark</t>
         </is>
       </c>
-      <c r="E27" t="n">
+      <c r="G27" t="n">
         <v>74.62222893000001</v>
       </c>
-      <c r="F27" t="n">
+      <c r="H27" t="n">
+        <v>74.62222893000001</v>
+      </c>
+      <c r="I27" t="n">
         <v>41.76617291</v>
       </c>
-      <c r="G27" t="n">
+      <c r="J27" t="n">
+        <v>41.76617291</v>
+      </c>
+      <c r="K27" t="n">
         <v>83.25390466</v>
       </c>
-      <c r="H27" t="n">
+      <c r="L27" t="n">
+        <v>83.25390466</v>
+      </c>
+      <c r="M27" t="n">
         <v>154.81328091</v>
       </c>
-      <c r="I27" t="n">
+      <c r="N27" t="n">
+        <v>154.81328091</v>
+      </c>
+      <c r="O27" t="n">
+        <v>354.4555874</v>
+      </c>
+      <c r="P27" t="n">
+        <v>354.4555874</v>
+      </c>
+      <c r="Q27" t="n">
         <v>57.91575976</v>
       </c>
-      <c r="J27" t="n">
+      <c r="R27" t="n">
+        <v>57.91575976</v>
+      </c>
+      <c r="S27" t="n">
         <v>18.93399838</v>
       </c>
-      <c r="K27" t="n">
+      <c r="T27" t="n">
+        <v>18.93399838</v>
+      </c>
+      <c r="U27" t="n">
         <v>14.47893994</v>
       </c>
-      <c r="L27" t="n">
+      <c r="V27" t="n">
+        <v>14.47893994</v>
+      </c>
+      <c r="W27" t="n">
+        <v>445.78428549</v>
+      </c>
+      <c r="X27" t="n">
+        <v>445.78428549</v>
+      </c>
+      <c r="Y27" t="n">
+        <v>-0.54050185</v>
+      </c>
+      <c r="Z27" t="n">
+        <v>-0.76750128</v>
+      </c>
+      <c r="AA27" t="n">
+        <v>-0.84358043</v>
+      </c>
+      <c r="AB27" t="n">
+        <v>-0.6744329100000001</v>
+      </c>
+      <c r="AC27" t="n">
+        <v>-0.73740258</v>
+      </c>
+      <c r="AD27" t="n">
+        <v>-0.60139856</v>
+      </c>
+      <c r="AE27" t="n">
+        <v>-0.86160971</v>
+      </c>
+      <c r="AF27" t="n">
+        <v>-0.88480683</v>
+      </c>
+      <c r="AG27" t="n">
+        <v>-0.74636936</v>
+      </c>
+      <c r="AH27" t="n">
         <v>17</v>
       </c>
-      <c r="M27" t="n">
+      <c r="AI27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AJ27" t="n">
         <v>10</v>
       </c>
-      <c r="N27" t="n">
+      <c r="AK27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL27" t="n">
         <v>19</v>
       </c>
-      <c r="O27" t="n">
+      <c r="AM27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN27" t="n">
         <v>35</v>
       </c>
-      <c r="P27" t="n">
+      <c r="AO27" t="n">
+        <v>35</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>81</v>
+      </c>
+      <c r="AQ27" t="n">
         <v>15</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="AR27" t="n">
+        <v>15</v>
+      </c>
+      <c r="AS27" t="n">
         <v>6</v>
       </c>
-      <c r="R27" t="n">
+      <c r="AT27" t="n">
         <v>6</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW27" t="n">
+        <v>17</v>
+      </c>
+      <c r="AX27" t="n">
+        <v>108</v>
+      </c>
+      <c r="AY27" t="n">
+        <v>108</v>
+      </c>
+      <c r="AZ27" t="n">
+        <v>-0.61363636</v>
+      </c>
+      <c r="BA27" t="n">
+        <v>-0.73684211</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>-0.82882883</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>-0.66666667</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>-0.72818792</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>-0.55882353</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>-0.86046512</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>-0.84210526</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>-0.73849879</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
+      <c r="A28" t="n">
+        <v>30</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1004432</v>
+      </c>
+      <c r="C28" t="inlineStr">
         <is>
           <t>BELLO HORIZONTE</t>
         </is>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="D28" t="inlineStr">
         <is>
           <t>Escalera al Infierno</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>Managua</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>Cinemas</t>
         </is>
       </c>
-      <c r="E28" t="n">
+      <c r="G28" t="n">
         <v>26.75095531</v>
       </c>
-      <c r="F28" t="n">
+      <c r="H28" t="n">
+        <v>26.75095531</v>
+      </c>
+      <c r="I28" t="n">
         <v>68.21808240999999</v>
       </c>
-      <c r="G28" t="n">
+      <c r="J28" t="n">
+        <v>68.21808240999999</v>
+      </c>
+      <c r="K28" t="n">
         <v>107.19984379</v>
       </c>
-      <c r="H28" t="n">
+      <c r="L28" t="n">
+        <v>107.19984379</v>
+      </c>
+      <c r="M28" t="n">
         <v>107.14415556</v>
       </c>
-      <c r="I28" t="n">
+      <c r="N28" t="n">
+        <v>107.14415556</v>
+      </c>
+      <c r="O28" t="n">
+        <v>309.31303708</v>
+      </c>
+      <c r="P28" t="n">
+        <v>309.31303708</v>
+      </c>
+      <c r="Q28" t="n">
         <v>9.04933746</v>
       </c>
-      <c r="J28" t="n">
+      <c r="R28" t="n">
+        <v>9.04933746</v>
+      </c>
+      <c r="S28" t="n">
         <v>45.72003727</v>
       </c>
-      <c r="K28" t="n">
+      <c r="T28" t="n">
+        <v>45.72003727</v>
+      </c>
+      <c r="U28" t="n">
         <v>78.65962564</v>
       </c>
-      <c r="L28" t="n">
+      <c r="V28" t="n">
+        <v>78.65962564</v>
+      </c>
+      <c r="W28" t="n">
+        <v>442.74203745</v>
+      </c>
+      <c r="X28" t="n">
+        <v>442.74203745</v>
+      </c>
+      <c r="Y28" t="n">
+        <v>-0.63283067</v>
+      </c>
+      <c r="Z28" t="n">
+        <v>-0.30896578</v>
+      </c>
+      <c r="AA28" t="n">
+        <v>-0.48531592</v>
+      </c>
+      <c r="AB28" t="n">
+        <v>-0.53365031</v>
+      </c>
+      <c r="AC28" t="n">
+        <v>-0.49260469</v>
+      </c>
+      <c r="AD28" t="n">
+        <v>-0.9550151099999999</v>
+      </c>
+      <c r="AE28" t="n">
+        <v>-0.72064811</v>
+      </c>
+      <c r="AF28" t="n">
+        <v>-0.30328648</v>
+      </c>
+      <c r="AG28" t="n">
+        <v>-0.59282066</v>
+      </c>
+      <c r="AH28" t="n">
         <v>9</v>
       </c>
-      <c r="M28" t="n">
+      <c r="AI28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ28" t="n">
         <v>14</v>
       </c>
-      <c r="N28" t="n">
+      <c r="AK28" t="n">
+        <v>14</v>
+      </c>
+      <c r="AL28" t="n">
         <v>22</v>
       </c>
-      <c r="O28" t="n">
+      <c r="AM28" t="n">
         <v>22</v>
       </c>
-      <c r="P28" t="n">
+      <c r="AN28" t="n">
+        <v>22</v>
+      </c>
+      <c r="AO28" t="n">
+        <v>22</v>
+      </c>
+      <c r="AP28" t="n">
+        <v>67</v>
+      </c>
+      <c r="AQ28" t="n">
         <v>3</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="AR28" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS28" t="n">
         <v>19</v>
       </c>
-      <c r="R28" t="n">
+      <c r="AT28" t="n">
+        <v>19</v>
+      </c>
+      <c r="AU28" t="n">
         <v>31</v>
+      </c>
+      <c r="AV28" t="n">
+        <v>31</v>
+      </c>
+      <c r="AW28" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX28" t="n">
+        <v>120</v>
+      </c>
+      <c r="AY28" t="n">
+        <v>120</v>
+      </c>
+      <c r="AZ28" t="n">
+        <v>-0.4375</v>
+      </c>
+      <c r="BA28" t="n">
+        <v>-0.36363636</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>-0.5600000000000001</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>-0.5314685300000001</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>-0.93333333</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>-0.74666667</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>0.10714286</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>-0.58762887</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
+      <c r="A29" t="n">
+        <v>31</v>
+      </c>
+      <c r="B29" t="n">
+        <v>1004436</v>
+      </c>
+      <c r="C29" t="inlineStr">
         <is>
           <t>PLAZA INTER</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="D29" t="inlineStr">
         <is>
           <t>DC Liga de Super Mascotas</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>Managua</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>Cinemas</t>
         </is>
       </c>
-      <c r="E29" t="n">
+      <c r="G29" t="n">
         <v>55.07566001</v>
       </c>
-      <c r="F29" t="n">
+      <c r="H29" t="n">
+        <v>55.07566001</v>
+      </c>
+      <c r="I29" t="n">
         <v>66.82587665</v>
       </c>
-      <c r="G29" t="n">
+      <c r="J29" t="n">
+        <v>66.82587665</v>
+      </c>
+      <c r="K29" t="n">
         <v>95.53315949</v>
       </c>
-      <c r="H29" t="n">
+      <c r="L29" t="n">
+        <v>95.53315949</v>
+      </c>
+      <c r="M29" t="n">
         <v>149.8848725</v>
       </c>
-      <c r="I29" t="n">
+      <c r="N29" t="n">
+        <v>149.8848725</v>
+      </c>
+      <c r="O29" t="n">
+        <v>367.31956865</v>
+      </c>
+      <c r="P29" t="n">
+        <v>367.31956865</v>
+      </c>
+      <c r="Q29" t="n">
         <v>23.05492744</v>
       </c>
-      <c r="J29" t="n">
+      <c r="R29" t="n">
+        <v>23.05492744</v>
+      </c>
+      <c r="S29" t="n">
         <v>34.80514409</v>
       </c>
-      <c r="K29" t="n">
+      <c r="T29" t="n">
+        <v>34.80514409</v>
+      </c>
+      <c r="U29" t="n">
         <v>4.17661729</v>
       </c>
-      <c r="L29" t="n">
+      <c r="V29" t="n">
+        <v>4.17661729</v>
+      </c>
+      <c r="W29" t="n">
+        <v>429.35625748</v>
+      </c>
+      <c r="X29" t="n">
+        <v>429.35625748</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>7.68666876</v>
+      </c>
+      <c r="Z29" t="n">
+        <v>9.53994187</v>
+      </c>
+      <c r="AA29" t="n">
+        <v>1.15253217</v>
+      </c>
+      <c r="AB29" t="n">
+        <v>0.68858652</v>
+      </c>
+      <c r="AC29" t="n">
+        <v>1.51889335</v>
+      </c>
+      <c r="AD29" t="n">
+        <v>0.68510534</v>
+      </c>
+      <c r="AE29" t="n">
+        <v>0.05177991</v>
+      </c>
+      <c r="AF29" t="n">
+        <v>-0.56083576</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>1.12437546</v>
+      </c>
+      <c r="AH29" t="n">
         <v>14</v>
       </c>
-      <c r="M29" t="n">
+      <c r="AI29" t="n">
+        <v>14</v>
+      </c>
+      <c r="AJ29" t="n">
         <v>19</v>
       </c>
-      <c r="N29" t="n">
+      <c r="AK29" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL29" t="n">
         <v>24</v>
       </c>
-      <c r="O29" t="n">
+      <c r="AM29" t="n">
+        <v>24</v>
+      </c>
+      <c r="AN29" t="n">
         <v>40</v>
       </c>
-      <c r="P29" t="n">
+      <c r="AO29" t="n">
+        <v>40</v>
+      </c>
+      <c r="AP29" t="n">
+        <v>97</v>
+      </c>
+      <c r="AQ29" t="n">
         <v>10</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="AR29" t="n">
+        <v>10</v>
+      </c>
+      <c r="AS29" t="n">
         <v>13</v>
       </c>
-      <c r="R29" t="n">
+      <c r="AT29" t="n">
+        <v>13</v>
+      </c>
+      <c r="AU29" t="n">
         <v>2</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW29" t="n">
+        <v>14</v>
+      </c>
+      <c r="AX29" t="n">
+        <v>122</v>
+      </c>
+      <c r="AY29" t="n">
+        <v>122</v>
+      </c>
+      <c r="AZ29" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA29" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>0.71428571</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>0.33333333</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>1.02083333</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>1</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>-0.33333333</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>0.84848485</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
+      <c r="A30" t="n">
+        <v>32</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1004436</v>
+      </c>
+      <c r="C30" t="inlineStr">
         <is>
           <t>PLAZA INTER</t>
         </is>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>Thor Amor y Trueno</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>Managua</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>Cinemas</t>
         </is>
       </c>
-      <c r="E30" t="n">
+      <c r="G30" t="n">
         <v>28.48452992</v>
       </c>
-      <c r="F30" t="n">
+      <c r="H30" t="n">
+        <v>28.48452992</v>
+      </c>
+      <c r="I30" t="n">
         <v>55.10350412</v>
       </c>
-      <c r="G30" t="n">
+      <c r="J30" t="n">
+        <v>55.10350412</v>
+      </c>
+      <c r="K30" t="n">
         <v>126.80210094</v>
       </c>
-      <c r="H30" t="n">
+      <c r="L30" t="n">
+        <v>126.80210094</v>
+      </c>
+      <c r="M30" t="n">
         <v>157.62553655</v>
       </c>
-      <c r="I30" t="n">
+      <c r="N30" t="n">
+        <v>157.62553655</v>
+      </c>
+      <c r="O30" t="n">
+        <v>368.01567154</v>
+      </c>
+      <c r="P30" t="n">
+        <v>368.01567154</v>
+      </c>
+      <c r="Q30" t="n">
         <v>33.21802952</v>
       </c>
-      <c r="J30" t="n">
+      <c r="R30" t="n">
+        <v>33.21802952</v>
+      </c>
+      <c r="S30" t="n">
         <v>11.97296957</v>
       </c>
-      <c r="K30" t="n">
+      <c r="T30" t="n">
+        <v>11.97296957</v>
+      </c>
+      <c r="U30" t="n">
         <v>15.70408101</v>
       </c>
-      <c r="L30" t="n">
+      <c r="V30" t="n">
+        <v>15.70408101</v>
+      </c>
+      <c r="W30" t="n">
+        <v>428.91075163</v>
+      </c>
+      <c r="X30" t="n">
+        <v>428.91075163</v>
+      </c>
+      <c r="Y30" t="n">
+        <v>-0.46059808</v>
+      </c>
+      <c r="Z30" t="n">
+        <v>1.04284718</v>
+      </c>
+      <c r="AA30" t="n">
+        <v>-0.43704999</v>
+      </c>
+      <c r="AB30" t="n">
+        <v>-0.19058574</v>
+      </c>
+      <c r="AC30" t="n">
+        <v>-0.26362625</v>
+      </c>
+      <c r="AD30" t="n">
+        <v>-0.22052574</v>
+      </c>
+      <c r="AE30" t="n">
+        <v>-0.85493375</v>
+      </c>
+      <c r="AF30" t="n">
+        <v>-0.23993259</v>
+      </c>
+      <c r="AG30" t="n">
+        <v>-0.33561887</v>
+      </c>
+      <c r="AH30" t="n">
         <v>6</v>
       </c>
-      <c r="M30" t="n">
+      <c r="AI30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ30" t="n">
         <v>13</v>
       </c>
-      <c r="N30" t="n">
+      <c r="AK30" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL30" t="n">
         <v>27</v>
       </c>
-      <c r="O30" t="n">
+      <c r="AM30" t="n">
+        <v>27</v>
+      </c>
+      <c r="AN30" t="n">
         <v>37</v>
       </c>
-      <c r="P30" t="n">
+      <c r="AO30" t="n">
+        <v>37</v>
+      </c>
+      <c r="AP30" t="n">
+        <v>83</v>
+      </c>
+      <c r="AQ30" t="n">
         <v>15</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="AR30" t="n">
+        <v>15</v>
+      </c>
+      <c r="AS30" t="n">
         <v>5</v>
       </c>
-      <c r="R30" t="n">
+      <c r="AT30" t="n">
+        <v>5</v>
+      </c>
+      <c r="AU30" t="n">
         <v>9</v>
+      </c>
+      <c r="AV30" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW30" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX30" t="n">
+        <v>112</v>
+      </c>
+      <c r="AY30" t="n">
+        <v>112</v>
+      </c>
+      <c r="AZ30" t="n">
+        <v>-0.6</v>
+      </c>
+      <c r="BA30" t="n">
+        <v>1.16666667</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>-0.44897959</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>-0.13953488</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>-0.26548673</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>-0.0625</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>-0.86111111</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH30" t="n">
+        <v>-0.35632184</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
+      <c r="A31" t="n">
+        <v>33</v>
+      </c>
+      <c r="B31" t="n">
+        <v>1004437</v>
+      </c>
+      <c r="C31" t="inlineStr">
         <is>
           <t>GALERÍAS</t>
         </is>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="D31" t="inlineStr">
         <is>
           <t>Escalera al Infierno</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>Managua</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>Cinemas</t>
         </is>
       </c>
-      <c r="E31" t="n">
+      <c r="G31" t="n">
         <v>70.44561164</v>
       </c>
-      <c r="F31" t="n">
+      <c r="H31" t="n">
+        <v>70.44561164</v>
+      </c>
+      <c r="I31" t="n">
         <v>137.77268236</v>
       </c>
-      <c r="G31" t="n">
+      <c r="J31" t="n">
+        <v>137.77268236</v>
+      </c>
+      <c r="K31" t="n">
         <v>175.41792621</v>
       </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
+      <c r="L31" t="n">
+        <v>175.41792621</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>383.6362202</v>
+      </c>
+      <c r="P31" t="n">
+        <v>383.6362202</v>
+      </c>
+      <c r="Q31" t="n">
         <v>16.98491032</v>
       </c>
-      <c r="J31" t="n">
+      <c r="R31" t="n">
+        <v>16.98491032</v>
+      </c>
+      <c r="S31" t="n">
         <v>17.48610439</v>
       </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
+      <c r="T31" t="n">
+        <v>17.48610439</v>
+      </c>
+      <c r="U31" t="n">
+        <v>0</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="n">
+        <v>418.10723491</v>
+      </c>
+      <c r="X31" t="n">
+        <v>418.10723491</v>
+      </c>
+      <c r="Y31" t="n">
+        <v>-0.30212809</v>
+      </c>
+      <c r="Z31" t="n">
+        <v>-0.30513253</v>
+      </c>
+      <c r="AA31" t="n">
+        <v>-0.12032419</v>
+      </c>
+      <c r="AB31" t="inlineStr"/>
+      <c r="AC31" t="n">
+        <v>-0.2306154</v>
+      </c>
+      <c r="AD31" t="n">
+        <v>-0.80207724</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>-0.58466781</v>
+      </c>
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="n">
+        <v>-0.33267774</v>
+      </c>
+      <c r="AH31" t="n">
         <v>11</v>
       </c>
-      <c r="M31" t="n">
+      <c r="AI31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AJ31" t="n">
         <v>23</v>
       </c>
-      <c r="N31" t="n">
+      <c r="AK31" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL31" t="n">
         <v>28</v>
       </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
+      <c r="AM31" t="n">
+        <v>28</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP31" t="n">
+        <v>62</v>
+      </c>
+      <c r="AQ31" t="n">
         <v>4</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="AR31" t="n">
+        <v>4</v>
+      </c>
+      <c r="AS31" t="n">
         <v>6</v>
       </c>
-      <c r="R31" t="n">
-        <v>0</v>
+      <c r="AT31" t="n">
+        <v>6</v>
+      </c>
+      <c r="AU31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV31" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW31" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX31" t="n">
+        <v>72</v>
+      </c>
+      <c r="AY31" t="n">
+        <v>72</v>
+      </c>
+      <c r="AZ31" t="n">
+        <v>-0.35294118</v>
+      </c>
+      <c r="BA31" t="n">
+        <v>-0.25806452</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>-0.125</v>
+      </c>
+      <c r="BC31" t="inlineStr"/>
+      <c r="BD31" t="n">
+        <v>-0.225</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>-0.73333333</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>-0.68421053</v>
+      </c>
+      <c r="BG31" t="inlineStr"/>
+      <c r="BH31" t="n">
+        <v>-0.36842105</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="A32" t="n">
+        <v>34</v>
+      </c>
+      <c r="B32" t="n">
+        <v>1068469</v>
+      </c>
+      <c r="C32" t="inlineStr">
         <is>
           <t>MASAYA</t>
         </is>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="D32" t="inlineStr">
         <is>
           <t>Minions Nace un Villano</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>Masaya</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>Cinemas</t>
         </is>
       </c>
-      <c r="E32" t="n">
+      <c r="G32" t="n">
         <v>16.01036628</v>
       </c>
-      <c r="F32" t="n">
+      <c r="H32" t="n">
+        <v>16.01036628</v>
+      </c>
+      <c r="I32" t="n">
         <v>4.67781137</v>
       </c>
-      <c r="G32" t="n">
+      <c r="J32" t="n">
+        <v>4.67781137</v>
+      </c>
+      <c r="K32" t="n">
         <v>171.29699715</v>
       </c>
-      <c r="H32" t="n">
+      <c r="L32" t="n">
+        <v>171.29699715</v>
+      </c>
+      <c r="M32" t="n">
         <v>188.34065854</v>
       </c>
-      <c r="I32" t="n">
+      <c r="N32" t="n">
+        <v>188.34065854</v>
+      </c>
+      <c r="O32" t="n">
+        <v>380.32583334</v>
+      </c>
+      <c r="P32" t="n">
+        <v>380.32583334</v>
+      </c>
+      <c r="Q32" t="n">
         <v>20.88308645</v>
       </c>
-      <c r="J32" t="n">
+      <c r="R32" t="n">
+        <v>20.88308645</v>
+      </c>
+      <c r="S32" t="n">
         <v>16.70646916</v>
       </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
+      <c r="T32" t="n">
+        <v>16.70646916</v>
+      </c>
+      <c r="U32" t="n">
+        <v>0</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="n">
+        <v>417.91538895</v>
+      </c>
+      <c r="X32" t="n">
+        <v>417.91538895</v>
+      </c>
+      <c r="Y32" t="n">
+        <v>-0.80286104</v>
+      </c>
+      <c r="Z32" t="n">
+        <v>-0.89635399</v>
+      </c>
+      <c r="AA32" t="n">
+        <v>0.47862785</v>
+      </c>
+      <c r="AB32" t="n">
+        <v>0.11754244</v>
+      </c>
+      <c r="AC32" t="n">
+        <v>-0.07401547999999999</v>
+      </c>
+      <c r="AD32" t="n">
+        <v>-0.22017564</v>
+      </c>
+      <c r="AE32" t="n">
+        <v>0.08053361000000001</v>
+      </c>
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="n">
+        <v>-0.07738112</v>
+      </c>
+      <c r="AH32" t="n">
         <v>5</v>
       </c>
-      <c r="M32" t="n">
+      <c r="AI32" t="n">
+        <v>5</v>
+      </c>
+      <c r="AJ32" t="n">
         <v>1</v>
       </c>
-      <c r="N32" t="n">
+      <c r="AK32" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL32" t="n">
         <v>47</v>
       </c>
-      <c r="O32" t="n">
+      <c r="AM32" t="n">
+        <v>47</v>
+      </c>
+      <c r="AN32" t="n">
         <v>53</v>
       </c>
-      <c r="P32" t="n">
+      <c r="AO32" t="n">
+        <v>53</v>
+      </c>
+      <c r="AP32" t="n">
+        <v>106</v>
+      </c>
+      <c r="AQ32" t="n">
         <v>10</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="AR32" t="n">
+        <v>10</v>
+      </c>
+      <c r="AS32" t="n">
         <v>8</v>
       </c>
-      <c r="R32" t="n">
-        <v>0</v>
+      <c r="AT32" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW32" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX32" t="n">
+        <v>124</v>
+      </c>
+      <c r="AY32" t="n">
+        <v>124</v>
+      </c>
+      <c r="AZ32" t="n">
+        <v>-0.80769231</v>
+      </c>
+      <c r="BA32" t="n">
+        <v>-0.91666667</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>0.46875</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>0.20454545</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>-0.07017544000000001</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>-0.16666667</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>0.14285714</v>
+      </c>
+      <c r="BG32" t="inlineStr"/>
+      <c r="BH32" t="n">
+        <v>-0.06766917</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
+      <c r="A33" t="n">
+        <v>38</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1004436</v>
+      </c>
+      <c r="C33" t="inlineStr">
         <is>
           <t>PLAZA INTER</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="D33" t="inlineStr">
         <is>
           <t>El Telefono Negro</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>Managua</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>Cinemas</t>
         </is>
       </c>
-      <c r="E33" t="n">
+      <c r="G33" t="n">
         <v>19.54656892</v>
       </c>
-      <c r="F33" t="n">
+      <c r="H33" t="n">
+        <v>19.54656892</v>
+      </c>
+      <c r="I33" t="n">
         <v>4.87272017</v>
       </c>
-      <c r="G33" t="n">
+      <c r="J33" t="n">
+        <v>4.87272017</v>
+      </c>
+      <c r="K33" t="n">
         <v>68.60790003</v>
       </c>
-      <c r="H33" t="n">
+      <c r="L33" t="n">
+        <v>68.60790003</v>
+      </c>
+      <c r="M33" t="n">
         <v>78.4090286</v>
       </c>
-      <c r="I33" t="n">
+      <c r="N33" t="n">
+        <v>78.4090286</v>
+      </c>
+      <c r="O33" t="n">
+        <v>171.43621772</v>
+      </c>
+      <c r="P33" t="n">
+        <v>171.43621772</v>
+      </c>
+      <c r="Q33" t="n">
         <v>32.13210902</v>
       </c>
-      <c r="J33" t="n">
+      <c r="R33" t="n">
+        <v>32.13210902</v>
+      </c>
+      <c r="S33" t="n">
         <v>28.12255642</v>
       </c>
-      <c r="K33" t="n">
+      <c r="T33" t="n">
+        <v>28.12255642</v>
+      </c>
+      <c r="U33" t="n">
         <v>31.21325322</v>
       </c>
-      <c r="L33" t="n">
+      <c r="V33" t="n">
+        <v>31.21325322</v>
+      </c>
+      <c r="W33" t="n">
+        <v>262.90413639</v>
+      </c>
+      <c r="X33" t="n">
+        <v>262.90413639</v>
+      </c>
+      <c r="Y33" t="inlineStr"/>
+      <c r="Z33" t="inlineStr"/>
+      <c r="AA33" t="inlineStr"/>
+      <c r="AB33" t="inlineStr"/>
+      <c r="AC33" t="inlineStr"/>
+      <c r="AD33" t="inlineStr"/>
+      <c r="AE33" t="inlineStr"/>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="inlineStr"/>
+      <c r="AH33" t="n">
         <v>6</v>
       </c>
-      <c r="M33" t="n">
+      <c r="AI33" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ33" t="n">
         <v>2</v>
       </c>
-      <c r="N33" t="n">
+      <c r="AK33" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL33" t="n">
         <v>14</v>
       </c>
-      <c r="O33" t="n">
+      <c r="AM33" t="n">
+        <v>14</v>
+      </c>
+      <c r="AN33" t="n">
         <v>16</v>
       </c>
-      <c r="P33" t="n">
+      <c r="AO33" t="n">
+        <v>16</v>
+      </c>
+      <c r="AP33" t="n">
+        <v>38</v>
+      </c>
+      <c r="AQ33" t="n">
         <v>10</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="AR33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AS33" t="n">
         <v>12</v>
       </c>
-      <c r="R33" t="n">
+      <c r="AT33" t="n">
+        <v>12</v>
+      </c>
+      <c r="AU33" t="n">
         <v>10</v>
       </c>
+      <c r="AV33" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW33" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX33" t="n">
+        <v>70</v>
+      </c>
+      <c r="AY33" t="n">
+        <v>70</v>
+      </c>
+      <c r="AZ33" t="inlineStr"/>
+      <c r="BA33" t="inlineStr"/>
+      <c r="BB33" t="inlineStr"/>
+      <c r="BC33" t="inlineStr"/>
+      <c r="BD33" t="inlineStr"/>
+      <c r="BE33" t="inlineStr"/>
+      <c r="BF33" t="inlineStr"/>
+      <c r="BG33" t="inlineStr"/>
+      <c r="BH33" t="inlineStr"/>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
+      <c r="A34" t="n">
+        <v>39</v>
+      </c>
+      <c r="B34" t="n">
+        <v>1068469</v>
+      </c>
+      <c r="C34" t="inlineStr">
         <is>
           <t>MASAYA</t>
         </is>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>DC Liga de Super Mascotas</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>Masaya</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>Cinemas</t>
         </is>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
         <v>39.98414953</v>
       </c>
-      <c r="G34" t="n">
+      <c r="J34" t="n">
+        <v>39.98414953</v>
+      </c>
+      <c r="K34" t="n">
         <v>57.65124067</v>
       </c>
-      <c r="H34" t="n">
+      <c r="L34" t="n">
+        <v>57.65124067</v>
+      </c>
+      <c r="M34" t="n">
         <v>106.64296149</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
+      <c r="N34" t="n">
+        <v>106.64296149</v>
+      </c>
+      <c r="O34" t="n">
+        <v>204.27835169</v>
+      </c>
+      <c r="P34" t="n">
+        <v>204.27835169</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
         <v>23.83456267</v>
       </c>
-      <c r="K34" t="n">
+      <c r="T34" t="n">
+        <v>23.83456267</v>
+      </c>
+      <c r="U34" t="n">
         <v>8.353234580000001</v>
       </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
+      <c r="V34" t="n">
+        <v>8.353234580000001</v>
+      </c>
+      <c r="W34" t="n">
+        <v>236.46614894</v>
+      </c>
+      <c r="X34" t="n">
+        <v>236.46614894</v>
+      </c>
+      <c r="Y34" t="inlineStr"/>
+      <c r="Z34" t="n">
+        <v>5.2515603</v>
+      </c>
+      <c r="AA34" t="n">
+        <v>0.2018436</v>
+      </c>
+      <c r="AB34" t="n">
+        <v>0.23509109</v>
+      </c>
+      <c r="AC34" t="n">
+        <v>0.45177805</v>
+      </c>
+      <c r="AD34" t="inlineStr"/>
+      <c r="AE34" t="n">
+        <v>1.85702691</v>
+      </c>
+      <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="n">
+        <v>0.53043004</v>
+      </c>
+      <c r="AH34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ34" t="n">
         <v>10</v>
       </c>
-      <c r="N34" t="n">
+      <c r="AK34" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL34" t="n">
         <v>14</v>
       </c>
-      <c r="O34" t="n">
+      <c r="AM34" t="n">
+        <v>14</v>
+      </c>
+      <c r="AN34" t="n">
         <v>29</v>
       </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
+      <c r="AO34" t="n">
+        <v>29</v>
+      </c>
+      <c r="AP34" t="n">
+        <v>53</v>
+      </c>
+      <c r="AQ34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS34" t="n">
         <v>11</v>
       </c>
-      <c r="R34" t="n">
+      <c r="AT34" t="n">
+        <v>11</v>
+      </c>
+      <c r="AU34" t="n">
         <v>4</v>
+      </c>
+      <c r="AV34" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW34" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX34" t="n">
+        <v>68</v>
+      </c>
+      <c r="AY34" t="n">
+        <v>68</v>
+      </c>
+      <c r="AZ34" t="inlineStr"/>
+      <c r="BA34" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>-0.06666667</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>0.07407407000000001</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>0.20454545</v>
+      </c>
+      <c r="BE34" t="inlineStr"/>
+      <c r="BF34" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG34" t="inlineStr"/>
+      <c r="BH34" t="n">
+        <v>0.33333333</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
+      <c r="A35" t="n">
+        <v>40</v>
+      </c>
+      <c r="B35" t="n">
+        <v>1004434</v>
+      </c>
+      <c r="C35" t="inlineStr">
         <is>
           <t>Metrocentro Managua</t>
         </is>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="D35" t="inlineStr">
         <is>
           <t>Bestia</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>Managua</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>Cinemark</t>
         </is>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
@@ -2671,226 +6799,682 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
         <v>98.84660921</v>
       </c>
-      <c r="J35" t="n">
+      <c r="R35" t="n">
+        <v>98.84660921</v>
+      </c>
+      <c r="S35" t="n">
         <v>67.93964126</v>
       </c>
-      <c r="K35" t="n">
+      <c r="T35" t="n">
+        <v>67.93964126</v>
+      </c>
+      <c r="U35" t="n">
         <v>59.86484783</v>
       </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
+      <c r="V35" t="n">
+        <v>59.86484783</v>
+      </c>
+      <c r="W35" t="n">
+        <v>226.65109831</v>
+      </c>
+      <c r="X35" t="n">
+        <v>226.65109831</v>
+      </c>
+      <c r="Y35" t="inlineStr"/>
+      <c r="Z35" t="inlineStr"/>
+      <c r="AA35" t="inlineStr"/>
+      <c r="AB35" t="inlineStr"/>
+      <c r="AC35" t="inlineStr"/>
+      <c r="AD35" t="n">
+        <v>0.36715207</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>-0.37674527</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>-0.02146222</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>-0.06530539</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ35" t="n">
         <v>24</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="AR35" t="n">
+        <v>24</v>
+      </c>
+      <c r="AS35" t="n">
         <v>22</v>
       </c>
-      <c r="R35" t="n">
+      <c r="AT35" t="n">
+        <v>22</v>
+      </c>
+      <c r="AU35" t="n">
         <v>16</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>16</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>62</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>62</v>
+      </c>
+      <c r="AZ35" t="inlineStr"/>
+      <c r="BA35" t="inlineStr"/>
+      <c r="BB35" t="inlineStr"/>
+      <c r="BC35" t="inlineStr"/>
+      <c r="BD35" t="inlineStr"/>
+      <c r="BE35" t="n">
+        <v>0.71428571</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>-0.35294118</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>0.23076923</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>0.01639344</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
+      <c r="A36" t="n">
+        <v>41</v>
+      </c>
+      <c r="B36" t="n">
+        <v>1068469</v>
+      </c>
+      <c r="C36" t="inlineStr">
         <is>
           <t>MASAYA</t>
         </is>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="D36" t="inlineStr">
         <is>
           <t>Thor Amor y Trueno</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>Masaya</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>Cinemas</t>
         </is>
       </c>
-      <c r="E36" t="n">
+      <c r="G36" t="n">
         <v>27.70489469</v>
       </c>
-      <c r="F36" t="n">
+      <c r="H36" t="n">
+        <v>27.70489469</v>
+      </c>
+      <c r="I36" t="n">
         <v>30.39185182</v>
       </c>
-      <c r="G36" t="n">
+      <c r="J36" t="n">
+        <v>30.39185182</v>
+      </c>
+      <c r="K36" t="n">
         <v>61.63294915</v>
       </c>
-      <c r="H36" t="n">
+      <c r="L36" t="n">
+        <v>61.63294915</v>
+      </c>
+      <c r="M36" t="n">
         <v>43.10269044</v>
       </c>
-      <c r="I36" t="n">
+      <c r="N36" t="n">
+        <v>43.10269044</v>
+      </c>
+      <c r="O36" t="n">
+        <v>162.8323861</v>
+      </c>
+      <c r="P36" t="n">
+        <v>162.8323861</v>
+      </c>
+      <c r="Q36" t="n">
         <v>14.75738109</v>
       </c>
-      <c r="J36" t="n">
+      <c r="R36" t="n">
+        <v>14.75738109</v>
+      </c>
+      <c r="S36" t="n">
         <v>19.29597188</v>
       </c>
-      <c r="K36" t="n">
+      <c r="T36" t="n">
+        <v>19.29597188</v>
+      </c>
+      <c r="U36" t="n">
         <v>20.34012621</v>
       </c>
-      <c r="L36" t="n">
+      <c r="V36" t="n">
+        <v>20.34012621</v>
+      </c>
+      <c r="W36" t="n">
+        <v>217.22586529</v>
+      </c>
+      <c r="X36" t="n">
+        <v>217.22586529</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>4.93028573</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>-0.28869969</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>-0.6586794</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>-0.73488346</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>-0.58307023</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>-0.3472496</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>-0.63594068</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>-0.02473918</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>-0.553967</v>
+      </c>
+      <c r="AH36" t="n">
         <v>7</v>
       </c>
-      <c r="M36" t="n">
+      <c r="AI36" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ36" t="n">
         <v>9</v>
       </c>
-      <c r="N36" t="n">
+      <c r="AK36" t="n">
+        <v>9</v>
+      </c>
+      <c r="AL36" t="n">
         <v>23</v>
       </c>
-      <c r="O36" t="n">
+      <c r="AM36" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN36" t="n">
         <v>13</v>
       </c>
-      <c r="P36" t="n">
+      <c r="AO36" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>52</v>
+      </c>
+      <c r="AQ36" t="n">
         <v>8</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="AR36" t="n">
         <v>8</v>
       </c>
-      <c r="R36" t="n">
+      <c r="AS36" t="n">
+        <v>8</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>8</v>
+      </c>
+      <c r="AU36" t="n">
         <v>9</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>77</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>77</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>1.33333333</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>-0.5106383</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>-0.66666667</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>-0.47474747</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>-0.68</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>-0.45774648</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
+      <c r="A37" t="n">
+        <v>42</v>
+      </c>
+      <c r="B37" t="n">
+        <v>1068469</v>
+      </c>
+      <c r="C37" t="inlineStr">
         <is>
           <t>MASAYA</t>
         </is>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="D37" t="inlineStr">
         <is>
           <t>Bestia</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>Masaya</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>Cinemas</t>
         </is>
       </c>
-      <c r="E37" t="n">
+      <c r="G37" t="n">
         <v>15.57878249</v>
       </c>
-      <c r="F37" t="n">
-        <v>0</v>
-      </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
+        <v>15.57878249</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>90.42376434000001</v>
       </c>
-      <c r="H37" t="n">
+      <c r="L37" t="n">
+        <v>90.42376434000001</v>
+      </c>
+      <c r="M37" t="n">
         <v>79.77339025000001</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
+      <c r="N37" t="n">
+        <v>79.77339025000001</v>
+      </c>
+      <c r="O37" t="n">
+        <v>185.77593709</v>
+      </c>
+      <c r="P37" t="n">
+        <v>185.77593709</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
         <v>22.6094216</v>
       </c>
-      <c r="K37" t="n">
+      <c r="T37" t="n">
+        <v>22.6094216</v>
+      </c>
+      <c r="U37" t="n">
         <v>8.353234580000001</v>
       </c>
-      <c r="L37" t="n">
+      <c r="V37" t="n">
+        <v>8.353234580000001</v>
+      </c>
+      <c r="W37" t="n">
+        <v>216.73859327</v>
+      </c>
+      <c r="X37" t="n">
+        <v>216.73859327</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>-0.5996968499999999</v>
+      </c>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="n">
+        <v>-0.08027044999999999</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>-0.60379688</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>-0.45130494</v>
+      </c>
+      <c r="AD37" t="inlineStr"/>
+      <c r="AE37" t="n">
+        <v>-0.50843342</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>-0.55299354</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>-0.4625331</v>
+      </c>
+      <c r="AH37" t="n">
         <v>4</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
+      <c r="AI37" t="n">
+        <v>4</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL37" t="n">
         <v>20</v>
       </c>
-      <c r="O37" t="n">
+      <c r="AM37" t="n">
+        <v>20</v>
+      </c>
+      <c r="AN37" t="n">
         <v>19</v>
       </c>
-      <c r="P37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q37" t="n">
+      <c r="AO37" t="n">
+        <v>19</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>43</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS37" t="n">
         <v>10</v>
       </c>
-      <c r="R37" t="n">
+      <c r="AT37" t="n">
+        <v>10</v>
+      </c>
+      <c r="AU37" t="n">
         <v>4</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>57</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>57</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>-0.5555555599999999</v>
+      </c>
+      <c r="BA37" t="inlineStr"/>
+      <c r="BB37" t="n">
+        <v>-0.16666667</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>-0.58695652</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>-0.4556962</v>
+      </c>
+      <c r="BE37" t="inlineStr"/>
+      <c r="BF37" t="n">
+        <v>-0.47368421</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>-0.44117647</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
+      <c r="A38" t="n">
+        <v>44</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1004434</v>
+      </c>
+      <c r="C38" t="inlineStr">
         <is>
           <t>Metrocentro Managua</t>
         </is>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="D38" t="inlineStr">
         <is>
           <t>Minions Nace un Villano</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>Managua</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>Cinemark</t>
         </is>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
       <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>81.58325773999999</v>
       </c>
-      <c r="H38" t="n">
+      <c r="L38" t="n">
+        <v>81.58325773999999</v>
+      </c>
+      <c r="M38" t="n">
         <v>65.15522973</v>
       </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
       <c r="N38" t="n">
+        <v>65.15522973</v>
+      </c>
+      <c r="O38" t="n">
+        <v>146.73848748</v>
+      </c>
+      <c r="P38" t="n">
+        <v>146.73848748</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
+      <c r="R38" t="n">
+        <v>0</v>
+      </c>
+      <c r="S38" t="n">
+        <v>0</v>
+      </c>
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>146.73848748</v>
+      </c>
+      <c r="X38" t="n">
+        <v>146.73848748</v>
+      </c>
+      <c r="Y38" t="inlineStr"/>
+      <c r="Z38" t="inlineStr"/>
+      <c r="AA38" t="n">
+        <v>-0.85709728</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>-0.88587291</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>-0.8714851</v>
+      </c>
+      <c r="AD38" t="inlineStr"/>
+      <c r="AE38" t="inlineStr"/>
+      <c r="AF38" t="inlineStr"/>
+      <c r="AG38" t="n">
+        <v>-0.8714851</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL38" t="n">
         <v>23</v>
       </c>
-      <c r="O38" t="n">
+      <c r="AM38" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN38" t="n">
         <v>18</v>
       </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
+      <c r="AO38" t="n">
+        <v>18</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>41</v>
+      </c>
+      <c r="AZ38" t="inlineStr"/>
+      <c r="BA38" t="inlineStr"/>
+      <c r="BB38" t="n">
+        <v>-0.81889764</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>-0.86861314</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>-0.84469697</v>
+      </c>
+      <c r="BE38" t="inlineStr"/>
+      <c r="BF38" t="inlineStr"/>
+      <c r="BG38" t="inlineStr"/>
+      <c r="BH38" t="n">
+        <v>-0.84469697</v>
       </c>
     </row>
   </sheetData>

--- a/Data Transformation/Nicaragua.xlsx
+++ b/Data Transformation/Nicaragua.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BH38"/>
+  <dimension ref="A1:BH43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,7 +466,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Thu 18-Aug $</t>
+          <t>Thu 25-Aug $</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -476,7 +476,7 @@
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>Fri 19-Aug $</t>
+          <t>Fri 26-Aug $</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
@@ -486,7 +486,7 @@
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Sat 20-Aug $</t>
+          <t>Sat 27-Aug $</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
@@ -496,7 +496,7 @@
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>Sun 21-Aug $</t>
+          <t>Sun 28-Aug $</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
@@ -517,7 +517,7 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>Mon 22-Aug $</t>
+          <t>Mon 29-Aug $</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
@@ -527,7 +527,7 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Tue 23-Aug $</t>
+          <t>Tue 30-Aug $</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
@@ -537,7 +537,7 @@
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Wed 24-Aug $</t>
+          <t>Wed 31-Aug $</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
@@ -603,7 +603,7 @@
       </c>
       <c r="AH1" s="1" t="inlineStr">
         <is>
-          <t>Thu Adm 18-Aug</t>
+          <t>Thu Adm 25-Aug</t>
         </is>
       </c>
       <c r="AI1" s="1" t="inlineStr">
@@ -613,7 +613,7 @@
       </c>
       <c r="AJ1" s="1" t="inlineStr">
         <is>
-          <t>Fri Adm 19-Aug</t>
+          <t>Fri Adm 26-Aug</t>
         </is>
       </c>
       <c r="AK1" s="1" t="inlineStr">
@@ -623,7 +623,7 @@
       </c>
       <c r="AL1" s="1" t="inlineStr">
         <is>
-          <t>Sat Adm 20-Aug</t>
+          <t>Sat Adm 27-Aug</t>
         </is>
       </c>
       <c r="AM1" s="1" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>Sun Adm 21-Aug</t>
+          <t>Sun Adm 28-Aug</t>
         </is>
       </c>
       <c r="AO1" s="1" t="inlineStr">
@@ -649,7 +649,7 @@
       </c>
       <c r="AQ1" s="1" t="inlineStr">
         <is>
-          <t>Mon Adm 22-Aug</t>
+          <t>Mon Adm 29-Aug</t>
         </is>
       </c>
       <c r="AR1" s="1" t="inlineStr">
@@ -659,7 +659,7 @@
       </c>
       <c r="AS1" s="1" t="inlineStr">
         <is>
-          <t>Tue Adm 23-Aug</t>
+          <t>Tue Adm 30-Aug</t>
         </is>
       </c>
       <c r="AT1" s="1" t="inlineStr">
@@ -669,7 +669,7 @@
       </c>
       <c r="AU1" s="1" t="inlineStr">
         <is>
-          <t>Wed Adm 24-Aug</t>
+          <t>Wed Adm 31-Aug</t>
         </is>
       </c>
       <c r="AV1" s="1" t="inlineStr">
@@ -767,131 +767,155 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>2837.31534611</v>
+        <v>415.60894215</v>
       </c>
       <c r="H2" t="n">
-        <v>2837.31534611</v>
+        <v>415.60894215</v>
       </c>
       <c r="I2" t="n">
-        <v>1435.92102453</v>
+        <v>565.68994903</v>
       </c>
       <c r="J2" t="n">
-        <v>1435.92102453</v>
+        <v>565.68994903</v>
       </c>
       <c r="K2" t="n">
-        <v>3305.65336497</v>
+        <v>1201.76079657</v>
       </c>
       <c r="L2" t="n">
-        <v>3305.65336497</v>
+        <v>1201.76079657</v>
       </c>
       <c r="M2" t="n">
-        <v>2763.24999949</v>
+        <v>935.8155832599999</v>
       </c>
       <c r="N2" t="n">
-        <v>2763.24999949</v>
+        <v>935.81558326</v>
       </c>
       <c r="O2" t="n">
-        <v>10342.13973509</v>
+        <v>3118.875271</v>
       </c>
       <c r="P2" t="n">
-        <v>10342.13973509</v>
+        <v>3118.875271</v>
       </c>
       <c r="Q2" t="n">
-        <v>771.2819930000001</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>771.2819930000001</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>699.4441756</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>699.4441756</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>591.1305672</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>591.1305672</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>12403.99647091</v>
+        <v>3118.875271</v>
       </c>
       <c r="X2" t="n">
-        <v>12403.99647091</v>
-      </c>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
-      <c r="AB2" t="inlineStr"/>
-      <c r="AC2" t="inlineStr"/>
+        <v>3118.875271</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-0.85109462</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>-0.60604383</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-0.6364528699999999</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>-0.66133517</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>-0.69707654</v>
+      </c>
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
-      <c r="AG2" t="inlineStr"/>
+      <c r="AG2" t="n">
+        <v>-0.69707654</v>
+      </c>
       <c r="AH2" t="n">
-        <v>583</v>
+        <v>120</v>
       </c>
       <c r="AI2" t="n">
-        <v>583</v>
+        <v>120</v>
       </c>
       <c r="AJ2" t="n">
-        <v>305</v>
+        <v>140</v>
       </c>
       <c r="AK2" t="n">
-        <v>305</v>
+        <v>140</v>
       </c>
       <c r="AL2" t="n">
-        <v>754</v>
+        <v>269</v>
       </c>
       <c r="AM2" t="n">
-        <v>754</v>
+        <v>269</v>
       </c>
       <c r="AN2" t="n">
-        <v>656</v>
+        <v>227</v>
       </c>
       <c r="AO2" t="n">
-        <v>656</v>
+        <v>227</v>
       </c>
       <c r="AP2" t="n">
-        <v>2298</v>
+        <v>756</v>
       </c>
       <c r="AQ2" t="n">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="AT2" t="n">
-        <v>211</v>
+        <v>0</v>
       </c>
       <c r="AU2" t="n">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="AV2" t="n">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="AW2" t="n">
-        <v>583</v>
+        <v>120</v>
       </c>
       <c r="AX2" t="n">
-        <v>2806</v>
+        <v>756</v>
       </c>
       <c r="AY2" t="n">
-        <v>2806</v>
-      </c>
-      <c r="AZ2" t="inlineStr"/>
-      <c r="BA2" t="inlineStr"/>
-      <c r="BB2" t="inlineStr"/>
-      <c r="BC2" t="inlineStr"/>
-      <c r="BD2" t="inlineStr"/>
+        <v>756</v>
+      </c>
+      <c r="AZ2" t="n">
+        <v>-0.79130435</v>
+      </c>
+      <c r="BA2" t="n">
+        <v>-0.5409836099999999</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>-0.64323607</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>-0.65396341</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>-0.669869</v>
+      </c>
       <c r="BE2" t="inlineStr"/>
       <c r="BF2" t="inlineStr"/>
       <c r="BG2" t="inlineStr"/>
-      <c r="BH2" t="inlineStr"/>
+      <c r="BH2" t="n">
+        <v>-0.669869</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -921,131 +945,155 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>1435.3362981</v>
+        <v>228.63332244</v>
       </c>
       <c r="H3" t="n">
-        <v>1435.3362981</v>
+        <v>228.63332244</v>
       </c>
       <c r="I3" t="n">
-        <v>1051.28241617</v>
+        <v>605.85435269</v>
       </c>
       <c r="J3" t="n">
-        <v>1051.28241617</v>
+        <v>605.85435269</v>
       </c>
       <c r="K3" t="n">
-        <v>1767.07108744</v>
+        <v>821.14757392</v>
       </c>
       <c r="L3" t="n">
-        <v>1767.07108744</v>
+        <v>821.14757392</v>
       </c>
       <c r="M3" t="n">
-        <v>1618.07722663</v>
+        <v>1041.96388747</v>
       </c>
       <c r="N3" t="n">
-        <v>1618.07722663</v>
+        <v>1041.96388747</v>
       </c>
       <c r="O3" t="n">
-        <v>5871.76702834</v>
+        <v>2697.59913651</v>
       </c>
       <c r="P3" t="n">
-        <v>5871.76702834</v>
+        <v>2697.59913651</v>
       </c>
       <c r="Q3" t="n">
-        <v>278.13486744</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>278.13486744</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>400.2313129</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>400.2313129</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>298.7879615</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>298.7879615</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>6848.92117019</v>
+        <v>2697.59913651</v>
       </c>
       <c r="X3" t="n">
-        <v>6848.92117019</v>
-      </c>
-      <c r="Y3" t="inlineStr"/>
-      <c r="Z3" t="inlineStr"/>
-      <c r="AA3" t="inlineStr"/>
-      <c r="AB3" t="inlineStr"/>
-      <c r="AC3" t="inlineStr"/>
+        <v>2697.59913651</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>-0.8407109699999999</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>-0.42369972</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>-0.53530586</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>-0.35604811</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>-0.5405813699999999</v>
+      </c>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr"/>
-      <c r="AG3" t="inlineStr"/>
+      <c r="AG3" t="n">
+        <v>-0.5405813699999999</v>
+      </c>
       <c r="AH3" t="n">
-        <v>239</v>
+        <v>40</v>
       </c>
       <c r="AI3" t="n">
-        <v>239</v>
+        <v>40</v>
       </c>
       <c r="AJ3" t="n">
+        <v>108</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>108</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>141</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>141</v>
+      </c>
+      <c r="AN3" t="n">
         <v>174</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AO3" t="n">
         <v>174</v>
       </c>
-      <c r="AL3" t="n">
-        <v>300</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>300</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>274</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>274</v>
-      </c>
       <c r="AP3" t="n">
-        <v>987</v>
+        <v>463</v>
       </c>
       <c r="AQ3" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="AT3" t="n">
-        <v>143</v>
+        <v>0</v>
       </c>
       <c r="AU3" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AV3" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AW3" t="n">
-        <v>239</v>
+        <v>40</v>
       </c>
       <c r="AX3" t="n">
-        <v>1229</v>
+        <v>463</v>
       </c>
       <c r="AY3" t="n">
-        <v>1229</v>
-      </c>
-      <c r="AZ3" t="inlineStr"/>
-      <c r="BA3" t="inlineStr"/>
-      <c r="BB3" t="inlineStr"/>
-      <c r="BC3" t="inlineStr"/>
-      <c r="BD3" t="inlineStr"/>
+        <v>463</v>
+      </c>
+      <c r="AZ3" t="n">
+        <v>-0.8326359800000001</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>-0.37931034</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>-0.53</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>-0.3649635</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>-0.53090172</v>
+      </c>
       <c r="BE3" t="inlineStr"/>
       <c r="BF3" t="inlineStr"/>
       <c r="BG3" t="inlineStr"/>
-      <c r="BH3" t="inlineStr"/>
+      <c r="BH3" t="n">
+        <v>-0.53090172</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -1075,152 +1123,176 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>1581.68496796</v>
+        <v>256.48691075</v>
       </c>
       <c r="H4" t="n">
-        <v>1581.68496796</v>
+        <v>256.48691075</v>
       </c>
       <c r="I4" t="n">
-        <v>607.90608977</v>
+        <v>453.0944207</v>
       </c>
       <c r="J4" t="n">
-        <v>607.90608977</v>
+        <v>453.0944207</v>
       </c>
       <c r="K4" t="n">
-        <v>1434.66803934</v>
+        <v>880.12287227</v>
       </c>
       <c r="L4" t="n">
-        <v>1434.66803934</v>
+        <v>880.12287227</v>
       </c>
       <c r="M4" t="n">
-        <v>1646.67313301</v>
+        <v>817.2974884</v>
       </c>
       <c r="N4" t="n">
-        <v>1646.67313301</v>
+        <v>817.2974884</v>
       </c>
       <c r="O4" t="n">
-        <v>5270.93223008</v>
+        <v>2407.00169212</v>
       </c>
       <c r="P4" t="n">
-        <v>5270.93223008</v>
+        <v>2407.00169212</v>
       </c>
       <c r="Q4" t="n">
-        <v>447.14864714</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>447.14864714</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>559.97606507</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>559.97606507</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>471.95775384</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>471.95775384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>6750.014696120001</v>
+        <v>2407.00169212</v>
       </c>
       <c r="X4" t="n">
-        <v>6750.01469612</v>
-      </c>
-      <c r="Y4" t="inlineStr"/>
-      <c r="Z4" t="inlineStr"/>
-      <c r="AA4" t="inlineStr"/>
-      <c r="AB4" t="inlineStr"/>
-      <c r="AC4" t="inlineStr"/>
+        <v>2407.00169212</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>-0.83783945</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>-0.25466379</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>-0.38653204</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>-0.50366744</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>-0.54334422</v>
+      </c>
       <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr"/>
-      <c r="AG4" t="inlineStr"/>
+      <c r="AG4" t="n">
+        <v>-0.54334422</v>
+      </c>
       <c r="AH4" t="n">
-        <v>355</v>
+        <v>77</v>
       </c>
       <c r="AI4" t="n">
-        <v>355</v>
+        <v>77</v>
       </c>
       <c r="AJ4" t="n">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="AK4" t="n">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="AL4" t="n">
-        <v>334</v>
+        <v>211</v>
       </c>
       <c r="AM4" t="n">
-        <v>334</v>
+        <v>211</v>
       </c>
       <c r="AN4" t="n">
-        <v>394</v>
+        <v>197</v>
       </c>
       <c r="AO4" t="n">
-        <v>394</v>
+        <v>197</v>
       </c>
       <c r="AP4" t="n">
-        <v>1226</v>
+        <v>601</v>
       </c>
       <c r="AQ4" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="AR4" t="n">
-        <v>101</v>
+        <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="AT4" t="n">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="AU4" t="n">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="AV4" t="n">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="AW4" t="n">
-        <v>355</v>
+        <v>77</v>
       </c>
       <c r="AX4" t="n">
-        <v>1670</v>
+        <v>601</v>
       </c>
       <c r="AY4" t="n">
-        <v>1670</v>
-      </c>
-      <c r="AZ4" t="inlineStr"/>
-      <c r="BA4" t="inlineStr"/>
-      <c r="BB4" t="inlineStr"/>
-      <c r="BC4" t="inlineStr"/>
-      <c r="BD4" t="inlineStr"/>
+        <v>601</v>
+      </c>
+      <c r="AZ4" t="n">
+        <v>-0.78309859</v>
+      </c>
+      <c r="BA4" t="n">
+        <v>-0.18881119</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>-0.36826347</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>-0.5</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>-0.50978793</v>
+      </c>
       <c r="BE4" t="inlineStr"/>
       <c r="BF4" t="inlineStr"/>
       <c r="BG4" t="inlineStr"/>
-      <c r="BH4" t="inlineStr"/>
+      <c r="BH4" t="n">
+        <v>-0.50978793</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1068469</v>
+        <v>1004437</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>MASAYA</t>
+          <t>GALERÍAS</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Dragon Ball Super: Super Heroe</t>
+          <t>Tren Bala</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Masaya</t>
+          <t>Managua</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -1229,131 +1301,155 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>830.54819236</v>
+        <v>177.92736238</v>
       </c>
       <c r="H5" t="n">
-        <v>830.54819236</v>
+        <v>177.92736238</v>
       </c>
       <c r="I5" t="n">
-        <v>238.86742544</v>
+        <v>400.75384341</v>
       </c>
       <c r="J5" t="n">
-        <v>238.86742544</v>
+        <v>400.75384341</v>
       </c>
       <c r="K5" t="n">
-        <v>822.82145037</v>
+        <v>682.61125987</v>
       </c>
       <c r="L5" t="n">
-        <v>822.82145037</v>
+        <v>682.61125987</v>
       </c>
       <c r="M5" t="n">
-        <v>713.40799942</v>
+        <v>657.35202831</v>
       </c>
       <c r="N5" t="n">
-        <v>713.40799942</v>
+        <v>657.35202831</v>
       </c>
       <c r="O5" t="n">
-        <v>2605.64506758</v>
+        <v>1918.64449397</v>
       </c>
       <c r="P5" t="n">
-        <v>2605.64506758</v>
+        <v>1918.64449397</v>
       </c>
       <c r="Q5" t="n">
-        <v>160.04797458</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>160.04797458</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>236.03456515</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>236.03456515</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>146.44612427</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>146.44612427</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>3148.17373158</v>
+        <v>1918.64449397</v>
       </c>
       <c r="X5" t="n">
-        <v>3148.17373158</v>
-      </c>
-      <c r="Y5" t="inlineStr"/>
-      <c r="Z5" t="inlineStr"/>
-      <c r="AA5" t="inlineStr"/>
-      <c r="AB5" t="inlineStr"/>
-      <c r="AC5" t="inlineStr"/>
+        <v>1918.64449397</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>0.67940196</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>0.09667526999999999</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>0.24292531</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>0.83493649</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0.39151926</v>
+      </c>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr"/>
-      <c r="AG5" t="inlineStr"/>
+      <c r="AG5" t="n">
+        <v>0.39151926</v>
+      </c>
       <c r="AH5" t="n">
-        <v>190</v>
+        <v>36</v>
       </c>
       <c r="AI5" t="n">
-        <v>190</v>
+        <v>36</v>
       </c>
       <c r="AJ5" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AK5" t="n">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="AL5" t="n">
-        <v>196</v>
+        <v>114</v>
       </c>
       <c r="AM5" t="n">
-        <v>196</v>
+        <v>114</v>
       </c>
       <c r="AN5" t="n">
-        <v>178</v>
+        <v>110</v>
       </c>
       <c r="AO5" t="n">
-        <v>178</v>
+        <v>110</v>
       </c>
       <c r="AP5" t="n">
-        <v>619</v>
+        <v>327</v>
       </c>
       <c r="AQ5" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AR5" t="n">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="AT5" t="n">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="AU5" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AV5" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AW5" t="n">
-        <v>190</v>
+        <v>36</v>
       </c>
       <c r="AX5" t="n">
-        <v>796</v>
+        <v>327</v>
       </c>
       <c r="AY5" t="n">
-        <v>796</v>
-      </c>
-      <c r="AZ5" t="inlineStr"/>
-      <c r="BA5" t="inlineStr"/>
-      <c r="BB5" t="inlineStr"/>
-      <c r="BC5" t="inlineStr"/>
-      <c r="BD5" t="inlineStr"/>
+        <v>327</v>
+      </c>
+      <c r="AZ5" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="BA5" t="n">
+        <v>-0.02898551</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>0.25274725</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>0.80327869</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>0.32926829</v>
+      </c>
       <c r="BE5" t="inlineStr"/>
       <c r="BF5" t="inlineStr"/>
       <c r="BG5" t="inlineStr"/>
-      <c r="BH5" t="inlineStr"/>
+      <c r="BH5" t="n">
+        <v>0.32926829</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -1383,325 +1479,337 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>565.90379877</v>
+        <v>106.40590386</v>
       </c>
       <c r="H6" t="n">
-        <v>565.90379877</v>
+        <v>106.40590386</v>
       </c>
       <c r="I6" t="n">
-        <v>354.51127563</v>
+        <v>228.08418452</v>
       </c>
       <c r="J6" t="n">
-        <v>354.51127563</v>
+        <v>228.08418452</v>
       </c>
       <c r="K6" t="n">
-        <v>985.31970709</v>
+        <v>437.55776781</v>
       </c>
       <c r="L6" t="n">
-        <v>985.31970709</v>
+        <v>437.55776781</v>
       </c>
       <c r="M6" t="n">
-        <v>556.4367995699999</v>
+        <v>378.22082848</v>
       </c>
       <c r="N6" t="n">
-        <v>556.4367995699999</v>
+        <v>378.22082848</v>
       </c>
       <c r="O6" t="n">
-        <v>2462.17158107</v>
+        <v>1150.26868466</v>
       </c>
       <c r="P6" t="n">
-        <v>2462.17158107</v>
+        <v>1150.26868466</v>
       </c>
       <c r="Q6" t="n">
-        <v>174.77751156</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>174.77751156</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>248.92639052</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>248.92639052</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>199.33602122</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>199.33602122</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>3085.21150437</v>
+        <v>1150.26868466</v>
       </c>
       <c r="X6" t="n">
-        <v>3085.21150437</v>
-      </c>
-      <c r="Y6" t="inlineStr"/>
-      <c r="Z6" t="inlineStr"/>
-      <c r="AA6" t="inlineStr"/>
-      <c r="AB6" t="inlineStr"/>
-      <c r="AC6" t="inlineStr"/>
+        <v>1150.26868466</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>-0.8119717400000001</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>-0.35662361</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>-0.55592305</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>-0.32028071</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>-0.5328235099999999</v>
+      </c>
       <c r="AD6" t="inlineStr"/>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr"/>
-      <c r="AG6" t="inlineStr"/>
+      <c r="AG6" t="n">
+        <v>-0.5328235099999999</v>
+      </c>
       <c r="AH6" t="n">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="AI6" t="n">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="AJ6" t="n">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="AK6" t="n">
-        <v>88</v>
+        <v>63</v>
       </c>
       <c r="AL6" t="n">
-        <v>249</v>
+        <v>111</v>
       </c>
       <c r="AM6" t="n">
-        <v>249</v>
+        <v>111</v>
       </c>
       <c r="AN6" t="n">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="AO6" t="n">
-        <v>158</v>
+        <v>100</v>
       </c>
       <c r="AP6" t="n">
-        <v>631</v>
+        <v>311</v>
       </c>
       <c r="AQ6" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AR6" t="n">
-        <v>44</v>
+        <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AT6" t="n">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="AU6" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AV6" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AW6" t="n">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="AX6" t="n">
-        <v>818</v>
+        <v>311</v>
       </c>
       <c r="AY6" t="n">
-        <v>818</v>
-      </c>
-      <c r="AZ6" t="inlineStr"/>
-      <c r="BA6" t="inlineStr"/>
-      <c r="BB6" t="inlineStr"/>
-      <c r="BC6" t="inlineStr"/>
-      <c r="BD6" t="inlineStr"/>
+        <v>311</v>
+      </c>
+      <c r="AZ6" t="n">
+        <v>-0.72794118</v>
+      </c>
+      <c r="BA6" t="n">
+        <v>-0.28409091</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>-0.55421687</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>-0.36708861</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>-0.50713154</v>
+      </c>
       <c r="BE6" t="inlineStr"/>
       <c r="BF6" t="inlineStr"/>
       <c r="BG6" t="inlineStr"/>
-      <c r="BH6" t="inlineStr"/>
+      <c r="BH6" t="n">
+        <v>-0.50713154</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>1004434</v>
+        <v>1068469</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Metrocentro Managua</t>
+          <t>MASAYA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Tren Bala</t>
+          <t>Dragon Ball Super: Super Heroe</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Managua</t>
+          <t>Masaya</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Cinemark</t>
+          <t>Cinemas</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>181.26519041</v>
+        <v>52.9525851</v>
       </c>
       <c r="H7" t="n">
-        <v>181.26519041</v>
+        <v>52.9525851</v>
       </c>
       <c r="I7" t="n">
-        <v>215.5134522</v>
+        <v>174.9646882</v>
       </c>
       <c r="J7" t="n">
-        <v>215.5134522</v>
+        <v>174.9646882</v>
       </c>
       <c r="K7" t="n">
-        <v>676.89044224</v>
+        <v>420.31027489</v>
       </c>
       <c r="L7" t="n">
-        <v>676.89044224</v>
+        <v>420.31027489</v>
       </c>
       <c r="M7" t="n">
-        <v>631.50453435</v>
+        <v>499.27319205</v>
       </c>
       <c r="N7" t="n">
-        <v>631.50453435</v>
+        <v>499.27319205</v>
       </c>
       <c r="O7" t="n">
-        <v>1705.17361919</v>
+        <v>1147.50074024</v>
       </c>
       <c r="P7" t="n">
-        <v>1705.17361919</v>
+        <v>1147.50074024</v>
       </c>
       <c r="Q7" t="n">
-        <v>99.96037382</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>99.96037382</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>54.57446593</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>54.57446593</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>148.9660167</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>148.9660167</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>2008.67447565</v>
+        <v>1147.50074024</v>
       </c>
       <c r="X7" t="n">
-        <v>2008.67447565</v>
+        <v>1147.50074024</v>
       </c>
       <c r="Y7" t="n">
-        <v>-0.05803077</v>
+        <v>-0.93624381</v>
       </c>
       <c r="Z7" t="n">
-        <v>-0.28439342</v>
+        <v>-0.26752387</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.1804786</v>
+        <v>-0.48918411</v>
       </c>
       <c r="AB7" t="n">
-        <v>0.1247825</v>
+        <v>-0.30015756</v>
       </c>
       <c r="AC7" t="n">
-        <v>0.04711875</v>
-      </c>
-      <c r="AD7" t="n">
-        <v>-0.49935276</v>
-      </c>
-      <c r="AE7" t="n">
-        <v>-0.68947197</v>
-      </c>
-      <c r="AF7" t="n">
-        <v>-0.38917612</v>
-      </c>
+        <v>-0.55960973</v>
+      </c>
+      <c r="AD7" t="inlineStr"/>
+      <c r="AE7" t="inlineStr"/>
+      <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="n">
-        <v>-0.10635428</v>
+        <v>-0.55960973</v>
       </c>
       <c r="AH7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AJ7" t="n">
         <v>47</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AK7" t="n">
         <v>47</v>
       </c>
-      <c r="AJ7" t="n">
-        <v>46</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>46</v>
-      </c>
       <c r="AL7" t="n">
-        <v>162</v>
+        <v>98</v>
       </c>
       <c r="AM7" t="n">
-        <v>162</v>
+        <v>98</v>
       </c>
       <c r="AN7" t="n">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="AO7" t="n">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="AP7" t="n">
-        <v>394</v>
+        <v>290</v>
       </c>
       <c r="AQ7" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AT7" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AU7" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AV7" t="n">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="AW7" t="n">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="AX7" t="n">
-        <v>485</v>
+        <v>290</v>
       </c>
       <c r="AY7" t="n">
-        <v>485</v>
+        <v>290</v>
       </c>
       <c r="AZ7" t="n">
-        <v>-0.02083333</v>
+        <v>-0.92105263</v>
       </c>
       <c r="BA7" t="n">
-        <v>-0.22033898</v>
+        <v>-0.14545455</v>
       </c>
       <c r="BB7" t="n">
-        <v>0.37288136</v>
+        <v>-0.5</v>
       </c>
       <c r="BC7" t="n">
-        <v>0.112</v>
+        <v>-0.26966292</v>
       </c>
       <c r="BD7" t="n">
-        <v>0.12571429</v>
-      </c>
-      <c r="BE7" t="n">
-        <v>-0.45098039</v>
-      </c>
-      <c r="BF7" t="n">
-        <v>-0.69642857</v>
-      </c>
-      <c r="BG7" t="n">
-        <v>-0.28125</v>
-      </c>
+        <v>-0.53150242</v>
+      </c>
+      <c r="BE7" t="inlineStr"/>
+      <c r="BF7" t="inlineStr"/>
+      <c r="BG7" t="inlineStr"/>
       <c r="BH7" t="n">
-        <v>-0.06909789</v>
+        <v>-0.53150242</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" t="n">
         <v>1004437</v>
@@ -1713,7 +1821,7 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Tren Bala</t>
+          <t>Thor Amor y Trueno</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1727,183 +1835,171 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>105.94685861</v>
+        <v>106.48935947</v>
       </c>
       <c r="H8" t="n">
-        <v>105.94685861</v>
+        <v>106.48935947</v>
       </c>
       <c r="I8" t="n">
-        <v>365.42616882</v>
+        <v>118.173145</v>
       </c>
       <c r="J8" t="n">
-        <v>365.42616882</v>
+        <v>118.173145</v>
       </c>
       <c r="K8" t="n">
-        <v>549.1973296</v>
+        <v>552.69869228</v>
       </c>
       <c r="L8" t="n">
-        <v>549.1973296</v>
+        <v>552.69869228</v>
       </c>
       <c r="M8" t="n">
-        <v>358.24238708</v>
+        <v>362.55899217</v>
       </c>
       <c r="N8" t="n">
-        <v>358.24238708</v>
+        <v>362.55899217</v>
       </c>
       <c r="O8" t="n">
-        <v>1378.8127441</v>
+        <v>1139.92018891</v>
       </c>
       <c r="P8" t="n">
-        <v>1378.8127441</v>
+        <v>1139.92018891</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.7685697</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>153.7685697</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.25477124</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>130.25477124</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>126.52365979</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>126.52365979</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>1789.35974483</v>
+        <v>1139.92018891</v>
       </c>
       <c r="X8" t="n">
-        <v>1789.35974483</v>
+        <v>1139.92018891</v>
       </c>
       <c r="Y8" t="n">
-        <v>-0.53874994</v>
+        <v>-0.03931587</v>
       </c>
       <c r="Z8" t="n">
-        <v>-0.43450432</v>
+        <v>-0.40408626</v>
       </c>
       <c r="AA8" t="n">
-        <v>-0.38673667</v>
+        <v>0.1774676</v>
       </c>
       <c r="AB8" t="n">
-        <v>-0.6648109800000001</v>
+        <v>-0.09096429</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.51453845</v>
-      </c>
-      <c r="AD8" t="n">
-        <v>-0.17750577</v>
-      </c>
-      <c r="AE8" t="n">
-        <v>-0.43023287</v>
-      </c>
-      <c r="AF8" t="n">
-        <v>0.01627923</v>
-      </c>
+        <v>-0.03182316</v>
+      </c>
+      <c r="AD8" t="inlineStr"/>
+      <c r="AE8" t="inlineStr"/>
+      <c r="AF8" t="inlineStr"/>
       <c r="AG8" t="n">
-        <v>-0.47064614</v>
+        <v>-0.03182316</v>
       </c>
       <c r="AH8" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AI8" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AJ8" t="n">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="AK8" t="n">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="AL8" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM8" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN8" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AO8" t="n">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="AP8" t="n">
-        <v>246</v>
+        <v>199</v>
       </c>
       <c r="AQ8" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AT8" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="AU8" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AV8" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AW8" t="n">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="AX8" t="n">
-        <v>375</v>
+        <v>199</v>
       </c>
       <c r="AY8" t="n">
-        <v>375</v>
+        <v>199</v>
       </c>
       <c r="AZ8" t="n">
-        <v>-0.47916667</v>
+        <v>-0.125</v>
       </c>
       <c r="BA8" t="n">
-        <v>-0.37837838</v>
+        <v>-0.4</v>
       </c>
       <c r="BB8" t="n">
-        <v>-0.38513514</v>
+        <v>0.15</v>
       </c>
       <c r="BC8" t="n">
-        <v>-0.64534884</v>
+        <v>-0.07142857</v>
       </c>
       <c r="BD8" t="n">
-        <v>-0.48643006</v>
-      </c>
-      <c r="BE8" t="n">
-        <v>-0.25</v>
-      </c>
-      <c r="BF8" t="n">
-        <v>-0.39240506</v>
-      </c>
-      <c r="BG8" t="n">
-        <v>-0.16</v>
-      </c>
+        <v>-0.04784689</v>
+      </c>
+      <c r="BE8" t="inlineStr"/>
+      <c r="BF8" t="inlineStr"/>
+      <c r="BG8" t="inlineStr"/>
       <c r="BH8" t="n">
-        <v>-0.43181818</v>
+        <v>-0.04784689</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>1009211</v>
+        <v>1004434</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>GALERÍAS</t>
+          <t>Metrocentro Managua</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Tren Bala</t>
+          <t>¡Nop!</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -1913,187 +2009,151 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Cinemas</t>
+          <t>Cinemark</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>211.44821137</v>
+        <v>184.43690003</v>
       </c>
       <c r="H9" t="n">
-        <v>211.44821137</v>
+        <v>184.43690003</v>
       </c>
       <c r="I9" t="n">
-        <v>390.43018433</v>
+        <v>172.47492914</v>
       </c>
       <c r="J9" t="n">
-        <v>390.43018433</v>
+        <v>172.47492914</v>
       </c>
       <c r="K9" t="n">
-        <v>527.98011377</v>
+        <v>369.70835617</v>
       </c>
       <c r="L9" t="n">
-        <v>527.98011377</v>
+        <v>369.70835617</v>
       </c>
       <c r="M9" t="n">
-        <v>89.88080409</v>
+        <v>327.98055073</v>
       </c>
       <c r="N9" t="n">
-        <v>89.88080409</v>
+        <v>327.98055073</v>
       </c>
       <c r="O9" t="n">
-        <v>1219.73931356</v>
+        <v>1054.60073607</v>
       </c>
       <c r="P9" t="n">
-        <v>1219.73931356</v>
+        <v>1054.60073607</v>
       </c>
       <c r="Q9" t="n">
-        <v>131.86972992</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>131.86972992</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>151.41629884</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>151.41629884</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>9.466999189999999</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>9.466999189999999</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>1512.49234152</v>
+        <v>1054.60073607</v>
       </c>
       <c r="X9" t="n">
-        <v>1512.49234152</v>
-      </c>
-      <c r="Y9" t="n">
-        <v>1.20656711</v>
-      </c>
-      <c r="Z9" t="n">
-        <v>0.99490639</v>
-      </c>
-      <c r="AA9" t="n">
-        <v>-0.09216095000000001</v>
-      </c>
-      <c r="AB9" t="n">
-        <v>-0.86971225</v>
-      </c>
-      <c r="AC9" t="n">
-        <v>-0.21960812</v>
-      </c>
-      <c r="AD9" t="n">
-        <v>0.3298179</v>
-      </c>
-      <c r="AE9" t="n">
-        <v>-0.39499563</v>
-      </c>
-      <c r="AF9" t="n">
-        <v>-0.91978319</v>
-      </c>
-      <c r="AG9" t="n">
-        <v>-0.25509045</v>
-      </c>
+        <v>1054.60073607</v>
+      </c>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
+      <c r="AA9" t="inlineStr"/>
+      <c r="AB9" t="inlineStr"/>
+      <c r="AC9" t="inlineStr"/>
+      <c r="AD9" t="inlineStr"/>
+      <c r="AE9" t="inlineStr"/>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="inlineStr"/>
       <c r="AH9" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="AI9" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="AJ9" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="AK9" t="n">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="AL9" t="n">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="AM9" t="n">
-        <v>57</v>
+        <v>91</v>
       </c>
       <c r="AN9" t="n">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="AO9" t="n">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="AP9" t="n">
-        <v>133</v>
+        <v>238</v>
       </c>
       <c r="AQ9" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AR9" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AT9" t="n">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="AU9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW9" t="n">
-        <v>23</v>
+        <v>39</v>
       </c>
       <c r="AX9" t="n">
-        <v>179</v>
+        <v>238</v>
       </c>
       <c r="AY9" t="n">
-        <v>179</v>
-      </c>
-      <c r="AZ9" t="n">
-        <v>1.09090909</v>
-      </c>
-      <c r="BA9" t="n">
-        <v>1.04761905</v>
-      </c>
-      <c r="BB9" t="n">
-        <v>-0.09523810000000001</v>
-      </c>
-      <c r="BC9" t="n">
-        <v>-0.86842105</v>
-      </c>
-      <c r="BD9" t="n">
-        <v>-0.22222222</v>
-      </c>
-      <c r="BE9" t="n">
-        <v>0.45454545</v>
-      </c>
-      <c r="BF9" t="n">
-        <v>-0.3</v>
-      </c>
-      <c r="BG9" t="n">
-        <v>-0.85714286</v>
-      </c>
-      <c r="BH9" t="n">
-        <v>-0.24152542</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="AZ9" t="inlineStr"/>
+      <c r="BA9" t="inlineStr"/>
+      <c r="BB9" t="inlineStr"/>
+      <c r="BC9" t="inlineStr"/>
+      <c r="BD9" t="inlineStr"/>
+      <c r="BE9" t="inlineStr"/>
+      <c r="BF9" t="inlineStr"/>
+      <c r="BG9" t="inlineStr"/>
+      <c r="BH9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>1004434</v>
+        <v>1004437</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Metrocentro Managua</t>
+          <t>GALERÍAS</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>DC Liga de Super Mascotas</t>
+          <t>Minions Nace un Villano</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2103,187 +2163,171 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Cinemark</t>
+          <t>Cinemas</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>144.78939941</v>
+        <v>84.03980015</v>
       </c>
       <c r="H10" t="n">
-        <v>144.78939941</v>
+        <v>84.03980015</v>
       </c>
       <c r="I10" t="n">
-        <v>121.95722489</v>
+        <v>143.20982826</v>
       </c>
       <c r="J10" t="n">
-        <v>121.95722489</v>
+        <v>143.20982826</v>
       </c>
       <c r="K10" t="n">
-        <v>273.98609427</v>
+        <v>315.40657203</v>
       </c>
       <c r="L10" t="n">
-        <v>273.98609427</v>
+        <v>315.40657203</v>
       </c>
       <c r="M10" t="n">
-        <v>569.9690396</v>
+        <v>459.14495249</v>
       </c>
       <c r="N10" t="n">
-        <v>569.9690396</v>
+        <v>459.14495249</v>
       </c>
       <c r="O10" t="n">
-        <v>1110.70175816</v>
+        <v>1001.80115292</v>
       </c>
       <c r="P10" t="n">
-        <v>1110.70175816</v>
+        <v>1001.80115292</v>
       </c>
       <c r="Q10" t="n">
-        <v>137.82837059</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>137.82837059</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>96.89752113999999</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>96.89752113999999</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>144.78939941</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>144.78939941</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>1490.2170493</v>
+        <v>1001.80115292</v>
       </c>
       <c r="X10" t="n">
-        <v>1490.2170493</v>
-      </c>
-      <c r="Y10" t="n">
-        <v>-0.37718525</v>
-      </c>
+        <v>1001.80115292</v>
+      </c>
+      <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="n">
-        <v>-0.52069182</v>
+        <v>-0.06502983</v>
       </c>
       <c r="AA10" t="n">
-        <v>-0.38110944</v>
+        <v>-0.13839016</v>
       </c>
       <c r="AB10" t="n">
-        <v>-0.12069936</v>
+        <v>0.03872996</v>
       </c>
       <c r="AC10" t="n">
-        <v>-0.29605857</v>
-      </c>
-      <c r="AD10" t="n">
-        <v>-0.14397104</v>
-      </c>
-      <c r="AE10" t="n">
-        <v>-0.377767</v>
-      </c>
-      <c r="AF10" t="n">
-        <v>0.29199287</v>
-      </c>
+        <v>-0.04525407</v>
+      </c>
+      <c r="AD10" t="inlineStr"/>
+      <c r="AE10" t="inlineStr"/>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="n">
-        <v>-0.25735476</v>
+        <v>-0.04525407</v>
       </c>
       <c r="AH10" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AJ10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK10" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AL10" t="n">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AM10" t="n">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="AN10" t="n">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="AO10" t="n">
-        <v>144</v>
+        <v>81</v>
       </c>
       <c r="AP10" t="n">
-        <v>280</v>
+        <v>187</v>
       </c>
       <c r="AQ10" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AR10" t="n">
-        <v>42</v>
+        <v>0</v>
       </c>
       <c r="AS10" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AT10" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AU10" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AV10" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AW10" t="n">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="AX10" t="n">
-        <v>388</v>
+        <v>187</v>
       </c>
       <c r="AY10" t="n">
-        <v>388</v>
-      </c>
-      <c r="AZ10" t="n">
-        <v>-0.31034483</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="AZ10" t="inlineStr"/>
       <c r="BA10" t="n">
-        <v>-0.44444444</v>
+        <v>0.07407407000000001</v>
       </c>
       <c r="BB10" t="n">
-        <v>-0.34653465</v>
+        <v>-0.1641791</v>
       </c>
       <c r="BC10" t="n">
-        <v>-0.03355705</v>
+        <v>0</v>
       </c>
       <c r="BD10" t="n">
-        <v>-0.22651934</v>
-      </c>
-      <c r="BE10" t="n">
-        <v>-0.02325581</v>
-      </c>
-      <c r="BF10" t="n">
-        <v>-0.375</v>
-      </c>
-      <c r="BG10" t="n">
-        <v>0.44</v>
-      </c>
+        <v>-0.05142857</v>
+      </c>
+      <c r="BE10" t="inlineStr"/>
+      <c r="BF10" t="inlineStr"/>
+      <c r="BG10" t="inlineStr"/>
       <c r="BH10" t="n">
-        <v>-0.18828452</v>
+        <v>-0.05142857</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>1004437</v>
+        <v>1004434</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>GALERÍAS</t>
+          <t>Metrocentro Managua</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Thor Amor y Trueno</t>
+          <t>Tren Bala</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2293,175 +2337,163 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Cinemas</t>
+          <t>Cinemark</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>110.84742289</v>
+        <v>112.10870394</v>
       </c>
       <c r="H11" t="n">
-        <v>110.84742289</v>
+        <v>112.10870394</v>
       </c>
       <c r="I11" t="n">
-        <v>198.30578896</v>
+        <v>148.55098735</v>
       </c>
       <c r="J11" t="n">
-        <v>198.30578896</v>
+        <v>148.55098735</v>
       </c>
       <c r="K11" t="n">
-        <v>469.39609524</v>
+        <v>299.32745766</v>
       </c>
       <c r="L11" t="n">
-        <v>469.39609524</v>
+        <v>299.32745766</v>
       </c>
       <c r="M11" t="n">
-        <v>398.83910714</v>
+        <v>385.28673686</v>
       </c>
       <c r="N11" t="n">
-        <v>398.83910714</v>
+        <v>385.28673686</v>
       </c>
       <c r="O11" t="n">
-        <v>1177.38841423</v>
+        <v>945.27388582</v>
       </c>
       <c r="P11" t="n">
-        <v>1177.38841423</v>
+        <v>945.27388582</v>
       </c>
       <c r="Q11" t="n">
-        <v>83.61587815999999</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>83.61587815999999</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>57.97144799</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>57.97144799</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>88.37722187</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>88.37722187</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>1407.35296225</v>
+        <v>945.27388582</v>
       </c>
       <c r="X11" t="n">
-        <v>1407.35296225</v>
+        <v>945.27388582</v>
       </c>
       <c r="Y11" t="n">
-        <v>-0.09240589</v>
+        <v>-0.38152105</v>
       </c>
       <c r="Z11" t="n">
-        <v>-0.21909557</v>
+        <v>-0.3107113</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0.16170926</v>
+        <v>-0.55779039</v>
       </c>
       <c r="AB11" t="n">
-        <v>-0.23280334</v>
+        <v>-0.38989078</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.19129124</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>0.68453071</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>-0.53817122</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>0.12858973</v>
-      </c>
+        <v>-0.44564361</v>
+      </c>
+      <c r="AD11" t="inlineStr"/>
+      <c r="AE11" t="inlineStr"/>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="n">
-        <v>-0.17667737</v>
+        <v>-0.44564361</v>
       </c>
       <c r="AH11" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AI11" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AJ11" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AK11" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AL11" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AM11" t="n">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AN11" t="n">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="AO11" t="n">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="AP11" t="n">
-        <v>209</v>
+        <v>227</v>
       </c>
       <c r="AQ11" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AT11" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AU11" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AV11" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AW11" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AX11" t="n">
-        <v>269</v>
+        <v>227</v>
       </c>
       <c r="AY11" t="n">
-        <v>269</v>
+        <v>227</v>
       </c>
       <c r="AZ11" t="n">
-        <v>0.14285714</v>
+        <v>-0.31914894</v>
       </c>
       <c r="BA11" t="n">
-        <v>-0.18604651</v>
+        <v>-0.26086957</v>
       </c>
       <c r="BB11" t="n">
-        <v>-0.2</v>
+        <v>-0.56790123</v>
       </c>
       <c r="BC11" t="n">
-        <v>-0.21348315</v>
+        <v>-0.34532374</v>
       </c>
       <c r="BD11" t="n">
-        <v>-0.17391304</v>
-      </c>
-      <c r="BE11" t="n">
-        <v>0.11764706</v>
-      </c>
-      <c r="BF11" t="n">
-        <v>-0.55319149</v>
-      </c>
-      <c r="BG11" t="n">
-        <v>-0.16666667</v>
-      </c>
+        <v>-0.42385787</v>
+      </c>
+      <c r="BE11" t="inlineStr"/>
+      <c r="BF11" t="inlineStr"/>
+      <c r="BG11" t="inlineStr"/>
       <c r="BH11" t="n">
-        <v>-0.2111437</v>
+        <v>-0.42385787</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" t="n">
         <v>1004437</v>
@@ -2473,7 +2505,7 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>DC Liga de Super Mascotas</t>
+          <t>After Amor Infinito</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2487,183 +2519,147 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>42.4901199</v>
+        <v>125.96233534</v>
       </c>
       <c r="H12" t="n">
-        <v>42.4901199</v>
+        <v>125.96233534</v>
       </c>
       <c r="I12" t="n">
-        <v>143.75916714</v>
+        <v>251.42393702</v>
       </c>
       <c r="J12" t="n">
-        <v>143.75916714</v>
+        <v>251.42393702</v>
       </c>
       <c r="K12" t="n">
-        <v>657.39956155</v>
+        <v>244.21893595</v>
       </c>
       <c r="L12" t="n">
-        <v>657.39956155</v>
+        <v>244.21893595</v>
       </c>
       <c r="M12" t="n">
-        <v>405.29894188</v>
+        <v>309.73159049</v>
       </c>
       <c r="N12" t="n">
-        <v>405.29894188</v>
+        <v>309.73159049</v>
       </c>
       <c r="O12" t="n">
-        <v>1248.94779048</v>
+        <v>931.33679881</v>
       </c>
       <c r="P12" t="n">
-        <v>1248.94779048</v>
+        <v>931.33679881</v>
       </c>
       <c r="Q12" t="n">
-        <v>18.0429867</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>18.0429867</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>47.11224304</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>47.11224304</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>52.79244255</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>52.79244255</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>1366.89546277</v>
+        <v>931.33679881</v>
       </c>
       <c r="X12" t="n">
-        <v>1366.89546277</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>-0.70649724</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>-0.50390439</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>0.07242617</v>
-      </c>
-      <c r="AB12" t="n">
-        <v>-0.51729342</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>-0.33819736</v>
-      </c>
-      <c r="AD12" t="n">
-        <v>-0.69919387</v>
-      </c>
-      <c r="AE12" t="n">
-        <v>-0.4280249</v>
-      </c>
-      <c r="AF12" t="n">
-        <v>0.14640962</v>
-      </c>
-      <c r="AG12" t="n">
-        <v>-0.34144268</v>
-      </c>
+        <v>931.33679881</v>
+      </c>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
+      <c r="AA12" t="inlineStr"/>
+      <c r="AB12" t="inlineStr"/>
+      <c r="AC12" t="inlineStr"/>
+      <c r="AD12" t="inlineStr"/>
+      <c r="AE12" t="inlineStr"/>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="inlineStr"/>
       <c r="AH12" t="n">
-        <v>8</v>
+        <v>114</v>
       </c>
       <c r="AI12" t="n">
-        <v>8</v>
+        <v>114</v>
       </c>
       <c r="AJ12" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="AK12" t="n">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="AL12" t="n">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="AM12" t="n">
-        <v>115</v>
+        <v>41</v>
       </c>
       <c r="AN12" t="n">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="AO12" t="n">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="AP12" t="n">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="AQ12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AT12" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AU12" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AV12" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AW12" t="n">
-        <v>8</v>
+        <v>114</v>
       </c>
       <c r="AX12" t="n">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="AY12" t="n">
-        <v>261</v>
-      </c>
-      <c r="AZ12" t="n">
-        <v>-0.71428571</v>
-      </c>
-      <c r="BA12" t="n">
-        <v>-0.58333333</v>
-      </c>
-      <c r="BB12" t="n">
-        <v>0.04545455</v>
-      </c>
-      <c r="BC12" t="n">
-        <v>-0.52531646</v>
-      </c>
-      <c r="BD12" t="n">
-        <v>-0.37359551</v>
-      </c>
-      <c r="BE12" t="n">
-        <v>-0.85</v>
-      </c>
-      <c r="BF12" t="n">
-        <v>-0.36666667</v>
-      </c>
-      <c r="BG12" t="n">
-        <v>-0.05882353</v>
-      </c>
-      <c r="BH12" t="n">
-        <v>-0.38297872</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="AZ12" t="inlineStr"/>
+      <c r="BA12" t="inlineStr"/>
+      <c r="BB12" t="inlineStr"/>
+      <c r="BC12" t="inlineStr"/>
+      <c r="BD12" t="inlineStr"/>
+      <c r="BE12" t="inlineStr"/>
+      <c r="BF12" t="inlineStr"/>
+      <c r="BG12" t="inlineStr"/>
+      <c r="BH12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>1004432</v>
+        <v>1004437</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>BELLO HORIZONTE</t>
+          <t>GALERÍAS</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Minions Nace un Villano</t>
+          <t>DC Liga de Super Mascotas</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
@@ -2677,171 +2673,159 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>73.25786728</v>
+        <v>60.47749935</v>
       </c>
       <c r="H13" t="n">
-        <v>73.25786728</v>
+        <v>60.47749935</v>
       </c>
       <c r="I13" t="n">
-        <v>75.83344794</v>
+        <v>132.05459494</v>
       </c>
       <c r="J13" t="n">
-        <v>75.83344794</v>
+        <v>132.05459494</v>
       </c>
       <c r="K13" t="n">
-        <v>421.89403459</v>
+        <v>353.60142327</v>
       </c>
       <c r="L13" t="n">
-        <v>421.89403459</v>
+        <v>353.60142327</v>
       </c>
       <c r="M13" t="n">
-        <v>533.70876204</v>
+        <v>360.46536908</v>
       </c>
       <c r="N13" t="n">
-        <v>533.70876204</v>
+        <v>360.46536908</v>
       </c>
       <c r="O13" t="n">
-        <v>1104.69411185</v>
+        <v>906.59888663</v>
       </c>
       <c r="P13" t="n">
-        <v>1104.69411185</v>
+        <v>906.59888663</v>
       </c>
       <c r="Q13" t="n">
-        <v>85.75987503</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>85.75987503</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>64.37559451</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>64.37559451</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>90.64651726</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>90.64651726</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>1345.47609865</v>
+        <v>906.59888663</v>
       </c>
       <c r="X13" t="n">
-        <v>1345.47609865</v>
+        <v>906.59888663</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.52687362</v>
+        <v>0.42333087</v>
       </c>
       <c r="Z13" t="n">
-        <v>-0.51631332</v>
+        <v>-0.08141792</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.25947318</v>
+        <v>-0.46212099</v>
       </c>
       <c r="AB13" t="n">
-        <v>0.28947542</v>
+        <v>-0.11061853</v>
       </c>
       <c r="AC13" t="n">
-        <v>0.20680471</v>
-      </c>
-      <c r="AD13" t="n">
-        <v>1.64039982</v>
-      </c>
-      <c r="AE13" t="n">
-        <v>-0.46356324</v>
-      </c>
-      <c r="AF13" t="n">
-        <v>-0.14823251</v>
-      </c>
+        <v>-0.27410986</v>
+      </c>
+      <c r="AD13" t="inlineStr"/>
+      <c r="AE13" t="inlineStr"/>
+      <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="n">
-        <v>0.14577338</v>
+        <v>-0.27410986</v>
       </c>
       <c r="AH13" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AI13" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AJ13" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AK13" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AL13" t="n">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="AM13" t="n">
-        <v>105</v>
+        <v>63</v>
       </c>
       <c r="AN13" t="n">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="AO13" t="n">
-        <v>133</v>
+        <v>70</v>
       </c>
       <c r="AP13" t="n">
-        <v>279</v>
+        <v>172</v>
       </c>
       <c r="AQ13" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AT13" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AU13" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="AV13" t="n">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="AW13" t="n">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="AX13" t="n">
-        <v>383</v>
+        <v>172</v>
       </c>
       <c r="AY13" t="n">
-        <v>383</v>
+        <v>172</v>
       </c>
       <c r="AZ13" t="n">
-        <v>4</v>
+        <v>0.625</v>
       </c>
       <c r="BA13" t="n">
-        <v>-0.55319149</v>
+        <v>0.04</v>
       </c>
       <c r="BB13" t="n">
-        <v>0.16666667</v>
+        <v>-0.45217391</v>
       </c>
       <c r="BC13" t="n">
-        <v>0.25471698</v>
+        <v>-0.06666667</v>
       </c>
       <c r="BD13" t="n">
-        <v>0.12955466</v>
-      </c>
-      <c r="BE13" t="n">
-        <v>1.35714286</v>
-      </c>
-      <c r="BF13" t="n">
-        <v>-0.42307692</v>
-      </c>
-      <c r="BG13" t="n">
-        <v>-0.04651163</v>
-      </c>
+        <v>-0.22869955</v>
+      </c>
+      <c r="BE13" t="inlineStr"/>
+      <c r="BF13" t="inlineStr"/>
+      <c r="BG13" t="inlineStr"/>
       <c r="BH13" t="n">
-        <v>0.0758427</v>
+        <v>-0.22869955</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" t="n">
         <v>1004437</v>
@@ -2853,7 +2837,7 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>El Telefono Negro</t>
+          <t>¡Nop!</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -2867,171 +2851,135 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>168.12276801</v>
+        <v>181.26558682</v>
       </c>
       <c r="H14" t="n">
-        <v>168.12276801</v>
+        <v>181.26558682</v>
       </c>
       <c r="I14" t="n">
-        <v>193.90641875</v>
+        <v>135.47627498</v>
       </c>
       <c r="J14" t="n">
-        <v>193.90641875</v>
+        <v>135.47627498</v>
       </c>
       <c r="K14" t="n">
-        <v>306.20173563</v>
+        <v>196.56578214</v>
       </c>
       <c r="L14" t="n">
-        <v>306.20173563</v>
+        <v>196.56578214</v>
       </c>
       <c r="M14" t="n">
-        <v>344.87721175</v>
+        <v>280.93940474</v>
       </c>
       <c r="N14" t="n">
-        <v>344.87721175</v>
+        <v>280.93940474</v>
       </c>
       <c r="O14" t="n">
-        <v>1013.10813413</v>
+        <v>794.24704868</v>
       </c>
       <c r="P14" t="n">
-        <v>1013.10813413</v>
+        <v>794.24704868</v>
       </c>
       <c r="Q14" t="n">
-        <v>44.4948962</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>44.4948962</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.33260781</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>46.33260781</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>151.86180469</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>151.86180469</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>1255.79744284</v>
+        <v>794.24704868</v>
       </c>
       <c r="X14" t="n">
-        <v>1255.79744284</v>
-      </c>
-      <c r="Y14" t="n">
-        <v>0.54981186</v>
-      </c>
-      <c r="Z14" t="n">
-        <v>-0.06226268</v>
-      </c>
-      <c r="AA14" t="n">
-        <v>-0.09847425999999999</v>
-      </c>
-      <c r="AB14" t="n">
-        <v>0.2754045</v>
-      </c>
-      <c r="AC14" t="n">
-        <v>0.09487901999999999</v>
-      </c>
-      <c r="AD14" t="n">
-        <v>0.3136852</v>
-      </c>
-      <c r="AE14" t="n">
-        <v>-0.61618198</v>
-      </c>
-      <c r="AF14" t="n">
-        <v>0.60713952</v>
-      </c>
-      <c r="AG14" t="n">
-        <v>0.06931668000000001</v>
-      </c>
+        <v>794.24704868</v>
+      </c>
+      <c r="Y14" t="inlineStr"/>
+      <c r="Z14" t="inlineStr"/>
+      <c r="AA14" t="inlineStr"/>
+      <c r="AB14" t="inlineStr"/>
+      <c r="AC14" t="inlineStr"/>
+      <c r="AD14" t="inlineStr"/>
+      <c r="AE14" t="inlineStr"/>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="inlineStr"/>
       <c r="AH14" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AI14" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AJ14" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AK14" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AL14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>32</v>
+      </c>
+      <c r="AN14" t="n">
         <v>51</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AO14" t="n">
         <v>51</v>
       </c>
-      <c r="AN14" t="n">
-        <v>55</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>55</v>
-      </c>
       <c r="AP14" t="n">
-        <v>170</v>
+        <v>135</v>
       </c>
       <c r="AQ14" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AS14" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AT14" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AU14" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AV14" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AW14" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AX14" t="n">
-        <v>247</v>
+        <v>135</v>
       </c>
       <c r="AY14" t="n">
-        <v>247</v>
-      </c>
-      <c r="AZ14" t="n">
-        <v>0.36363636</v>
-      </c>
-      <c r="BA14" t="n">
-        <v>-0.10526316</v>
-      </c>
-      <c r="BB14" t="n">
-        <v>-0.07272727</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>0.22222222</v>
-      </c>
-      <c r="BD14" t="n">
-        <v>0.0625</v>
-      </c>
-      <c r="BE14" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="BF14" t="n">
-        <v>-0.60377358</v>
-      </c>
-      <c r="BG14" t="n">
-        <v>0.72727273</v>
-      </c>
-      <c r="BH14" t="n">
-        <v>-0.012</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="AZ14" t="inlineStr"/>
+      <c r="BA14" t="inlineStr"/>
+      <c r="BB14" t="inlineStr"/>
+      <c r="BC14" t="inlineStr"/>
+      <c r="BD14" t="inlineStr"/>
+      <c r="BE14" t="inlineStr"/>
+      <c r="BF14" t="inlineStr"/>
+      <c r="BG14" t="inlineStr"/>
+      <c r="BH14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" t="n">
         <v>1004432</v>
@@ -3043,7 +2991,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Tren Bala</t>
+          <t>After Amor Infinito</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3057,178 +3005,142 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>102.71694123</v>
+        <v>136.50556085</v>
       </c>
       <c r="H15" t="n">
-        <v>102.71694123</v>
+        <v>136.50556085</v>
       </c>
       <c r="I15" t="n">
-        <v>101.95122806</v>
+        <v>152.25085277</v>
       </c>
       <c r="J15" t="n">
-        <v>101.95122806</v>
+        <v>152.25085277</v>
       </c>
       <c r="K15" t="n">
-        <v>426.40478126</v>
+        <v>223.49412592</v>
       </c>
       <c r="L15" t="n">
-        <v>426.40478126</v>
+        <v>223.49412592</v>
       </c>
       <c r="M15" t="n">
-        <v>342.20417668</v>
+        <v>260.68750983</v>
       </c>
       <c r="N15" t="n">
-        <v>342.20417668</v>
+        <v>260.68750983</v>
       </c>
       <c r="O15" t="n">
-        <v>973.27712724</v>
+        <v>772.93804937</v>
       </c>
       <c r="P15" t="n">
-        <v>973.27712724</v>
+        <v>772.93804937</v>
       </c>
       <c r="Q15" t="n">
-        <v>80.92892104000001</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>80.92892104000001</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>73.00727024</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>73.00727024</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>55.82745112</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>55.82745112</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>1183.04076963</v>
+        <v>772.93804937</v>
       </c>
       <c r="X15" t="n">
-        <v>1183.04076963</v>
-      </c>
-      <c r="Y15" t="n">
-        <v>0.32014844</v>
-      </c>
-      <c r="Z15" t="n">
-        <v>-0.19334659</v>
-      </c>
-      <c r="AA15" t="n">
-        <v>0.5387680500000001</v>
-      </c>
-      <c r="AB15" t="n">
-        <v>0.03970168</v>
-      </c>
-      <c r="AC15" t="n">
-        <v>0.20092464</v>
-      </c>
-      <c r="AD15" t="n">
-        <v>-0.14341063</v>
-      </c>
-      <c r="AE15" t="n">
-        <v>-0.64328884</v>
-      </c>
-      <c r="AF15" t="n">
-        <v>-0.54164488</v>
-      </c>
-      <c r="AG15" t="n">
-        <v>-0.03926019</v>
-      </c>
+        <v>772.93804937</v>
+      </c>
+      <c r="Y15" t="inlineStr"/>
+      <c r="Z15" t="inlineStr"/>
+      <c r="AA15" t="inlineStr"/>
+      <c r="AB15" t="inlineStr"/>
+      <c r="AC15" t="inlineStr"/>
+      <c r="AD15" t="inlineStr"/>
+      <c r="AE15" t="inlineStr"/>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="inlineStr"/>
       <c r="AH15" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AI15" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AJ15" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AK15" t="n">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="AL15" t="n">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="AM15" t="n">
-        <v>92</v>
+        <v>50</v>
       </c>
       <c r="AN15" t="n">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="AO15" t="n">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="AP15" t="n">
-        <v>222</v>
+        <v>168</v>
       </c>
       <c r="AQ15" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AS15" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AT15" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="AU15" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AV15" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AW15" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AX15" t="n">
-        <v>304</v>
+        <v>168</v>
       </c>
       <c r="AY15" t="n">
-        <v>304</v>
-      </c>
-      <c r="AZ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="BA15" t="n">
-        <v>-0.21212121</v>
-      </c>
-      <c r="BB15" t="n">
-        <v>0.48387097</v>
-      </c>
-      <c r="BC15" t="n">
-        <v>0.11267606</v>
-      </c>
-      <c r="BD15" t="n">
-        <v>0.16230366</v>
-      </c>
-      <c r="BE15" t="n">
-        <v>-0.18421053</v>
-      </c>
-      <c r="BF15" t="n">
-        <v>-0.68085106</v>
-      </c>
-      <c r="BG15" t="n">
-        <v>-0.5625</v>
-      </c>
-      <c r="BH15" t="n">
-        <v>-0.18059299</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="AZ15" t="inlineStr"/>
+      <c r="BA15" t="inlineStr"/>
+      <c r="BB15" t="inlineStr"/>
+      <c r="BC15" t="inlineStr"/>
+      <c r="BD15" t="inlineStr"/>
+      <c r="BE15" t="inlineStr"/>
+      <c r="BF15" t="inlineStr"/>
+      <c r="BG15" t="inlineStr"/>
+      <c r="BH15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B16" t="n">
-        <v>1004437</v>
+        <v>1004434</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>GALERÍAS</t>
+          <t>Metrocentro Managua</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -3243,183 +3155,167 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Cinemas</t>
+          <t>Cinemark</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>54.52433244</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>54.52433244</v>
       </c>
       <c r="I16" t="n">
-        <v>153.1704781</v>
+        <v>105.71044044</v>
       </c>
       <c r="J16" t="n">
-        <v>153.1704781</v>
+        <v>105.71044044</v>
       </c>
       <c r="K16" t="n">
-        <v>366.06658347</v>
+        <v>211.69906625</v>
       </c>
       <c r="L16" t="n">
-        <v>366.06658347</v>
+        <v>211.69906625</v>
       </c>
       <c r="M16" t="n">
-        <v>442.02532993</v>
+        <v>376.38480504</v>
       </c>
       <c r="N16" t="n">
-        <v>442.02532993</v>
+        <v>376.38480504</v>
       </c>
       <c r="O16" t="n">
-        <v>961.2623914999999</v>
+        <v>748.31864416</v>
       </c>
       <c r="P16" t="n">
-        <v>961.2623915</v>
+        <v>748.31864416</v>
       </c>
       <c r="Q16" t="n">
-        <v>42.93562575</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>42.93562575</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>92.97150089</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>92.97150089</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>74.87282596</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>74.87282596</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>1172.0423441</v>
+        <v>748.31864416</v>
       </c>
       <c r="X16" t="n">
-        <v>1172.0423441</v>
+        <v>748.31864416</v>
       </c>
       <c r="Y16" t="inlineStr"/>
-      <c r="Z16" t="n">
-        <v>-0.17345124</v>
-      </c>
+      <c r="Z16" t="inlineStr"/>
       <c r="AA16" t="n">
-        <v>0.18873203</v>
+        <v>1.59488371</v>
       </c>
       <c r="AB16" t="n">
-        <v>-0.38717134</v>
+        <v>4.77673974</v>
       </c>
       <c r="AC16" t="n">
-        <v>-0.2085427</v>
-      </c>
-      <c r="AD16" t="n">
-        <v>-0.5776816</v>
-      </c>
-      <c r="AE16" t="n">
-        <v>0.55070606</v>
-      </c>
-      <c r="AF16" t="n">
-        <v>-0.10250638</v>
-      </c>
+        <v>3.00770024</v>
+      </c>
+      <c r="AD16" t="inlineStr"/>
+      <c r="AE16" t="inlineStr"/>
+      <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="n">
-        <v>-0.19700716</v>
+        <v>3.00770024</v>
       </c>
       <c r="AH16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ16" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AK16" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="AL16" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AM16" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN16" t="n">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AO16" t="n">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="AP16" t="n">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="AQ16" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AR16" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AT16" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AU16" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AV16" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AW16" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AX16" t="n">
-        <v>241</v>
+        <v>183</v>
       </c>
       <c r="AY16" t="n">
-        <v>241</v>
+        <v>183</v>
       </c>
       <c r="AZ16" t="inlineStr"/>
-      <c r="BA16" t="n">
-        <v>-0.15625</v>
-      </c>
+      <c r="BA16" t="inlineStr"/>
       <c r="BB16" t="n">
-        <v>0.26415094</v>
+        <v>1.2173913</v>
       </c>
       <c r="BC16" t="n">
-        <v>-0.38167939</v>
+        <v>4.16666667</v>
       </c>
       <c r="BD16" t="n">
-        <v>-0.18981481</v>
-      </c>
-      <c r="BE16" t="n">
-        <v>-0.51851852</v>
-      </c>
-      <c r="BF16" t="n">
-        <v>0.45833333</v>
-      </c>
-      <c r="BG16" t="n">
-        <v>-0.14285714</v>
-      </c>
+        <v>2.51219512</v>
+      </c>
+      <c r="BE16" t="inlineStr"/>
+      <c r="BF16" t="inlineStr"/>
+      <c r="BG16" t="inlineStr"/>
       <c r="BH16" t="n">
-        <v>-0.16319444</v>
+        <v>2.51219512</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B17" t="n">
-        <v>1004437</v>
+        <v>1004434</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>GALERÍAS</t>
+          <t>Metrocentro Managua</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Bestia</t>
+          <t>DC Liga de Super Mascotas</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -3429,187 +3325,175 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Cinemas</t>
+          <t>Cinemark</t>
         </is>
       </c>
       <c r="G17" t="n">
-        <v>69.27615879</v>
+        <v>53.13340559</v>
       </c>
       <c r="H17" t="n">
-        <v>69.27615879</v>
+        <v>53.13340559</v>
       </c>
       <c r="I17" t="n">
-        <v>104.54741337</v>
+        <v>89.29750362999999</v>
       </c>
       <c r="J17" t="n">
-        <v>104.54741337</v>
+        <v>89.29750362999999</v>
       </c>
       <c r="K17" t="n">
-        <v>186.49988408</v>
+        <v>201.68439294</v>
       </c>
       <c r="L17" t="n">
-        <v>186.49988408</v>
+        <v>201.68439294</v>
       </c>
       <c r="M17" t="n">
-        <v>60.36604191</v>
+        <v>349.12263882</v>
       </c>
       <c r="N17" t="n">
-        <v>60.36604191</v>
+        <v>349.12263882</v>
       </c>
       <c r="O17" t="n">
-        <v>420.68949816</v>
+        <v>693.23794099</v>
       </c>
       <c r="P17" t="n">
-        <v>420.68949816</v>
+        <v>693.23794099</v>
       </c>
       <c r="Q17" t="n">
-        <v>65.71211203999999</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71211203999999</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>398.72773068</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>398.72773068</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>72.25547913</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>72.25547913</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>957.3848200099999</v>
+        <v>693.23794099</v>
       </c>
       <c r="X17" t="n">
-        <v>957.38482001</v>
+        <v>693.23794099</v>
       </c>
       <c r="Y17" t="n">
-        <v>-0.44067789</v>
+        <v>-0.63302973</v>
       </c>
       <c r="Z17" t="n">
-        <v>-0.38646215</v>
+        <v>-0.26779653</v>
       </c>
       <c r="AA17" t="n">
-        <v>-0.5381399100000001</v>
+        <v>-0.26388821</v>
       </c>
       <c r="AB17" t="n">
-        <v>-0.79879447</v>
+        <v>-0.38747087</v>
       </c>
       <c r="AC17" t="n">
-        <v>-0.57850196</v>
-      </c>
-      <c r="AD17" t="n">
-        <v>-0.16381636</v>
-      </c>
-      <c r="AE17" t="n">
-        <v>5.05512538</v>
-      </c>
-      <c r="AF17" t="n">
-        <v>-0.38833353</v>
-      </c>
+        <v>-0.37585591</v>
+      </c>
+      <c r="AD17" t="inlineStr"/>
+      <c r="AE17" t="inlineStr"/>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="n">
-        <v>-0.24056014</v>
+        <v>-0.37585591</v>
       </c>
       <c r="AH17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AI17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AJ17" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AK17" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="AL17" t="n">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="AM17" t="n">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="AN17" t="n">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="AO17" t="n">
-        <v>11</v>
+        <v>85</v>
       </c>
       <c r="AP17" t="n">
-        <v>72</v>
+        <v>177</v>
       </c>
       <c r="AQ17" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AS17" t="n">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="AT17" t="n">
-        <v>185</v>
+        <v>0</v>
       </c>
       <c r="AU17" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AV17" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="AW17" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AX17" t="n">
-        <v>295</v>
+        <v>177</v>
       </c>
       <c r="AY17" t="n">
-        <v>295</v>
+        <v>177</v>
       </c>
       <c r="AZ17" t="n">
-        <v>-0.35</v>
+        <v>-0.625</v>
       </c>
       <c r="BA17" t="n">
-        <v>-0.37931034</v>
+        <v>-0.16666667</v>
       </c>
       <c r="BB17" t="n">
-        <v>-0.55223881</v>
+        <v>-0.21212121</v>
       </c>
       <c r="BC17" t="n">
-        <v>-0.7755102</v>
+        <v>-0.40972222</v>
       </c>
       <c r="BD17" t="n">
-        <v>-0.5636363599999999</v>
-      </c>
-      <c r="BE17" t="n">
-        <v>0.21428571</v>
-      </c>
-      <c r="BF17" t="n">
-        <v>7.04347826</v>
-      </c>
-      <c r="BG17" t="n">
-        <v>0.05</v>
-      </c>
+        <v>-0.36785714</v>
+      </c>
+      <c r="BE17" t="inlineStr"/>
+      <c r="BF17" t="inlineStr"/>
+      <c r="BG17" t="inlineStr"/>
       <c r="BH17" t="n">
-        <v>0.32882883</v>
+        <v>-0.36785714</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B18" t="n">
-        <v>1004432</v>
+        <v>1004434</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>BELLO HORIZONTE</t>
+          <t>Metrocentro Managua</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Bestia</t>
+          <t>Thor Amor y Trueno</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
@@ -3619,170 +3503,158 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Cinemas</t>
+          <t>Cinemark</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>119.01967073</v>
+        <v>101.25947453</v>
       </c>
       <c r="H18" t="n">
-        <v>119.01967073</v>
+        <v>101.25947453</v>
       </c>
       <c r="I18" t="n">
-        <v>54.85290707999999</v>
+        <v>10.0146733</v>
       </c>
       <c r="J18" t="n">
-        <v>54.85290708</v>
+        <v>10.0146733</v>
       </c>
       <c r="K18" t="n">
-        <v>159.90875401</v>
+        <v>260.38150592</v>
       </c>
       <c r="L18" t="n">
-        <v>159.90875401</v>
+        <v>260.38150592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.83112901</v>
+        <v>321.30410186</v>
       </c>
       <c r="N18" t="n">
-        <v>383.83112901</v>
+        <v>321.30410186</v>
       </c>
       <c r="O18" t="n">
-        <v>717.61246082</v>
+        <v>692.95975561</v>
       </c>
       <c r="P18" t="n">
-        <v>717.61246082</v>
+        <v>692.95975561</v>
       </c>
       <c r="Q18" t="n">
-        <v>16.42802801</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>16.42802801</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>82.80839881999999</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>82.80839881999999</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>64.59834743</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>64.59834743</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>881.44723507</v>
+        <v>692.95975561</v>
       </c>
       <c r="X18" t="n">
-        <v>881.44723507</v>
+        <v>692.95975561</v>
       </c>
       <c r="Y18" t="n">
-        <v>-0.28997458</v>
+        <v>0.35696127</v>
       </c>
       <c r="Z18" t="n">
-        <v>-0.18422245</v>
+        <v>-0.76022047</v>
       </c>
       <c r="AA18" t="n">
-        <v>-0.27117438</v>
+        <v>2.12755909</v>
       </c>
       <c r="AB18" t="n">
-        <v>0.88254833</v>
+        <v>1.07542983</v>
       </c>
       <c r="AC18" t="n">
-        <v>0.09032709999999999</v>
-      </c>
-      <c r="AD18" t="n">
-        <v>-0.68559673</v>
-      </c>
-      <c r="AE18" t="n">
-        <v>0.38247436</v>
-      </c>
-      <c r="AF18" t="n">
-        <v>-0.23206506</v>
-      </c>
+        <v>0.95499741</v>
+      </c>
+      <c r="AD18" t="inlineStr"/>
+      <c r="AE18" t="inlineStr"/>
+      <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="n">
-        <v>0.03161748</v>
+        <v>0.95499741</v>
       </c>
       <c r="AH18" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AI18" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AJ18" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="AK18" t="n">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="AL18" t="n">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="AM18" t="n">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="AN18" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="AO18" t="n">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="AP18" t="n">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="AQ18" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AR18" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AT18" t="n">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="AU18" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AV18" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AW18" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AX18" t="n">
-        <v>255</v>
+        <v>173</v>
       </c>
       <c r="AY18" t="n">
-        <v>255</v>
+        <v>173</v>
       </c>
       <c r="AZ18" t="n">
-        <v>-0.15789474</v>
+        <v>0.52941176</v>
       </c>
       <c r="BA18" t="n">
-        <v>0.0625</v>
+        <v>-0.6</v>
       </c>
       <c r="BB18" t="n">
-        <v>-0.25</v>
+        <v>2.15789474</v>
       </c>
       <c r="BC18" t="n">
-        <v>1.08888889</v>
+        <v>1.37142857</v>
       </c>
       <c r="BD18" t="n">
-        <v>0.20529801</v>
-      </c>
-      <c r="BE18" t="n">
-        <v>-0.5</v>
-      </c>
-      <c r="BF18" t="n">
-        <v>0.52</v>
-      </c>
-      <c r="BG18" t="n">
-        <v>0.52631579</v>
-      </c>
+        <v>1.13580247</v>
+      </c>
+      <c r="BE18" t="inlineStr"/>
+      <c r="BF18" t="inlineStr"/>
+      <c r="BG18" t="inlineStr"/>
       <c r="BH18" t="n">
-        <v>0.23188406</v>
+        <v>1.13580247</v>
       </c>
     </row>
     <row r="19">
@@ -3790,16 +3662,16 @@
         <v>20</v>
       </c>
       <c r="B19" t="n">
-        <v>1004437</v>
+        <v>1004432</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>GALERÍAS</t>
+          <t>BELLO HORIZONTE</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Elvis</t>
+          <t>Minions Nace un Villano</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
@@ -3813,166 +3685,154 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>79.74554614</v>
+        <v>50.37937043</v>
       </c>
       <c r="H19" t="n">
-        <v>79.74554614</v>
+        <v>50.37937043</v>
       </c>
       <c r="I19" t="n">
-        <v>118.78299575</v>
+        <v>74.95704782999999</v>
       </c>
       <c r="J19" t="n">
-        <v>118.78299575</v>
+        <v>74.95704782999999</v>
       </c>
       <c r="K19" t="n">
-        <v>197.74890665</v>
+        <v>301.66421477</v>
       </c>
       <c r="L19" t="n">
-        <v>197.74890665</v>
+        <v>301.66421477</v>
       </c>
       <c r="M19" t="n">
-        <v>251.65511382</v>
+        <v>219.84989758</v>
       </c>
       <c r="N19" t="n">
-        <v>251.65511382</v>
+        <v>219.84989758</v>
       </c>
       <c r="O19" t="n">
-        <v>647.93256236</v>
+        <v>646.85053061</v>
       </c>
       <c r="P19" t="n">
-        <v>647.93256236</v>
+        <v>646.85053061</v>
       </c>
       <c r="Q19" t="n">
-        <v>68.71927649</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>68.71927649</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>72.95158201</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>72.95158201</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>76.29287583999999</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>76.29287583999999</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>865.8962967</v>
+        <v>646.85053061</v>
       </c>
       <c r="X19" t="n">
-        <v>865.8962967</v>
+        <v>646.85053061</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.82889501</v>
+        <v>-0.31230089</v>
       </c>
       <c r="Z19" t="n">
-        <v>-0.25764299</v>
+        <v>-0.01155691</v>
       </c>
       <c r="AA19" t="n">
-        <v>-0.22468454</v>
+        <v>-0.28497634</v>
       </c>
       <c r="AB19" t="n">
-        <v>-0.36352553</v>
+        <v>-0.58807141</v>
       </c>
       <c r="AC19" t="n">
-        <v>-0.24134676</v>
-      </c>
-      <c r="AD19" t="n">
-        <v>0.06287947000000001</v>
-      </c>
-      <c r="AE19" t="n">
-        <v>-0.3074468</v>
-      </c>
-      <c r="AF19" t="n">
-        <v>-0.29724722</v>
-      </c>
+        <v>-0.41445281</v>
+      </c>
+      <c r="AD19" t="inlineStr"/>
+      <c r="AE19" t="inlineStr"/>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="n">
-        <v>-0.23548605</v>
+        <v>-0.41445281</v>
       </c>
       <c r="AH19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ19" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AK19" t="n">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="AL19" t="n">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="AM19" t="n">
-        <v>36</v>
+        <v>75</v>
       </c>
       <c r="AN19" t="n">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="AO19" t="n">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="AP19" t="n">
-        <v>114</v>
+        <v>176</v>
       </c>
       <c r="AQ19" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AR19" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AS19" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AT19" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="AU19" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AV19" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AW19" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AX19" t="n">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="AY19" t="n">
-        <v>186</v>
+        <v>176</v>
       </c>
       <c r="AZ19" t="n">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="BA19" t="n">
+        <v>0.19047619</v>
+      </c>
+      <c r="BB19" t="n">
         <v>-0.28571429</v>
       </c>
-      <c r="BB19" t="n">
-        <v>-0.14285714</v>
-      </c>
       <c r="BC19" t="n">
-        <v>-0.37313433</v>
+        <v>-0.54135338</v>
       </c>
       <c r="BD19" t="n">
-        <v>-0.2137931</v>
-      </c>
-      <c r="BE19" t="n">
-        <v>0.11764706</v>
-      </c>
-      <c r="BF19" t="n">
-        <v>-0.19444444</v>
-      </c>
-      <c r="BG19" t="n">
-        <v>-0.29411765</v>
-      </c>
+        <v>-0.36917563</v>
+      </c>
+      <c r="BE19" t="inlineStr"/>
+      <c r="BF19" t="inlineStr"/>
+      <c r="BG19" t="inlineStr"/>
       <c r="BH19" t="n">
-        <v>-0.19827586</v>
+        <v>-0.36917563</v>
       </c>
     </row>
     <row r="20">
@@ -3980,16 +3840,16 @@
         <v>21</v>
       </c>
       <c r="B20" t="n">
-        <v>1004437</v>
+        <v>1004432</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>GALERÍAS</t>
+          <t>BELLO HORIZONTE</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Top Gun Maverick</t>
+          <t>Escalera al Infierno</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -4003,166 +3863,154 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>19.21243954</v>
+        <v>95.08375932</v>
       </c>
       <c r="H20" t="n">
-        <v>19.21243954</v>
+        <v>95.08375932</v>
       </c>
       <c r="I20" t="n">
-        <v>53.57207779</v>
+        <v>68.15541555</v>
       </c>
       <c r="J20" t="n">
-        <v>53.57207779</v>
+        <v>68.15541555</v>
       </c>
       <c r="K20" t="n">
-        <v>433.9505365</v>
+        <v>250.86756628</v>
       </c>
       <c r="L20" t="n">
-        <v>433.9505365</v>
+        <v>250.86756628</v>
       </c>
       <c r="M20" t="n">
-        <v>121.59525139</v>
+        <v>199.59800267</v>
       </c>
       <c r="N20" t="n">
-        <v>121.59525139</v>
+        <v>199.59800267</v>
       </c>
       <c r="O20" t="n">
-        <v>628.3303052</v>
+        <v>613.70474382</v>
       </c>
       <c r="P20" t="n">
-        <v>628.3303052</v>
+        <v>613.70474382</v>
       </c>
       <c r="Q20" t="n">
-        <v>91.07810104999999</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>91.07810105</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>17.87592201</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>17.87592201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>112.76866684</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>112.76866684</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>850.0529951</v>
+        <v>613.70474382</v>
       </c>
       <c r="X20" t="n">
-        <v>850.0529951</v>
+        <v>613.70474382</v>
       </c>
       <c r="Y20" t="n">
-        <v>-0.21310571</v>
+        <v>2.55440612</v>
       </c>
       <c r="Z20" t="n">
-        <v>-0.45363285</v>
+        <v>-0.00091863</v>
       </c>
       <c r="AA20" t="n">
-        <v>2.37774338</v>
+        <v>1.34018593</v>
       </c>
       <c r="AB20" t="n">
-        <v>-0.28199458</v>
+        <v>0.86289212</v>
       </c>
       <c r="AC20" t="n">
-        <v>0.49498552</v>
-      </c>
-      <c r="AD20" t="n">
-        <v>2.46585633</v>
-      </c>
-      <c r="AE20" t="n">
-        <v>-0.53819608</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>7.81574485</v>
-      </c>
+        <v>0.98408948</v>
+      </c>
+      <c r="AD20" t="inlineStr"/>
+      <c r="AE20" t="inlineStr"/>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="n">
-        <v>0.70668969</v>
+        <v>0.98408948</v>
       </c>
       <c r="AH20" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="AI20" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="AJ20" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AK20" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AL20" t="n">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="AM20" t="n">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="AN20" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AO20" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AP20" t="n">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="AQ20" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AR20" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AT20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AU20" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AV20" t="n">
-        <v>26</v>
+        <v>0</v>
       </c>
       <c r="AW20" t="n">
-        <v>3</v>
+        <v>22</v>
       </c>
       <c r="AX20" t="n">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="AY20" t="n">
-        <v>174</v>
+        <v>131</v>
       </c>
       <c r="AZ20" t="n">
-        <v>-0.4</v>
+        <v>1.44444444</v>
       </c>
       <c r="BA20" t="n">
-        <v>-0.35</v>
+        <v>0.14285714</v>
       </c>
       <c r="BB20" t="n">
-        <v>2.71428571</v>
+        <v>1.36363636</v>
       </c>
       <c r="BC20" t="n">
-        <v>-0.07142857</v>
+        <v>0.86363636</v>
       </c>
       <c r="BD20" t="n">
-        <v>0.62162162</v>
-      </c>
-      <c r="BE20" t="n">
-        <v>1.09090909</v>
-      </c>
-      <c r="BF20" t="n">
-        <v>-0.66666667</v>
-      </c>
-      <c r="BG20" t="n">
-        <v>12</v>
-      </c>
+        <v>0.95522388</v>
+      </c>
+      <c r="BE20" t="inlineStr"/>
+      <c r="BF20" t="inlineStr"/>
+      <c r="BG20" t="inlineStr"/>
       <c r="BH20" t="n">
-        <v>0.70588235</v>
+        <v>0.95522388</v>
       </c>
     </row>
     <row r="21">
@@ -4170,16 +4018,16 @@
         <v>22</v>
       </c>
       <c r="B21" t="n">
-        <v>1004436</v>
+        <v>1004434</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>PLAZA INTER</t>
+          <t>Metrocentro Managua</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Tren Bala</t>
+          <t>After Amor Infinito</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -4189,187 +4037,151 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Cinemas</t>
+          <t>Cinemark</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>51.9571191</v>
+        <v>66.7644887</v>
       </c>
       <c r="H21" t="n">
-        <v>51.9571191</v>
+        <v>66.7644887</v>
       </c>
       <c r="I21" t="n">
-        <v>46.72242542</v>
+        <v>109.04866488</v>
       </c>
       <c r="J21" t="n">
-        <v>46.72242542</v>
+        <v>109.04866488</v>
       </c>
       <c r="K21" t="n">
-        <v>174.08140867</v>
+        <v>285.97455992</v>
       </c>
       <c r="L21" t="n">
-        <v>174.08140867</v>
+        <v>285.97455992</v>
       </c>
       <c r="M21" t="n">
-        <v>361.44446033</v>
+        <v>131.02530907</v>
       </c>
       <c r="N21" t="n">
-        <v>361.44446033</v>
+        <v>131.02530907</v>
       </c>
       <c r="O21" t="n">
-        <v>634.20541353</v>
+        <v>592.81302257</v>
       </c>
       <c r="P21" t="n">
-        <v>634.20541353</v>
+        <v>592.81302257</v>
       </c>
       <c r="Q21" t="n">
-        <v>42.10030229</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>42.10030229</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>98.28972691</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>98.28972691</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>70.02794991</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>70.02794991</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>844.62339263</v>
+        <v>592.81302257</v>
       </c>
       <c r="X21" t="n">
-        <v>844.62339263</v>
-      </c>
-      <c r="Y21" t="n">
-        <v>-0.22728888</v>
-      </c>
-      <c r="Z21" t="n">
-        <v>-0.57453225</v>
-      </c>
-      <c r="AA21" t="n">
-        <v>0.08909064999999999</v>
-      </c>
-      <c r="AB21" t="n">
-        <v>0.65788311</v>
-      </c>
-      <c r="AC21" t="n">
-        <v>0.14289573</v>
-      </c>
-      <c r="AD21" t="n">
-        <v>-0.3929602</v>
-      </c>
-      <c r="AE21" t="n">
-        <v>0.16652459</v>
-      </c>
-      <c r="AF21" t="n">
-        <v>0.46155288</v>
-      </c>
-      <c r="AG21" t="n">
-        <v>0.11658211</v>
-      </c>
+        <v>592.81302257</v>
+      </c>
+      <c r="Y21" t="inlineStr"/>
+      <c r="Z21" t="inlineStr"/>
+      <c r="AA21" t="inlineStr"/>
+      <c r="AB21" t="inlineStr"/>
+      <c r="AC21" t="inlineStr"/>
+      <c r="AD21" t="inlineStr"/>
+      <c r="AE21" t="inlineStr"/>
+      <c r="AF21" t="inlineStr"/>
+      <c r="AG21" t="inlineStr"/>
       <c r="AH21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AI21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AJ21" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AK21" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="AL21" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="AM21" t="n">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="AN21" t="n">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="AO21" t="n">
-        <v>85</v>
+        <v>29</v>
       </c>
       <c r="AP21" t="n">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="AQ21" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AR21" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="AT21" t="n">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="AU21" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AV21" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AW21" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AX21" t="n">
-        <v>234</v>
+        <v>139</v>
       </c>
       <c r="AY21" t="n">
-        <v>234</v>
-      </c>
-      <c r="AZ21" t="n">
-        <v>-0.05555556</v>
-      </c>
-      <c r="BA21" t="n">
-        <v>-0.61290323</v>
-      </c>
-      <c r="BB21" t="n">
-        <v>-0.02564103</v>
-      </c>
-      <c r="BC21" t="n">
-        <v>0.54545455</v>
-      </c>
-      <c r="BD21" t="n">
-        <v>0.06293706</v>
-      </c>
-      <c r="BE21" t="n">
-        <v>-0.32142857</v>
-      </c>
-      <c r="BF21" t="n">
-        <v>0.08333333</v>
-      </c>
-      <c r="BG21" t="n">
-        <v>0.26315789</v>
-      </c>
-      <c r="BH21" t="n">
-        <v>0.03539823</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="AZ21" t="inlineStr"/>
+      <c r="BA21" t="inlineStr"/>
+      <c r="BB21" t="inlineStr"/>
+      <c r="BC21" t="inlineStr"/>
+      <c r="BD21" t="inlineStr"/>
+      <c r="BE21" t="inlineStr"/>
+      <c r="BF21" t="inlineStr"/>
+      <c r="BG21" t="inlineStr"/>
+      <c r="BH21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>23</v>
       </c>
       <c r="B22" t="n">
-        <v>1004436</v>
+        <v>1004437</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PLAZA INTER</t>
+          <t>GALERÍAS</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Minions Nace un Villano</t>
+          <t>Escalera al Infierno</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -4383,166 +4195,150 @@
         </is>
       </c>
       <c r="G22" t="n">
-        <v>32.18779725</v>
+        <v>51.186108</v>
       </c>
       <c r="H22" t="n">
-        <v>32.18779725</v>
+        <v>51.186108</v>
       </c>
       <c r="I22" t="n">
-        <v>85.23083683999999</v>
+        <v>80.06174935999999</v>
       </c>
       <c r="J22" t="n">
-        <v>85.23083683999999</v>
+        <v>80.06174935999999</v>
       </c>
       <c r="K22" t="n">
-        <v>198.97404773</v>
+        <v>185.403316</v>
       </c>
       <c r="L22" t="n">
-        <v>198.97404773</v>
+        <v>185.403316</v>
       </c>
       <c r="M22" t="n">
-        <v>312.18822042</v>
+        <v>275.12533051</v>
       </c>
       <c r="N22" t="n">
-        <v>312.18822042</v>
+        <v>275.12533051</v>
       </c>
       <c r="O22" t="n">
-        <v>628.58090224</v>
+        <v>591.77650388</v>
       </c>
       <c r="P22" t="n">
-        <v>628.58090224</v>
+        <v>591.77650388</v>
       </c>
       <c r="Q22" t="n">
-        <v>23.05492744</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>23.05492744</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>60.31035368</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>60.31035368</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>56.21726873</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>56.21726873</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>768.1634521</v>
+        <v>591.77650388</v>
       </c>
       <c r="X22" t="n">
-        <v>768.1634521</v>
+        <v>591.77650388</v>
       </c>
       <c r="Y22" t="n">
-        <v>-0.0418076</v>
+        <v>-0.27339536</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.03511057</v>
+        <v>-0.41888517</v>
       </c>
       <c r="AA22" t="n">
-        <v>-0.16126476</v>
-      </c>
-      <c r="AB22" t="n">
-        <v>0.25520054</v>
-      </c>
+        <v>0.05692343</v>
+      </c>
+      <c r="AB22" t="inlineStr"/>
       <c r="AC22" t="n">
-        <v>0.04436439</v>
-      </c>
-      <c r="AD22" t="n">
-        <v>-0.67677512</v>
-      </c>
-      <c r="AE22" t="n">
-        <v>1.58190933</v>
-      </c>
-      <c r="AF22" t="n">
-        <v>-0.07094966</v>
-      </c>
+        <v>-0.17460564</v>
+      </c>
+      <c r="AD22" t="inlineStr"/>
+      <c r="AE22" t="inlineStr"/>
+      <c r="AF22" t="inlineStr"/>
       <c r="AG22" t="n">
-        <v>0.01464507</v>
+        <v>-0.17460564</v>
       </c>
       <c r="AH22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AJ22" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="AK22" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="AL22" t="n">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="AM22" t="n">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="AN22" t="n">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="AO22" t="n">
-        <v>78</v>
+        <v>43</v>
       </c>
       <c r="AP22" t="n">
-        <v>166</v>
+        <v>96</v>
       </c>
       <c r="AQ22" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AR22" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AT22" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AU22" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AV22" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AW22" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX22" t="n">
-        <v>218</v>
+        <v>96</v>
       </c>
       <c r="AY22" t="n">
-        <v>218</v>
+        <v>96</v>
       </c>
       <c r="AZ22" t="n">
-        <v>0.11111111</v>
+        <v>-0.18181818</v>
       </c>
       <c r="BA22" t="n">
-        <v>0.04166667</v>
+        <v>-0.43478261</v>
       </c>
       <c r="BB22" t="n">
-        <v>-0.11666667</v>
-      </c>
-      <c r="BC22" t="n">
-        <v>0.11428571</v>
-      </c>
+        <v>0.10714286</v>
+      </c>
+      <c r="BC22" t="inlineStr"/>
       <c r="BD22" t="n">
-        <v>0.01840491</v>
-      </c>
-      <c r="BE22" t="n">
-        <v>-0.64285714</v>
-      </c>
-      <c r="BF22" t="n">
-        <v>1</v>
-      </c>
-      <c r="BG22" t="n">
-        <v>0.05263158</v>
-      </c>
+        <v>-0.14516129</v>
+      </c>
+      <c r="BE22" t="inlineStr"/>
+      <c r="BF22" t="inlineStr"/>
+      <c r="BG22" t="inlineStr"/>
       <c r="BH22" t="n">
-        <v>-0.01357466</v>
+        <v>-0.14516129</v>
       </c>
     </row>
     <row r="23">
@@ -4550,16 +4346,16 @@
         <v>24</v>
       </c>
       <c r="B23" t="n">
-        <v>1004432</v>
+        <v>1004437</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>BELLO HORIZONTE</t>
+          <t>GALERÍAS</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Thor Amor y Trueno</t>
+          <t>El Telefono Negro</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -4573,166 +4369,154 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>73.85651576000001</v>
+        <v>24.72344654</v>
       </c>
       <c r="H23" t="n">
-        <v>73.85651575999999</v>
+        <v>24.72344654</v>
       </c>
       <c r="I23" t="n">
-        <v>90.68828344000001</v>
+        <v>73.66348585999999</v>
       </c>
       <c r="J23" t="n">
-        <v>90.68828344000001</v>
+        <v>73.66348585999999</v>
       </c>
       <c r="K23" t="n">
-        <v>203.81892378</v>
+        <v>292.86242968</v>
       </c>
       <c r="L23" t="n">
-        <v>203.81892378</v>
+        <v>292.86242968</v>
       </c>
       <c r="M23" t="n">
-        <v>212.36706717</v>
+        <v>175.42369406</v>
       </c>
       <c r="N23" t="n">
-        <v>212.36706717</v>
+        <v>175.42369406</v>
       </c>
       <c r="O23" t="n">
-        <v>580.73079015</v>
+        <v>566.67305613</v>
       </c>
       <c r="P23" t="n">
-        <v>580.73079015</v>
+        <v>566.67305613</v>
       </c>
       <c r="Q23" t="n">
-        <v>28.67943873</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>28.67943873</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>88.98979241000001</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>88.98979241000001</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>38.2856585</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>38.2856585</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>736.68567978</v>
+        <v>566.67305613</v>
       </c>
       <c r="X23" t="n">
-        <v>736.68567978</v>
+        <v>566.67305613</v>
       </c>
       <c r="Y23" t="n">
-        <v>0.38329875</v>
+        <v>-0.85294409</v>
       </c>
       <c r="Z23" t="n">
-        <v>-0.40645807</v>
+        <v>-0.62010806</v>
       </c>
       <c r="AA23" t="n">
-        <v>-0.2763156</v>
+        <v>-0.04356378</v>
       </c>
       <c r="AB23" t="n">
-        <v>0.13205944</v>
+        <v>-0.49134449</v>
       </c>
       <c r="AC23" t="n">
-        <v>-0.14018987</v>
-      </c>
-      <c r="AD23" t="n">
-        <v>-0.63258521</v>
-      </c>
-      <c r="AE23" t="n">
-        <v>0.14372307</v>
-      </c>
-      <c r="AF23" t="n">
-        <v>-0.41550418</v>
-      </c>
+        <v>-0.44065886</v>
+      </c>
+      <c r="AD23" t="inlineStr"/>
+      <c r="AE23" t="inlineStr"/>
+      <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="n">
-        <v>-0.17852496</v>
+        <v>-0.44065886</v>
       </c>
       <c r="AH23" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="AI23" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="AJ23" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AK23" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="AL23" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AM23" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AN23" t="n">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="AO23" t="n">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="AP23" t="n">
-        <v>146</v>
+        <v>102</v>
       </c>
       <c r="AQ23" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AR23" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AS23" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AT23" t="n">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="AU23" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AV23" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AW23" t="n">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="AX23" t="n">
-        <v>211</v>
+        <v>102</v>
       </c>
       <c r="AY23" t="n">
-        <v>211</v>
+        <v>102</v>
       </c>
       <c r="AZ23" t="n">
-        <v>0.10526316</v>
+        <v>-0.83333333</v>
       </c>
       <c r="BA23" t="n">
-        <v>-0.5217391300000001</v>
+        <v>-0.61764706</v>
       </c>
       <c r="BB23" t="n">
-        <v>-0.28571429</v>
+        <v>0.01960784</v>
       </c>
       <c r="BC23" t="n">
-        <v>0.15217391</v>
+        <v>-0.41818182</v>
       </c>
       <c r="BD23" t="n">
-        <v>-0.19337017</v>
-      </c>
-      <c r="BE23" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="BF23" t="n">
-        <v>0.05882353</v>
-      </c>
-      <c r="BG23" t="n">
-        <v>-0.34615385</v>
-      </c>
+        <v>-0.4</v>
+      </c>
+      <c r="BE23" t="inlineStr"/>
+      <c r="BF23" t="inlineStr"/>
+      <c r="BG23" t="inlineStr"/>
       <c r="BH23" t="n">
-        <v>-0.22140221</v>
+        <v>-0.4</v>
       </c>
     </row>
     <row r="24">
@@ -4749,7 +4533,7 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>DC Liga de Super Mascotas</t>
+          <t>Tren Bala</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -4763,166 +4547,154 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>24.75341848</v>
+        <v>88.96368119</v>
       </c>
       <c r="H24" t="n">
-        <v>24.75341848</v>
+        <v>88.96368119</v>
       </c>
       <c r="I24" t="n">
-        <v>40.90300533</v>
+        <v>110.92641612</v>
       </c>
       <c r="J24" t="n">
-        <v>40.90300533</v>
+        <v>110.92641612</v>
       </c>
       <c r="K24" t="n">
-        <v>130.70027708</v>
+        <v>123.87594507</v>
       </c>
       <c r="L24" t="n">
-        <v>130.70027708</v>
+        <v>123.87594507</v>
       </c>
       <c r="M24" t="n">
-        <v>270.67264455</v>
+        <v>221.10173174</v>
       </c>
       <c r="N24" t="n">
-        <v>270.67264455</v>
+        <v>221.10173174</v>
       </c>
       <c r="O24" t="n">
-        <v>467.02934544</v>
+        <v>544.86777412</v>
       </c>
       <c r="P24" t="n">
-        <v>467.02934544</v>
+        <v>544.86777412</v>
       </c>
       <c r="Q24" t="n">
-        <v>57.23357894</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>57.23357894</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>69.91657345</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>69.91657345</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>31.04618853</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>31.04618853</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>625.22568635</v>
+        <v>544.86777412</v>
       </c>
       <c r="X24" t="n">
-        <v>625.22568635</v>
+        <v>544.86777412</v>
       </c>
       <c r="Y24" t="n">
-        <v>-0.7179943600000001</v>
+        <v>-0.13389476</v>
       </c>
       <c r="Z24" t="n">
-        <v>-0.52142457</v>
+        <v>0.08803413</v>
       </c>
       <c r="AA24" t="n">
-        <v>-0.51319769</v>
+        <v>-0.70948744</v>
       </c>
       <c r="AB24" t="n">
-        <v>-0.26732528</v>
+        <v>-0.35388944</v>
       </c>
       <c r="AC24" t="n">
-        <v>-0.42424709</v>
-      </c>
-      <c r="AD24" t="n">
-        <v>-0.04003694</v>
-      </c>
-      <c r="AE24" t="n">
-        <v>-0.5223688399999999</v>
-      </c>
-      <c r="AF24" t="n">
-        <v>-0.22790917</v>
-      </c>
+        <v>-0.44017201</v>
+      </c>
+      <c r="AD24" t="inlineStr"/>
+      <c r="AE24" t="inlineStr"/>
+      <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="n">
-        <v>-0.40870064</v>
+        <v>-0.44017201</v>
       </c>
       <c r="AH24" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="AI24" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="AJ24" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="AK24" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="AL24" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="AM24" t="n">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="AN24" t="n">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="AO24" t="n">
-        <v>75</v>
+        <v>53</v>
       </c>
       <c r="AP24" t="n">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="AQ24" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AR24" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AS24" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AT24" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AU24" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AV24" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AW24" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="AX24" t="n">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="AY24" t="n">
-        <v>198</v>
+        <v>140</v>
       </c>
       <c r="AZ24" t="n">
-        <v>-0.55172414</v>
+        <v>0.08</v>
       </c>
       <c r="BA24" t="n">
-        <v>-0.5862069</v>
+        <v>0.23076923</v>
       </c>
       <c r="BB24" t="n">
-        <v>-0.53731343</v>
+        <v>-0.69565217</v>
       </c>
       <c r="BC24" t="n">
-        <v>-0.15730337</v>
+        <v>-0.32911392</v>
       </c>
       <c r="BD24" t="n">
-        <v>-0.38785047</v>
-      </c>
-      <c r="BE24" t="n">
-        <v>-0.04</v>
-      </c>
-      <c r="BF24" t="n">
-        <v>-0.50793651</v>
-      </c>
-      <c r="BG24" t="n">
-        <v>-0.14285714</v>
-      </c>
+        <v>-0.36936937</v>
+      </c>
+      <c r="BE24" t="inlineStr"/>
+      <c r="BF24" t="inlineStr"/>
+      <c r="BG24" t="inlineStr"/>
       <c r="BH24" t="n">
-        <v>-0.37341772</v>
+        <v>-0.36936937</v>
       </c>
     </row>
     <row r="25">
@@ -4930,16 +4702,16 @@
         <v>26</v>
       </c>
       <c r="B25" t="n">
-        <v>1004432</v>
+        <v>1004434</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>BELLO HORIZONTE</t>
+          <t>Metrocentro Managua</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>El Telefono Negro</t>
+          <t>Tierra Santa El Ultimo Peregrino</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -4949,192 +4721,156 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Cinemas</t>
+          <t>Cinemark</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>14.61816052</v>
+        <v>175.25678283</v>
       </c>
       <c r="H25" t="n">
-        <v>14.61816052</v>
+        <v>175.25678283</v>
       </c>
       <c r="I25" t="n">
-        <v>82.83624293</v>
+        <v>50.62973726</v>
       </c>
       <c r="J25" t="n">
-        <v>82.83624293</v>
+        <v>50.62973726</v>
       </c>
       <c r="K25" t="n">
-        <v>101.18551489</v>
+        <v>127.1307139</v>
       </c>
       <c r="L25" t="n">
-        <v>101.18551489</v>
+        <v>127.1307139</v>
       </c>
       <c r="M25" t="n">
-        <v>236.480071</v>
+        <v>173.03129988</v>
       </c>
       <c r="N25" t="n">
-        <v>236.480071</v>
+        <v>173.03129988</v>
       </c>
       <c r="O25" t="n">
-        <v>435.11998934</v>
+        <v>526.04853387</v>
       </c>
       <c r="P25" t="n">
-        <v>435.11998934</v>
+        <v>526.04853387</v>
       </c>
       <c r="Q25" t="n">
-        <v>20.88308645</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>20.88308645</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>44.4948962</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>44.4948962</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>22.26415457</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>22.26415457</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>522.76212657</v>
+        <v>526.04853387</v>
       </c>
       <c r="X25" t="n">
-        <v>522.76212657</v>
-      </c>
-      <c r="Y25" t="n">
-        <v>-0.72691969</v>
-      </c>
-      <c r="Z25" t="n">
-        <v>0.70220061</v>
-      </c>
-      <c r="AA25" t="n">
-        <v>-0.07997367</v>
-      </c>
-      <c r="AB25" t="n">
-        <v>0.23694458</v>
-      </c>
-      <c r="AC25" t="n">
-        <v>0.07874725</v>
-      </c>
-      <c r="AD25" t="n">
-        <v>0.22507481</v>
-      </c>
-      <c r="AE25" t="n">
-        <v>-0.30005749</v>
-      </c>
-      <c r="AF25" t="n">
-        <v>-0.4749934</v>
-      </c>
-      <c r="AG25" t="n">
-        <v>-0.00687288</v>
-      </c>
+        <v>526.04853387</v>
+      </c>
+      <c r="Y25" t="inlineStr"/>
+      <c r="Z25" t="inlineStr"/>
+      <c r="AA25" t="inlineStr"/>
+      <c r="AB25" t="inlineStr"/>
+      <c r="AC25" t="inlineStr"/>
+      <c r="AD25" t="inlineStr"/>
+      <c r="AE25" t="inlineStr"/>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="inlineStr"/>
       <c r="AH25" t="n">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="AI25" t="n">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="AJ25" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AK25" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="AL25" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AM25" t="n">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="AN25" t="n">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="AO25" t="n">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="AP25" t="n">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="AQ25" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AR25" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AS25" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AT25" t="n">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AU25" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AV25" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AW25" t="n">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="AX25" t="n">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="AY25" t="n">
-        <v>132</v>
-      </c>
-      <c r="AZ25" t="n">
-        <v>-0.77777778</v>
-      </c>
-      <c r="BA25" t="n">
-        <v>0.33333333</v>
-      </c>
-      <c r="BB25" t="n">
-        <v>-0.125</v>
-      </c>
-      <c r="BC25" t="n">
-        <v>0.19512195</v>
-      </c>
-      <c r="BD25" t="n">
-        <v>-0.04081633</v>
-      </c>
-      <c r="BE25" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF25" t="n">
-        <v>-0.35714286</v>
-      </c>
-      <c r="BG25" t="n">
-        <v>-0.47368421</v>
-      </c>
-      <c r="BH25" t="n">
-        <v>-0.12</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="AZ25" t="inlineStr"/>
+      <c r="BA25" t="inlineStr"/>
+      <c r="BB25" t="inlineStr"/>
+      <c r="BC25" t="inlineStr"/>
+      <c r="BD25" t="inlineStr"/>
+      <c r="BE25" t="inlineStr"/>
+      <c r="BF25" t="inlineStr"/>
+      <c r="BG25" t="inlineStr"/>
+      <c r="BH25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>28</v>
       </c>
       <c r="B26" t="n">
-        <v>1068469</v>
+        <v>1004437</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>MASAYA</t>
+          <t>GALERÍAS</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Tren Bala</t>
+          <t>Top Gun Maverick</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Masaya</t>
+          <t>Managua</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -5143,166 +4879,154 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>56.13373639</v>
+        <v>136.0882828</v>
       </c>
       <c r="H26" t="n">
-        <v>56.13373639</v>
+        <v>136.0882828</v>
       </c>
       <c r="I26" t="n">
-        <v>23.38905683</v>
+        <v>63.982635</v>
       </c>
       <c r="J26" t="n">
-        <v>23.38905683</v>
+        <v>63.982635</v>
       </c>
       <c r="K26" t="n">
-        <v>121.20543377</v>
+        <v>168.80288226</v>
       </c>
       <c r="L26" t="n">
-        <v>121.20543377</v>
+        <v>168.80288226</v>
       </c>
       <c r="M26" t="n">
-        <v>218.52061665</v>
+        <v>116.8934923</v>
       </c>
       <c r="N26" t="n">
-        <v>218.52061665</v>
+        <v>116.8934923</v>
       </c>
       <c r="O26" t="n">
-        <v>419.24884363</v>
+        <v>485.7672923599999</v>
       </c>
       <c r="P26" t="n">
-        <v>419.24884363</v>
+        <v>485.76729236</v>
       </c>
       <c r="Q26" t="n">
-        <v>8.353234580000001</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>8.353234580000001</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>23.83456267</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>23.83456267</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>4.17661729</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>4.17661729</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>455.61325818</v>
+        <v>485.7672923599999</v>
       </c>
       <c r="X26" t="n">
-        <v>455.61325818</v>
+        <v>485.76729236</v>
       </c>
       <c r="Y26" t="n">
-        <v>-0.04827456</v>
+        <v>6.08334215</v>
       </c>
       <c r="Z26" t="n">
-        <v>-0.59269377</v>
+        <v>0.19432805</v>
       </c>
       <c r="AA26" t="n">
-        <v>-0.29682199</v>
+        <v>-0.61100893</v>
       </c>
       <c r="AB26" t="n">
-        <v>0.86477434</v>
+        <v>-0.03866729</v>
       </c>
       <c r="AC26" t="n">
-        <v>0.03274388</v>
-      </c>
-      <c r="AD26" t="n">
-        <v>-0.74629363</v>
-      </c>
-      <c r="AE26" t="n">
-        <v>-0.70301176</v>
-      </c>
-      <c r="AF26" t="n">
-        <v>-0.92571999</v>
-      </c>
+        <v>-0.22689183</v>
+      </c>
+      <c r="AD26" t="inlineStr"/>
+      <c r="AE26" t="inlineStr"/>
+      <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="n">
-        <v>-0.20812946</v>
+        <v>-0.22689183</v>
       </c>
       <c r="AH26" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AI26" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AJ26" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AK26" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AL26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AM26" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN26" t="n">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="AO26" t="n">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="AP26" t="n">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="AQ26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AR26" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT26" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AU26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW26" t="n">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="AX26" t="n">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="AY26" t="n">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="AZ26" t="n">
-        <v>-0.07692308</v>
+        <v>6.66666667</v>
       </c>
       <c r="BA26" t="n">
-        <v>-0.625</v>
+        <v>-0.23076923</v>
       </c>
       <c r="BB26" t="n">
-        <v>-0.275</v>
+        <v>-0.56410256</v>
       </c>
       <c r="BC26" t="n">
-        <v>0.75</v>
+        <v>-0.26923077</v>
       </c>
       <c r="BD26" t="n">
-        <v>-0.01030928</v>
-      </c>
-      <c r="BE26" t="n">
-        <v>-0.63636364</v>
-      </c>
-      <c r="BF26" t="n">
-        <v>-0.6944444400000001</v>
-      </c>
-      <c r="BG26" t="n">
-        <v>-0.90909091</v>
-      </c>
+        <v>-0.28333333</v>
+      </c>
+      <c r="BE26" t="inlineStr"/>
+      <c r="BF26" t="inlineStr"/>
+      <c r="BG26" t="inlineStr"/>
       <c r="BH26" t="n">
-        <v>-0.31927711</v>
+        <v>-0.28333333</v>
       </c>
     </row>
     <row r="27">
@@ -5310,16 +5034,16 @@
         <v>29</v>
       </c>
       <c r="B27" t="n">
-        <v>1004434</v>
+        <v>1004437</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Metrocentro Managua</t>
+          <t>GALERÍAS</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Thor Amor y Trueno</t>
+          <t>Elvis</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
@@ -5329,170 +5053,158 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Cinemark</t>
+          <t>Cinemas</t>
         </is>
       </c>
       <c r="G27" t="n">
-        <v>74.62222893000001</v>
+        <v>54.46869536</v>
       </c>
       <c r="H27" t="n">
-        <v>74.62222893000001</v>
+        <v>54.46869536</v>
       </c>
       <c r="I27" t="n">
-        <v>41.76617291</v>
+        <v>107.60210095</v>
       </c>
       <c r="J27" t="n">
-        <v>41.76617291</v>
+        <v>107.60210095</v>
       </c>
       <c r="K27" t="n">
-        <v>83.25390466</v>
+        <v>105.26534385</v>
       </c>
       <c r="L27" t="n">
-        <v>83.25390466</v>
+        <v>105.26534385</v>
       </c>
       <c r="M27" t="n">
-        <v>154.81328091</v>
+        <v>194.67412163</v>
       </c>
       <c r="N27" t="n">
-        <v>154.81328091</v>
+        <v>194.67412163</v>
       </c>
       <c r="O27" t="n">
-        <v>354.4555874</v>
+        <v>462.01026179</v>
       </c>
       <c r="P27" t="n">
-        <v>354.4555874</v>
+        <v>462.01026179</v>
       </c>
       <c r="Q27" t="n">
-        <v>57.91575976</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>57.91575976</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>18.93399838</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>18.93399838</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>14.47893994</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>14.47893994</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>445.78428549</v>
+        <v>462.01026179</v>
       </c>
       <c r="X27" t="n">
-        <v>445.78428549</v>
+        <v>462.01026179</v>
       </c>
       <c r="Y27" t="n">
-        <v>-0.54050185</v>
+        <v>-0.31696881</v>
       </c>
       <c r="Z27" t="n">
-        <v>-0.76750128</v>
+        <v>-0.09412875</v>
       </c>
       <c r="AA27" t="n">
-        <v>-0.84358043</v>
+        <v>-0.46768179</v>
       </c>
       <c r="AB27" t="n">
-        <v>-0.6744329100000001</v>
+        <v>-0.22642493</v>
       </c>
       <c r="AC27" t="n">
-        <v>-0.73740258</v>
-      </c>
-      <c r="AD27" t="n">
-        <v>-0.60139856</v>
-      </c>
-      <c r="AE27" t="n">
-        <v>-0.86160971</v>
-      </c>
-      <c r="AF27" t="n">
-        <v>-0.88480683</v>
-      </c>
+        <v>-0.28694699</v>
+      </c>
+      <c r="AD27" t="inlineStr"/>
+      <c r="AE27" t="inlineStr"/>
+      <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="n">
-        <v>-0.74636936</v>
+        <v>-0.28694699</v>
       </c>
       <c r="AH27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI27" t="n">
+        <v>10</v>
+      </c>
+      <c r="AJ27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL27" t="n">
         <v>17</v>
       </c>
-      <c r="AI27" t="n">
+      <c r="AM27" t="n">
         <v>17</v>
       </c>
-      <c r="AJ27" t="n">
+      <c r="AN27" t="n">
+        <v>33</v>
+      </c>
+      <c r="AO27" t="n">
+        <v>33</v>
+      </c>
+      <c r="AP27" t="n">
+        <v>79</v>
+      </c>
+      <c r="AQ27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV27" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW27" t="n">
         <v>10</v>
       </c>
-      <c r="AK27" t="n">
-        <v>10</v>
-      </c>
-      <c r="AL27" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM27" t="n">
-        <v>19</v>
-      </c>
-      <c r="AN27" t="n">
-        <v>35</v>
-      </c>
-      <c r="AO27" t="n">
-        <v>35</v>
-      </c>
-      <c r="AP27" t="n">
-        <v>81</v>
-      </c>
-      <c r="AQ27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AR27" t="n">
-        <v>15</v>
-      </c>
-      <c r="AS27" t="n">
-        <v>6</v>
-      </c>
-      <c r="AT27" t="n">
-        <v>6</v>
-      </c>
-      <c r="AU27" t="n">
-        <v>6</v>
-      </c>
-      <c r="AV27" t="n">
-        <v>6</v>
-      </c>
-      <c r="AW27" t="n">
-        <v>17</v>
-      </c>
       <c r="AX27" t="n">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="AY27" t="n">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="AZ27" t="n">
-        <v>-0.61363636</v>
+        <v>-0.375</v>
       </c>
       <c r="BA27" t="n">
-        <v>-0.73684211</v>
+        <v>-0.05</v>
       </c>
       <c r="BB27" t="n">
-        <v>-0.82882883</v>
+        <v>-0.52777778</v>
       </c>
       <c r="BC27" t="n">
-        <v>-0.66666667</v>
+        <v>-0.21428571</v>
       </c>
       <c r="BD27" t="n">
-        <v>-0.72818792</v>
-      </c>
-      <c r="BE27" t="n">
-        <v>-0.55882353</v>
-      </c>
-      <c r="BF27" t="n">
-        <v>-0.86046512</v>
-      </c>
-      <c r="BG27" t="n">
-        <v>-0.84210526</v>
-      </c>
+        <v>-0.30701754</v>
+      </c>
+      <c r="BE27" t="inlineStr"/>
+      <c r="BF27" t="inlineStr"/>
+      <c r="BG27" t="inlineStr"/>
       <c r="BH27" t="n">
-        <v>-0.73849879</v>
+        <v>-0.30701754</v>
       </c>
     </row>
     <row r="28">
@@ -5500,16 +5212,16 @@
         <v>30</v>
       </c>
       <c r="B28" t="n">
-        <v>1004432</v>
+        <v>1004436</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>BELLO HORIZONTE</t>
+          <t>PLAZA INTER</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Escalera al Infierno</t>
+          <t>After Amor Infinito</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
@@ -5523,183 +5235,147 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>26.75095531</v>
+        <v>102.8173126</v>
       </c>
       <c r="H28" t="n">
-        <v>26.75095531</v>
+        <v>102.8173126</v>
       </c>
       <c r="I28" t="n">
-        <v>68.21808240999999</v>
+        <v>53.74541341</v>
       </c>
       <c r="J28" t="n">
-        <v>68.21808240999999</v>
+        <v>53.74541341</v>
       </c>
       <c r="K28" t="n">
-        <v>107.19984379</v>
+        <v>91.18916415</v>
       </c>
       <c r="L28" t="n">
-        <v>107.19984379</v>
+        <v>91.18916415</v>
       </c>
       <c r="M28" t="n">
-        <v>107.14415556</v>
+        <v>185.13236345</v>
       </c>
       <c r="N28" t="n">
-        <v>107.14415556</v>
+        <v>185.13236345</v>
       </c>
       <c r="O28" t="n">
-        <v>309.31303708</v>
+        <v>432.8842536</v>
       </c>
       <c r="P28" t="n">
-        <v>309.31303708</v>
+        <v>432.8842536</v>
       </c>
       <c r="Q28" t="n">
-        <v>9.04933746</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>9.04933746</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>45.72003727</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>45.72003727</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>78.65962564</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>78.65962564</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>442.74203745</v>
+        <v>432.8842536</v>
       </c>
       <c r="X28" t="n">
-        <v>442.74203745</v>
-      </c>
-      <c r="Y28" t="n">
-        <v>-0.63283067</v>
-      </c>
-      <c r="Z28" t="n">
-        <v>-0.30896578</v>
-      </c>
-      <c r="AA28" t="n">
-        <v>-0.48531592</v>
-      </c>
-      <c r="AB28" t="n">
-        <v>-0.53365031</v>
-      </c>
-      <c r="AC28" t="n">
-        <v>-0.49260469</v>
-      </c>
-      <c r="AD28" t="n">
-        <v>-0.9550151099999999</v>
-      </c>
-      <c r="AE28" t="n">
-        <v>-0.72064811</v>
-      </c>
-      <c r="AF28" t="n">
-        <v>-0.30328648</v>
-      </c>
-      <c r="AG28" t="n">
-        <v>-0.59282066</v>
-      </c>
+        <v>432.8842536</v>
+      </c>
+      <c r="Y28" t="inlineStr"/>
+      <c r="Z28" t="inlineStr"/>
+      <c r="AA28" t="inlineStr"/>
+      <c r="AB28" t="inlineStr"/>
+      <c r="AC28" t="inlineStr"/>
+      <c r="AD28" t="inlineStr"/>
+      <c r="AE28" t="inlineStr"/>
+      <c r="AF28" t="inlineStr"/>
+      <c r="AG28" t="inlineStr"/>
       <c r="AH28" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AI28" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AJ28" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AK28" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AL28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AN28" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="AO28" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="AP28" t="n">
-        <v>67</v>
+        <v>91</v>
       </c>
       <c r="AQ28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AR28" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AT28" t="n">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="AU28" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AV28" t="n">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="AW28" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AX28" t="n">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="AY28" t="n">
-        <v>120</v>
-      </c>
-      <c r="AZ28" t="n">
-        <v>-0.4375</v>
-      </c>
-      <c r="BA28" t="n">
-        <v>-0.36363636</v>
-      </c>
-      <c r="BB28" t="n">
-        <v>-0.5600000000000001</v>
-      </c>
-      <c r="BC28" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="BD28" t="n">
-        <v>-0.5314685300000001</v>
-      </c>
-      <c r="BE28" t="n">
-        <v>-0.93333333</v>
-      </c>
-      <c r="BF28" t="n">
-        <v>-0.74666667</v>
-      </c>
-      <c r="BG28" t="n">
-        <v>0.10714286</v>
-      </c>
-      <c r="BH28" t="n">
-        <v>-0.58762887</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="AZ28" t="inlineStr"/>
+      <c r="BA28" t="inlineStr"/>
+      <c r="BB28" t="inlineStr"/>
+      <c r="BC28" t="inlineStr"/>
+      <c r="BD28" t="inlineStr"/>
+      <c r="BE28" t="inlineStr"/>
+      <c r="BF28" t="inlineStr"/>
+      <c r="BG28" t="inlineStr"/>
+      <c r="BH28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>31</v>
       </c>
       <c r="B29" t="n">
-        <v>1004436</v>
+        <v>1009211</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>PLAZA INTER</t>
+          <t>GALERÍAS</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>DC Liga de Super Mascotas</t>
+          <t>¡Nop!</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
@@ -5713,171 +5389,135 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>55.07566001</v>
+        <v>85.56981967999999</v>
       </c>
       <c r="H29" t="n">
-        <v>55.07566001</v>
+        <v>85.56981967999999</v>
       </c>
       <c r="I29" t="n">
-        <v>66.82587665</v>
+        <v>99.20090279</v>
       </c>
       <c r="J29" t="n">
-        <v>66.82587665</v>
+        <v>99.20090279</v>
       </c>
       <c r="K29" t="n">
-        <v>95.53315949</v>
+        <v>172.30801792</v>
       </c>
       <c r="L29" t="n">
-        <v>95.53315949</v>
+        <v>172.30801792</v>
       </c>
       <c r="M29" t="n">
-        <v>149.8848725</v>
+        <v>61.59024082</v>
       </c>
       <c r="N29" t="n">
-        <v>149.8848725</v>
+        <v>61.59024082</v>
       </c>
       <c r="O29" t="n">
-        <v>367.31956865</v>
+        <v>418.66898121</v>
       </c>
       <c r="P29" t="n">
-        <v>367.31956865</v>
+        <v>418.66898121</v>
       </c>
       <c r="Q29" t="n">
-        <v>23.05492744</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>23.05492744</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>34.80514409</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>34.80514409</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>4.17661729</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>4.17661729</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>429.35625748</v>
+        <v>418.66898121</v>
       </c>
       <c r="X29" t="n">
-        <v>429.35625748</v>
-      </c>
-      <c r="Y29" t="n">
-        <v>7.68666876</v>
-      </c>
-      <c r="Z29" t="n">
-        <v>9.53994187</v>
-      </c>
-      <c r="AA29" t="n">
-        <v>1.15253217</v>
-      </c>
-      <c r="AB29" t="n">
-        <v>0.68858652</v>
-      </c>
-      <c r="AC29" t="n">
-        <v>1.51889335</v>
-      </c>
-      <c r="AD29" t="n">
-        <v>0.68510534</v>
-      </c>
-      <c r="AE29" t="n">
-        <v>0.05177991</v>
-      </c>
-      <c r="AF29" t="n">
-        <v>-0.56083576</v>
-      </c>
-      <c r="AG29" t="n">
-        <v>1.12437546</v>
-      </c>
+        <v>418.66898121</v>
+      </c>
+      <c r="Y29" t="inlineStr"/>
+      <c r="Z29" t="inlineStr"/>
+      <c r="AA29" t="inlineStr"/>
+      <c r="AB29" t="inlineStr"/>
+      <c r="AC29" t="inlineStr"/>
+      <c r="AD29" t="inlineStr"/>
+      <c r="AE29" t="inlineStr"/>
+      <c r="AF29" t="inlineStr"/>
+      <c r="AG29" t="inlineStr"/>
       <c r="AH29" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AI29" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AJ29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK29" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL29" t="n">
         <v>19</v>
       </c>
-      <c r="AK29" t="n">
+      <c r="AM29" t="n">
         <v>19</v>
       </c>
-      <c r="AL29" t="n">
-        <v>24</v>
-      </c>
-      <c r="AM29" t="n">
-        <v>24</v>
-      </c>
       <c r="AN29" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="AO29" t="n">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="AP29" t="n">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="AQ29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV29" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW29" t="n">
         <v>10</v>
       </c>
-      <c r="AR29" t="n">
-        <v>10</v>
-      </c>
-      <c r="AS29" t="n">
-        <v>13</v>
-      </c>
-      <c r="AT29" t="n">
-        <v>13</v>
-      </c>
-      <c r="AU29" t="n">
-        <v>2</v>
-      </c>
-      <c r="AV29" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW29" t="n">
-        <v>14</v>
-      </c>
       <c r="AX29" t="n">
-        <v>122</v>
+        <v>47</v>
       </c>
       <c r="AY29" t="n">
-        <v>122</v>
-      </c>
-      <c r="AZ29" t="n">
-        <v>6</v>
-      </c>
-      <c r="BA29" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="BB29" t="n">
-        <v>0.71428571</v>
-      </c>
-      <c r="BC29" t="n">
-        <v>0.33333333</v>
-      </c>
-      <c r="BD29" t="n">
-        <v>1.02083333</v>
-      </c>
-      <c r="BE29" t="n">
-        <v>1</v>
-      </c>
-      <c r="BF29" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="BG29" t="n">
-        <v>-0.33333333</v>
-      </c>
-      <c r="BH29" t="n">
-        <v>0.84848485</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="AZ29" t="inlineStr"/>
+      <c r="BA29" t="inlineStr"/>
+      <c r="BB29" t="inlineStr"/>
+      <c r="BC29" t="inlineStr"/>
+      <c r="BD29" t="inlineStr"/>
+      <c r="BE29" t="inlineStr"/>
+      <c r="BF29" t="inlineStr"/>
+      <c r="BG29" t="inlineStr"/>
+      <c r="BH29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30" t="n">
         <v>1004436</v>
@@ -5889,7 +5529,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Thor Amor y Trueno</t>
+          <t>¡Nop!</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
@@ -5903,91 +5543,73 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>28.48452992</v>
+        <v>11.12741478</v>
       </c>
       <c r="H30" t="n">
-        <v>28.48452992</v>
+        <v>11.12741478</v>
       </c>
       <c r="I30" t="n">
-        <v>55.10350412</v>
+        <v>49.85081823</v>
       </c>
       <c r="J30" t="n">
-        <v>55.10350412</v>
+        <v>49.85081823</v>
       </c>
       <c r="K30" t="n">
-        <v>126.80210094</v>
+        <v>141.56853458</v>
       </c>
       <c r="L30" t="n">
-        <v>126.80210094</v>
+        <v>141.56853458</v>
       </c>
       <c r="M30" t="n">
-        <v>157.62553655</v>
+        <v>142.20836093</v>
       </c>
       <c r="N30" t="n">
-        <v>157.62553655</v>
+        <v>142.20836093</v>
       </c>
       <c r="O30" t="n">
-        <v>368.01567154</v>
+        <v>344.75512852</v>
       </c>
       <c r="P30" t="n">
-        <v>368.01567154</v>
+        <v>344.75512852</v>
       </c>
       <c r="Q30" t="n">
-        <v>33.21802952</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>33.21802952</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>11.97296957</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>11.97296957</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>15.70408101</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>15.70408101</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>428.91075163</v>
+        <v>344.75512852</v>
       </c>
       <c r="X30" t="n">
-        <v>428.91075163</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>-0.46059808</v>
-      </c>
-      <c r="Z30" t="n">
-        <v>1.04284718</v>
-      </c>
-      <c r="AA30" t="n">
-        <v>-0.43704999</v>
-      </c>
-      <c r="AB30" t="n">
-        <v>-0.19058574</v>
-      </c>
-      <c r="AC30" t="n">
-        <v>-0.26362625</v>
-      </c>
-      <c r="AD30" t="n">
-        <v>-0.22052574</v>
-      </c>
-      <c r="AE30" t="n">
-        <v>-0.85493375</v>
-      </c>
-      <c r="AF30" t="n">
-        <v>-0.23993259</v>
-      </c>
-      <c r="AG30" t="n">
-        <v>-0.33561887</v>
-      </c>
+        <v>344.75512852</v>
+      </c>
+      <c r="Y30" t="inlineStr"/>
+      <c r="Z30" t="inlineStr"/>
+      <c r="AA30" t="inlineStr"/>
+      <c r="AB30" t="inlineStr"/>
+      <c r="AC30" t="inlineStr"/>
+      <c r="AD30" t="inlineStr"/>
+      <c r="AE30" t="inlineStr"/>
+      <c r="AF30" t="inlineStr"/>
+      <c r="AG30" t="inlineStr"/>
       <c r="AH30" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AI30" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AJ30" t="n">
         <v>13</v>
@@ -5996,90 +5618,72 @@
         <v>13</v>
       </c>
       <c r="AL30" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="AM30" t="n">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="AN30" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AO30" t="n">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="AP30" t="n">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="AQ30" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AR30" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AS30" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AT30" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AU30" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AV30" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AW30" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AX30" t="n">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="AY30" t="n">
-        <v>112</v>
-      </c>
-      <c r="AZ30" t="n">
-        <v>-0.6</v>
-      </c>
-      <c r="BA30" t="n">
-        <v>1.16666667</v>
-      </c>
-      <c r="BB30" t="n">
-        <v>-0.44897959</v>
-      </c>
-      <c r="BC30" t="n">
-        <v>-0.13953488</v>
-      </c>
-      <c r="BD30" t="n">
-        <v>-0.26548673</v>
-      </c>
-      <c r="BE30" t="n">
-        <v>-0.0625</v>
-      </c>
-      <c r="BF30" t="n">
-        <v>-0.86111111</v>
-      </c>
-      <c r="BG30" t="n">
-        <v>0</v>
-      </c>
-      <c r="BH30" t="n">
-        <v>-0.35632184</v>
-      </c>
+        <v>85</v>
+      </c>
+      <c r="AZ30" t="inlineStr"/>
+      <c r="BA30" t="inlineStr"/>
+      <c r="BB30" t="inlineStr"/>
+      <c r="BC30" t="inlineStr"/>
+      <c r="BD30" t="inlineStr"/>
+      <c r="BE30" t="inlineStr"/>
+      <c r="BF30" t="inlineStr"/>
+      <c r="BG30" t="inlineStr"/>
+      <c r="BH30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31" t="n">
-        <v>1004437</v>
+        <v>1004432</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>GALERÍAS</t>
+          <t>BELLO HORIZONTE</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Escalera al Infierno</t>
+          <t>¡Nop!</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -6093,46 +5697,46 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>70.44561164</v>
+        <v>51.85375289</v>
       </c>
       <c r="H31" t="n">
-        <v>70.44561164</v>
+        <v>51.85375289</v>
       </c>
       <c r="I31" t="n">
-        <v>137.77268236</v>
+        <v>35.46863462</v>
       </c>
       <c r="J31" t="n">
-        <v>137.77268236</v>
+        <v>35.46863462</v>
       </c>
       <c r="K31" t="n">
-        <v>175.41792621</v>
+        <v>85.62545676000001</v>
       </c>
       <c r="L31" t="n">
-        <v>175.41792621</v>
+        <v>85.62545676000001</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>157.56419333</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
+        <v>157.56419333</v>
       </c>
       <c r="O31" t="n">
-        <v>383.6362202</v>
+        <v>330.51203759</v>
       </c>
       <c r="P31" t="n">
-        <v>383.6362202</v>
+        <v>330.51203759</v>
       </c>
       <c r="Q31" t="n">
-        <v>16.98491032</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>16.98491032</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>17.48610439</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>17.48610439</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -6141,72 +5745,58 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>418.10723491</v>
+        <v>330.51203759</v>
       </c>
       <c r="X31" t="n">
-        <v>418.10723491</v>
-      </c>
-      <c r="Y31" t="n">
-        <v>-0.30212809</v>
-      </c>
-      <c r="Z31" t="n">
-        <v>-0.30513253</v>
-      </c>
-      <c r="AA31" t="n">
-        <v>-0.12032419</v>
-      </c>
+        <v>330.51203759</v>
+      </c>
+      <c r="Y31" t="inlineStr"/>
+      <c r="Z31" t="inlineStr"/>
+      <c r="AA31" t="inlineStr"/>
       <c r="AB31" t="inlineStr"/>
-      <c r="AC31" t="n">
-        <v>-0.2306154</v>
-      </c>
-      <c r="AD31" t="n">
-        <v>-0.80207724</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>-0.58466781</v>
-      </c>
+      <c r="AC31" t="inlineStr"/>
+      <c r="AD31" t="inlineStr"/>
+      <c r="AE31" t="inlineStr"/>
       <c r="AF31" t="inlineStr"/>
-      <c r="AG31" t="n">
-        <v>-0.33267774</v>
-      </c>
+      <c r="AG31" t="inlineStr"/>
       <c r="AH31" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AI31" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AJ31" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="AK31" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="AL31" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AM31" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="AN31" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AO31" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="AP31" t="n">
-        <v>62</v>
+        <v>79</v>
       </c>
       <c r="AQ31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AR31" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AS31" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AT31" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AU31" t="n">
         <v>0</v>
@@ -6215,48 +5805,34 @@
         <v>0</v>
       </c>
       <c r="AW31" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AX31" t="n">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="AY31" t="n">
-        <v>72</v>
-      </c>
-      <c r="AZ31" t="n">
-        <v>-0.35294118</v>
-      </c>
-      <c r="BA31" t="n">
-        <v>-0.25806452</v>
-      </c>
-      <c r="BB31" t="n">
-        <v>-0.125</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="AZ31" t="inlineStr"/>
+      <c r="BA31" t="inlineStr"/>
+      <c r="BB31" t="inlineStr"/>
       <c r="BC31" t="inlineStr"/>
-      <c r="BD31" t="n">
-        <v>-0.225</v>
-      </c>
-      <c r="BE31" t="n">
-        <v>-0.73333333</v>
-      </c>
-      <c r="BF31" t="n">
-        <v>-0.68421053</v>
-      </c>
+      <c r="BD31" t="inlineStr"/>
+      <c r="BE31" t="inlineStr"/>
+      <c r="BF31" t="inlineStr"/>
       <c r="BG31" t="inlineStr"/>
-      <c r="BH31" t="n">
-        <v>-0.36842105</v>
-      </c>
+      <c r="BH31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32" t="n">
-        <v>1068469</v>
+        <v>1004436</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>MASAYA</t>
+          <t>PLAZA INTER</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -6266,7 +5842,7 @@
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Masaya</t>
+          <t>Managua</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -6275,46 +5851,46 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>16.01036628</v>
+        <v>38.389581</v>
       </c>
       <c r="H32" t="n">
-        <v>16.01036628</v>
+        <v>38.389581</v>
       </c>
       <c r="I32" t="n">
-        <v>4.67781137</v>
+        <v>53.91232462</v>
       </c>
       <c r="J32" t="n">
-        <v>4.67781137</v>
+        <v>53.91232462</v>
       </c>
       <c r="K32" t="n">
-        <v>171.29699715</v>
+        <v>108.15847169</v>
       </c>
       <c r="L32" t="n">
-        <v>171.29699715</v>
+        <v>108.15847169</v>
       </c>
       <c r="M32" t="n">
-        <v>188.34065854</v>
+        <v>114.16727567</v>
       </c>
       <c r="N32" t="n">
-        <v>188.34065854</v>
+        <v>114.16727567</v>
       </c>
       <c r="O32" t="n">
-        <v>380.32583334</v>
+        <v>314.62765299</v>
       </c>
       <c r="P32" t="n">
-        <v>380.32583334</v>
+        <v>314.62765299</v>
       </c>
       <c r="Q32" t="n">
-        <v>20.88308645</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>20.88308645</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>16.70646916</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>16.70646916</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
@@ -6323,74 +5899,70 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>417.91538895</v>
+        <v>314.62765299</v>
       </c>
       <c r="X32" t="n">
-        <v>417.91538895</v>
+        <v>314.62765299</v>
       </c>
       <c r="Y32" t="n">
-        <v>-0.80286104</v>
+        <v>0.192675</v>
       </c>
       <c r="Z32" t="n">
-        <v>-0.89635399</v>
+        <v>-0.36745518</v>
       </c>
       <c r="AA32" t="n">
-        <v>0.47862785</v>
+        <v>-0.4564192</v>
       </c>
       <c r="AB32" t="n">
-        <v>0.11754244</v>
+        <v>-0.63429986</v>
       </c>
       <c r="AC32" t="n">
-        <v>-0.07401547999999999</v>
-      </c>
-      <c r="AD32" t="n">
-        <v>-0.22017564</v>
-      </c>
-      <c r="AE32" t="n">
-        <v>0.08053361000000001</v>
-      </c>
+        <v>-0.49946355</v>
+      </c>
+      <c r="AD32" t="inlineStr"/>
+      <c r="AE32" t="inlineStr"/>
       <c r="AF32" t="inlineStr"/>
       <c r="AG32" t="n">
-        <v>-0.07738112</v>
+        <v>-0.49946355</v>
       </c>
       <c r="AH32" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AI32" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AJ32" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="AK32" t="n">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="AL32" t="n">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="AM32" t="n">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="AN32" t="n">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="AO32" t="n">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="AP32" t="n">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="AQ32" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AR32" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AS32" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AT32" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AU32" t="n">
         <v>0</v>
@@ -6399,55 +5971,51 @@
         <v>0</v>
       </c>
       <c r="AW32" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AX32" t="n">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="AY32" t="n">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="AZ32" t="n">
-        <v>-0.80769231</v>
+        <v>0.4</v>
       </c>
       <c r="BA32" t="n">
-        <v>-0.91666667</v>
+        <v>-0.32</v>
       </c>
       <c r="BB32" t="n">
-        <v>0.46875</v>
+        <v>-0.39622642</v>
       </c>
       <c r="BC32" t="n">
-        <v>0.20454545</v>
+        <v>-0.53846154</v>
       </c>
       <c r="BD32" t="n">
-        <v>-0.07017544000000001</v>
-      </c>
-      <c r="BE32" t="n">
-        <v>-0.16666667</v>
-      </c>
-      <c r="BF32" t="n">
-        <v>0.14285714</v>
-      </c>
+        <v>-0.40361446</v>
+      </c>
+      <c r="BE32" t="inlineStr"/>
+      <c r="BF32" t="inlineStr"/>
       <c r="BG32" t="inlineStr"/>
       <c r="BH32" t="n">
-        <v>-0.06766917</v>
+        <v>-0.40361446</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B33" t="n">
-        <v>1004436</v>
+        <v>1004432</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>PLAZA INTER</t>
+          <t>BELLO HORIZONTE</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>El Telefono Negro</t>
+          <t>DC Liga de Super Mascotas</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -6461,152 +6029,176 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>19.54656892</v>
+        <v>27.92981111</v>
       </c>
       <c r="H33" t="n">
-        <v>19.54656892</v>
+        <v>27.92981111</v>
       </c>
       <c r="I33" t="n">
-        <v>4.87272017</v>
+        <v>28.93127844</v>
       </c>
       <c r="J33" t="n">
-        <v>4.87272017</v>
+        <v>28.93127844</v>
       </c>
       <c r="K33" t="n">
-        <v>68.60790003</v>
+        <v>97.67088326</v>
       </c>
       <c r="L33" t="n">
-        <v>68.60790003</v>
+        <v>97.67088326</v>
       </c>
       <c r="M33" t="n">
-        <v>78.4090286</v>
+        <v>151.30502251</v>
       </c>
       <c r="N33" t="n">
-        <v>78.4090286</v>
+        <v>151.30502251</v>
       </c>
       <c r="O33" t="n">
-        <v>171.43621772</v>
+        <v>305.83699531</v>
       </c>
       <c r="P33" t="n">
-        <v>171.43621772</v>
+        <v>305.83699531</v>
       </c>
       <c r="Q33" t="n">
-        <v>32.13210902</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>32.13210902</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>28.12255642</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>28.12255642</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>31.21325322</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>31.21325322</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>262.90413639</v>
+        <v>305.83699531</v>
       </c>
       <c r="X33" t="n">
-        <v>262.90413639</v>
-      </c>
-      <c r="Y33" t="inlineStr"/>
-      <c r="Z33" t="inlineStr"/>
-      <c r="AA33" t="inlineStr"/>
-      <c r="AB33" t="inlineStr"/>
-      <c r="AC33" t="inlineStr"/>
+        <v>305.83699531</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>0.12832137</v>
+      </c>
+      <c r="Z33" t="n">
+        <v>-0.29268575</v>
+      </c>
+      <c r="AA33" t="n">
+        <v>-0.25271097</v>
+      </c>
+      <c r="AB33" t="n">
+        <v>-0.44100364</v>
+      </c>
+      <c r="AC33" t="n">
+        <v>-0.34514394</v>
+      </c>
       <c r="AD33" t="inlineStr"/>
       <c r="AE33" t="inlineStr"/>
       <c r="AF33" t="inlineStr"/>
-      <c r="AG33" t="inlineStr"/>
+      <c r="AG33" t="n">
+        <v>-0.34514394</v>
+      </c>
       <c r="AH33" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AI33" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AJ33" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AK33" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AL33" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="AM33" t="n">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="AN33" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="AO33" t="n">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="AP33" t="n">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="AQ33" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AR33" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AT33" t="n">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AU33" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AV33" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AW33" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX33" t="n">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="AY33" t="n">
-        <v>70</v>
-      </c>
-      <c r="AZ33" t="inlineStr"/>
-      <c r="BA33" t="inlineStr"/>
-      <c r="BB33" t="inlineStr"/>
-      <c r="BC33" t="inlineStr"/>
-      <c r="BD33" t="inlineStr"/>
+        <v>84</v>
+      </c>
+      <c r="AZ33" t="n">
+        <v>-0.38461538</v>
+      </c>
+      <c r="BA33" t="n">
+        <v>-0.16666667</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>-0.09677419</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>-0.49333333</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>-0.35877863</v>
+      </c>
       <c r="BE33" t="inlineStr"/>
       <c r="BF33" t="inlineStr"/>
       <c r="BG33" t="inlineStr"/>
-      <c r="BH33" t="inlineStr"/>
+      <c r="BH33" t="n">
+        <v>-0.35877863</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B34" t="n">
-        <v>1068469</v>
+        <v>1004432</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>MASAYA</t>
+          <t>BELLO HORIZONTE</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>DC Liga de Super Mascotas</t>
+          <t>Thor Amor y Trueno</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Masaya</t>
+          <t>Managua</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -6615,34 +6207,34 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>17.03885389</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>17.03885389</v>
       </c>
       <c r="I34" t="n">
-        <v>39.98414953</v>
+        <v>134.18271302</v>
       </c>
       <c r="J34" t="n">
-        <v>39.98414953</v>
+        <v>134.18271302</v>
       </c>
       <c r="K34" t="n">
-        <v>57.65124067</v>
+        <v>87.93439531999999</v>
       </c>
       <c r="L34" t="n">
-        <v>57.65124067</v>
+        <v>87.93439531999999</v>
       </c>
       <c r="M34" t="n">
-        <v>106.64296149</v>
+        <v>44.12019961</v>
       </c>
       <c r="N34" t="n">
-        <v>106.64296149</v>
+        <v>44.12019961</v>
       </c>
       <c r="O34" t="n">
-        <v>204.27835169</v>
+        <v>283.27616184</v>
       </c>
       <c r="P34" t="n">
-        <v>204.27835169</v>
+        <v>283.27616184</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -6651,70 +6243,70 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>23.83456267</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>23.83456267</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>8.353234580000001</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>8.353234580000001</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>236.46614894</v>
+        <v>283.27616184</v>
       </c>
       <c r="X34" t="n">
-        <v>236.46614894</v>
-      </c>
-      <c r="Y34" t="inlineStr"/>
+        <v>283.27616184</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>-0.76929789</v>
+      </c>
       <c r="Z34" t="n">
-        <v>5.2515603</v>
+        <v>0.47960363</v>
       </c>
       <c r="AA34" t="n">
-        <v>0.2018436</v>
+        <v>-0.56856609</v>
       </c>
       <c r="AB34" t="n">
-        <v>0.23509109</v>
+        <v>-0.79224557</v>
       </c>
       <c r="AC34" t="n">
-        <v>0.45177805</v>
+        <v>-0.51220743</v>
       </c>
       <c r="AD34" t="inlineStr"/>
-      <c r="AE34" t="n">
-        <v>1.85702691</v>
-      </c>
+      <c r="AE34" t="inlineStr"/>
       <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="n">
-        <v>0.53043004</v>
+        <v>-0.51220743</v>
       </c>
       <c r="AH34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AK34" t="n">
+        <v>34</v>
+      </c>
+      <c r="AL34" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM34" t="n">
+        <v>19</v>
+      </c>
+      <c r="AN34" t="n">
         <v>10</v>
       </c>
-      <c r="AK34" t="n">
+      <c r="AO34" t="n">
         <v>10</v>
       </c>
-      <c r="AL34" t="n">
-        <v>14</v>
-      </c>
-      <c r="AM34" t="n">
-        <v>14</v>
-      </c>
-      <c r="AN34" t="n">
-        <v>29</v>
-      </c>
-      <c r="AO34" t="n">
-        <v>29</v>
-      </c>
       <c r="AP34" t="n">
-        <v>53</v>
+        <v>68</v>
       </c>
       <c r="AQ34" t="n">
         <v>0</v>
@@ -6723,19 +6315,19 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AT34" t="n">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="AU34" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AV34" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AW34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AX34" t="n">
         <v>68</v>
@@ -6743,53 +6335,53 @@
       <c r="AY34" t="n">
         <v>68</v>
       </c>
-      <c r="AZ34" t="inlineStr"/>
+      <c r="AZ34" t="n">
+        <v>-0.76190476</v>
+      </c>
       <c r="BA34" t="n">
-        <v>4</v>
+        <v>0.54545455</v>
       </c>
       <c r="BB34" t="n">
-        <v>-0.06666667</v>
+        <v>-0.62</v>
       </c>
       <c r="BC34" t="n">
-        <v>0.07407407000000001</v>
+        <v>-0.81132075</v>
       </c>
       <c r="BD34" t="n">
-        <v>0.20454545</v>
+        <v>-0.53424658</v>
       </c>
       <c r="BE34" t="inlineStr"/>
-      <c r="BF34" t="n">
-        <v>1.75</v>
-      </c>
+      <c r="BF34" t="inlineStr"/>
       <c r="BG34" t="inlineStr"/>
       <c r="BH34" t="n">
-        <v>0.33333333</v>
+        <v>-0.53424658</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" t="n">
-        <v>1004434</v>
+        <v>1068469</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Metrocentro Managua</t>
+          <t>MASAYA</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Bestia</t>
+          <t>Minions Nace un Villano</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Managua</t>
+          <t>Masaya</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Cinemark</t>
+          <t>Cinemas</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -6799,69 +6391,71 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>31.12894286</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>31.12894286</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>92.20454075000001</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>92.20454075000001</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>146.70105465</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>146.70105465</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>270.03453825</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>270.03453825</v>
       </c>
       <c r="Q35" t="n">
-        <v>98.84660921</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>98.84660921</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>67.93964126</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>67.93964126</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>59.86484783</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>59.86484783</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>226.65109831</v>
+        <v>270.03453825</v>
       </c>
       <c r="X35" t="n">
-        <v>226.65109831</v>
+        <v>270.03453825</v>
       </c>
       <c r="Y35" t="inlineStr"/>
-      <c r="Z35" t="inlineStr"/>
-      <c r="AA35" t="inlineStr"/>
-      <c r="AB35" t="inlineStr"/>
-      <c r="AC35" t="inlineStr"/>
-      <c r="AD35" t="n">
-        <v>0.36715207</v>
-      </c>
-      <c r="AE35" t="n">
-        <v>-0.37674527</v>
-      </c>
-      <c r="AF35" t="n">
-        <v>-0.02146222</v>
-      </c>
+      <c r="Z35" t="n">
+        <v>5.65459558</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>-0.46172705</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>-0.22108664</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>-0.25878926</v>
+      </c>
+      <c r="AD35" t="inlineStr"/>
+      <c r="AE35" t="inlineStr"/>
+      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="n">
-        <v>-0.06530539</v>
+        <v>-0.25878926</v>
       </c>
       <c r="AH35" t="n">
         <v>0</v>
@@ -6870,91 +6464,93 @@
         <v>0</v>
       </c>
       <c r="AJ35" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AK35" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AL35" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AM35" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="AN35" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AO35" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="AP35" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="AQ35" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AR35" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="AS35" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AT35" t="n">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="AU35" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AV35" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AW35" t="n">
         <v>0</v>
       </c>
       <c r="AX35" t="n">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="AY35" t="n">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="AZ35" t="inlineStr"/>
-      <c r="BA35" t="inlineStr"/>
-      <c r="BB35" t="inlineStr"/>
-      <c r="BC35" t="inlineStr"/>
-      <c r="BD35" t="inlineStr"/>
-      <c r="BE35" t="n">
-        <v>0.71428571</v>
-      </c>
-      <c r="BF35" t="n">
-        <v>-0.35294118</v>
-      </c>
-      <c r="BG35" t="n">
-        <v>0.23076923</v>
-      </c>
+      <c r="BA35" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>-0.4893617</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>-0.28301887</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>-0.2970297</v>
+      </c>
+      <c r="BE35" t="inlineStr"/>
+      <c r="BF35" t="inlineStr"/>
+      <c r="BG35" t="inlineStr"/>
       <c r="BH35" t="n">
-        <v>0.01639344</v>
+        <v>-0.2970297</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" t="n">
-        <v>1068469</v>
+        <v>1009211</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>MASAYA</t>
+          <t>GALERÍAS</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Thor Amor y Trueno</t>
+          <t>After Amor Infinito</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Masaya</t>
+          <t>Managua</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -6963,188 +6559,152 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>27.70489469</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>27.70489469</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>30.39185182</v>
+        <v>37.61066197</v>
       </c>
       <c r="J36" t="n">
-        <v>30.39185182</v>
+        <v>37.61066197</v>
       </c>
       <c r="K36" t="n">
-        <v>61.63294915</v>
+        <v>112.8319859</v>
       </c>
       <c r="L36" t="n">
-        <v>61.63294915</v>
+        <v>112.8319859</v>
       </c>
       <c r="M36" t="n">
-        <v>43.10269044</v>
+        <v>117.28295181</v>
       </c>
       <c r="N36" t="n">
-        <v>43.10269044</v>
+        <v>117.28295181</v>
       </c>
       <c r="O36" t="n">
-        <v>162.8323861</v>
+        <v>267.72559968</v>
       </c>
       <c r="P36" t="n">
-        <v>162.8323861</v>
+        <v>267.72559968</v>
       </c>
       <c r="Q36" t="n">
-        <v>14.75738109</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>14.75738109</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>19.29597188</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>19.29597188</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>20.34012621</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>20.34012621</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>217.22586529</v>
+        <v>267.72559968</v>
       </c>
       <c r="X36" t="n">
-        <v>217.22586529</v>
-      </c>
-      <c r="Y36" t="n">
-        <v>4.93028573</v>
-      </c>
-      <c r="Z36" t="n">
-        <v>-0.28869969</v>
-      </c>
-      <c r="AA36" t="n">
-        <v>-0.6586794</v>
-      </c>
-      <c r="AB36" t="n">
-        <v>-0.73488346</v>
-      </c>
-      <c r="AC36" t="n">
-        <v>-0.58307023</v>
-      </c>
-      <c r="AD36" t="n">
-        <v>-0.3472496</v>
-      </c>
-      <c r="AE36" t="n">
-        <v>-0.63594068</v>
-      </c>
-      <c r="AF36" t="n">
-        <v>-0.02473918</v>
-      </c>
-      <c r="AG36" t="n">
-        <v>-0.553967</v>
-      </c>
+        <v>267.72559968</v>
+      </c>
+      <c r="Y36" t="inlineStr"/>
+      <c r="Z36" t="inlineStr"/>
+      <c r="AA36" t="inlineStr"/>
+      <c r="AB36" t="inlineStr"/>
+      <c r="AC36" t="inlineStr"/>
+      <c r="AD36" t="inlineStr"/>
+      <c r="AE36" t="inlineStr"/>
+      <c r="AF36" t="inlineStr"/>
+      <c r="AG36" t="inlineStr"/>
       <c r="AH36" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AI36" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AJ36" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AK36" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AL36" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AM36" t="n">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="AN36" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO36" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP36" t="n">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="AQ36" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AR36" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AS36" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AT36" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AU36" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AV36" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AW36" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AX36" t="n">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="AY36" t="n">
-        <v>77</v>
-      </c>
-      <c r="AZ36" t="n">
-        <v>1.33333333</v>
-      </c>
-      <c r="BA36" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="BB36" t="n">
-        <v>-0.5106383</v>
-      </c>
-      <c r="BC36" t="n">
-        <v>-0.66666667</v>
-      </c>
-      <c r="BD36" t="n">
-        <v>-0.47474747</v>
-      </c>
-      <c r="BE36" t="n">
-        <v>0</v>
-      </c>
-      <c r="BF36" t="n">
-        <v>-0.68</v>
-      </c>
-      <c r="BG36" t="n">
-        <v>-0.1</v>
-      </c>
-      <c r="BH36" t="n">
-        <v>-0.45774648</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="AZ36" t="inlineStr"/>
+      <c r="BA36" t="inlineStr"/>
+      <c r="BB36" t="inlineStr"/>
+      <c r="BC36" t="inlineStr"/>
+      <c r="BD36" t="inlineStr"/>
+      <c r="BE36" t="inlineStr"/>
+      <c r="BF36" t="inlineStr"/>
+      <c r="BG36" t="inlineStr"/>
+      <c r="BH36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" t="n">
-        <v>1068469</v>
+        <v>1004436</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>MASAYA</t>
+          <t>PLAZA INTER</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Bestia</t>
+          <t>Tren Bala</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Masaya</t>
+          <t>Managua</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -7153,34 +6713,34 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>15.57878249</v>
+        <v>33.68824826</v>
       </c>
       <c r="H37" t="n">
-        <v>15.57878249</v>
+        <v>33.68824826</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>60.7484519</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>60.7484519</v>
       </c>
       <c r="K37" t="n">
-        <v>90.42376434000001</v>
+        <v>70.77035802</v>
       </c>
       <c r="L37" t="n">
-        <v>90.42376434000001</v>
+        <v>70.77035802</v>
       </c>
       <c r="M37" t="n">
-        <v>79.77339025000001</v>
+        <v>68.82306043</v>
       </c>
       <c r="N37" t="n">
-        <v>79.77339025000001</v>
+        <v>68.82306043</v>
       </c>
       <c r="O37" t="n">
-        <v>185.77593709</v>
+        <v>234.03011861</v>
       </c>
       <c r="P37" t="n">
-        <v>185.77593709</v>
+        <v>234.03011861</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -7189,63 +6749,61 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>22.6094216</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>22.6094216</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>8.353234580000001</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>8.353234580000001</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>216.73859327</v>
+        <v>234.03011861</v>
       </c>
       <c r="X37" t="n">
-        <v>216.73859327</v>
+        <v>234.03011861</v>
       </c>
       <c r="Y37" t="n">
-        <v>-0.5996968499999999</v>
-      </c>
-      <c r="Z37" t="inlineStr"/>
+        <v>-0.35161439</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>0.30019902</v>
+      </c>
       <c r="AA37" t="n">
-        <v>-0.08027044999999999</v>
+        <v>-0.59346401</v>
       </c>
       <c r="AB37" t="n">
-        <v>-0.60379688</v>
+        <v>-0.80958884</v>
       </c>
       <c r="AC37" t="n">
-        <v>-0.45130494</v>
+        <v>-0.63098688</v>
       </c>
       <c r="AD37" t="inlineStr"/>
-      <c r="AE37" t="n">
-        <v>-0.50843342</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>-0.55299354</v>
-      </c>
+      <c r="AE37" t="inlineStr"/>
+      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="n">
-        <v>-0.4625331</v>
+        <v>-0.63098688</v>
       </c>
       <c r="AH37" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AI37" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="AJ37" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AK37" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AL37" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AM37" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AN37" t="n">
         <v>19</v>
@@ -7254,7 +6812,7 @@
         <v>19</v>
       </c>
       <c r="AP37" t="n">
-        <v>43</v>
+        <v>64</v>
       </c>
       <c r="AQ37" t="n">
         <v>0</v>
@@ -7263,106 +6821,104 @@
         <v>0</v>
       </c>
       <c r="AS37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW37" t="n">
         <v>10</v>
       </c>
-      <c r="AT37" t="n">
-        <v>10</v>
-      </c>
-      <c r="AU37" t="n">
-        <v>4</v>
-      </c>
-      <c r="AV37" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW37" t="n">
-        <v>4</v>
-      </c>
       <c r="AX37" t="n">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="AY37" t="n">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="AZ37" t="n">
-        <v>-0.5555555599999999</v>
-      </c>
-      <c r="BA37" t="inlineStr"/>
+        <v>-0.41176471</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>0.41666667</v>
+      </c>
       <c r="BB37" t="n">
-        <v>-0.16666667</v>
+        <v>-0.52631579</v>
       </c>
       <c r="BC37" t="n">
-        <v>-0.58695652</v>
+        <v>-0.77647059</v>
       </c>
       <c r="BD37" t="n">
-        <v>-0.4556962</v>
+        <v>-0.57894737</v>
       </c>
       <c r="BE37" t="inlineStr"/>
-      <c r="BF37" t="n">
-        <v>-0.47368421</v>
-      </c>
-      <c r="BG37" t="n">
-        <v>0</v>
-      </c>
+      <c r="BF37" t="inlineStr"/>
+      <c r="BG37" t="inlineStr"/>
       <c r="BH37" t="n">
-        <v>-0.44117647</v>
+        <v>-0.57894737</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B38" t="n">
-        <v>1004434</v>
+        <v>1068469</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Metrocentro Managua</t>
+          <t>MASAYA</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Minions Nace un Villano</t>
+          <t>After Amor Infinito</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Managua</t>
+          <t>Masaya</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Cinemark</t>
+          <t>Cinemas</t>
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>64.38600379</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>64.38600379</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>42.06162788</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>42.06162788</v>
       </c>
       <c r="K38" t="n">
-        <v>81.58325773999999</v>
+        <v>39.72487078</v>
       </c>
       <c r="L38" t="n">
-        <v>81.58325773999999</v>
+        <v>39.72487078</v>
       </c>
       <c r="M38" t="n">
-        <v>65.15522973</v>
+        <v>84.62398942999999</v>
       </c>
       <c r="N38" t="n">
-        <v>65.15522973</v>
+        <v>84.62398942999999</v>
       </c>
       <c r="O38" t="n">
-        <v>146.73848748</v>
+        <v>230.79649187</v>
       </c>
       <c r="P38" t="n">
-        <v>146.73848748</v>
+        <v>230.79649187</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -7383,54 +6939,46 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>146.73848748</v>
+        <v>230.79649187</v>
       </c>
       <c r="X38" t="n">
-        <v>146.73848748</v>
+        <v>230.79649187</v>
       </c>
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr"/>
-      <c r="AA38" t="n">
-        <v>-0.85709728</v>
-      </c>
-      <c r="AB38" t="n">
-        <v>-0.88587291</v>
-      </c>
-      <c r="AC38" t="n">
-        <v>-0.8714851</v>
-      </c>
+      <c r="AA38" t="inlineStr"/>
+      <c r="AB38" t="inlineStr"/>
+      <c r="AC38" t="inlineStr"/>
       <c r="AD38" t="inlineStr"/>
       <c r="AE38" t="inlineStr"/>
       <c r="AF38" t="inlineStr"/>
-      <c r="AG38" t="n">
-        <v>-0.8714851</v>
-      </c>
+      <c r="AG38" t="inlineStr"/>
       <c r="AH38" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AI38" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AJ38" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AK38" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AL38" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="AM38" t="n">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="AN38" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AO38" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AP38" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AQ38" t="n">
         <v>0</v>
@@ -7451,30 +6999,868 @@
         <v>0</v>
       </c>
       <c r="AW38" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AX38" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AY38" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AZ38" t="inlineStr"/>
       <c r="BA38" t="inlineStr"/>
-      <c r="BB38" t="n">
-        <v>-0.81889764</v>
-      </c>
-      <c r="BC38" t="n">
-        <v>-0.86861314</v>
-      </c>
-      <c r="BD38" t="n">
-        <v>-0.84469697</v>
-      </c>
+      <c r="BB38" t="inlineStr"/>
+      <c r="BC38" t="inlineStr"/>
+      <c r="BD38" t="inlineStr"/>
       <c r="BE38" t="inlineStr"/>
       <c r="BF38" t="inlineStr"/>
       <c r="BG38" t="inlineStr"/>
-      <c r="BH38" t="n">
-        <v>-0.84469697</v>
+      <c r="BH38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>43</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1068469</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>MASAYA</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>¡Nop!</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Masaya</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Cinemas</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>22.39392225</v>
+      </c>
+      <c r="H39" t="n">
+        <v>22.39392225</v>
+      </c>
+      <c r="I39" t="n">
+        <v>23.68748422</v>
+      </c>
+      <c r="J39" t="n">
+        <v>23.68748422</v>
+      </c>
+      <c r="K39" t="n">
+        <v>57.08363784</v>
+      </c>
+      <c r="L39" t="n">
+        <v>57.08363784</v>
+      </c>
+      <c r="M39" t="n">
+        <v>108.31147364</v>
+      </c>
+      <c r="N39" t="n">
+        <v>108.31147364</v>
+      </c>
+      <c r="O39" t="n">
+        <v>211.47651795</v>
+      </c>
+      <c r="P39" t="n">
+        <v>211.47651795</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
+      <c r="R39" t="n">
+        <v>0</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>0</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
+        <v>211.47651795</v>
+      </c>
+      <c r="X39" t="n">
+        <v>211.47651795</v>
+      </c>
+      <c r="Y39" t="inlineStr"/>
+      <c r="Z39" t="inlineStr"/>
+      <c r="AA39" t="inlineStr"/>
+      <c r="AB39" t="inlineStr"/>
+      <c r="AC39" t="inlineStr"/>
+      <c r="AD39" t="inlineStr"/>
+      <c r="AE39" t="inlineStr"/>
+      <c r="AF39" t="inlineStr"/>
+      <c r="AG39" t="inlineStr"/>
+      <c r="AH39" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>7</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>7</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>15</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>15</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>55</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>55</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>55</v>
+      </c>
+      <c r="AZ39" t="inlineStr"/>
+      <c r="BA39" t="inlineStr"/>
+      <c r="BB39" t="inlineStr"/>
+      <c r="BC39" t="inlineStr"/>
+      <c r="BD39" t="inlineStr"/>
+      <c r="BE39" t="inlineStr"/>
+      <c r="BF39" t="inlineStr"/>
+      <c r="BG39" t="inlineStr"/>
+      <c r="BH39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>44</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1004432</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>BELLO HORIZONTE</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Bestia</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Managua</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Cinemas</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>19.47297587</v>
+      </c>
+      <c r="H40" t="n">
+        <v>19.47297587</v>
+      </c>
+      <c r="I40" t="n">
+        <v>12.17060992</v>
+      </c>
+      <c r="J40" t="n">
+        <v>12.17060992</v>
+      </c>
+      <c r="K40" t="n">
+        <v>56.38817441</v>
+      </c>
+      <c r="L40" t="n">
+        <v>56.38817441</v>
+      </c>
+      <c r="M40" t="n">
+        <v>121.59788508</v>
+      </c>
+      <c r="N40" t="n">
+        <v>121.59788508</v>
+      </c>
+      <c r="O40" t="n">
+        <v>209.62964528</v>
+      </c>
+      <c r="P40" t="n">
+        <v>209.62964528</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
+      <c r="R40" t="n">
+        <v>0</v>
+      </c>
+      <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>209.62964528</v>
+      </c>
+      <c r="X40" t="n">
+        <v>209.62964528</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>-0.83638859</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>-0.77812279</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>-0.64737281</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>-0.6831995199999999</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>-0.70787903</v>
+      </c>
+      <c r="AD40" t="inlineStr"/>
+      <c r="AE40" t="inlineStr"/>
+      <c r="AF40" t="inlineStr"/>
+      <c r="AG40" t="n">
+        <v>-0.70787903</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>6</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>13</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>13</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>26</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>49</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>49</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>49</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>-0.8125</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>-0.7647058799999999</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>-0.66666667</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>-0.72340426</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>-0.73076923</v>
+      </c>
+      <c r="BE40" t="inlineStr"/>
+      <c r="BF40" t="inlineStr"/>
+      <c r="BG40" t="inlineStr"/>
+      <c r="BH40" t="n">
+        <v>-0.73076923</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>46</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1068469</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>MASAYA</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Tren Bala</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Masaya</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Cinemas</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>66.97312773</v>
+      </c>
+      <c r="J41" t="n">
+        <v>66.97312773</v>
+      </c>
+      <c r="K41" t="n">
+        <v>44.64875182</v>
+      </c>
+      <c r="L41" t="n">
+        <v>44.64875182</v>
+      </c>
+      <c r="M41" t="n">
+        <v>72.68983707</v>
+      </c>
+      <c r="N41" t="n">
+        <v>72.68983707</v>
+      </c>
+      <c r="O41" t="n">
+        <v>184.31171661</v>
+      </c>
+      <c r="P41" t="n">
+        <v>184.31171661</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
+        <v>184.31171661</v>
+      </c>
+      <c r="X41" t="n">
+        <v>184.31171661</v>
+      </c>
+      <c r="Y41" t="inlineStr"/>
+      <c r="Z41" t="n">
+        <v>1.86343858</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>-0.63162747</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>-0.66735479</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>-0.49241518</v>
+      </c>
+      <c r="AD41" t="inlineStr"/>
+      <c r="AE41" t="inlineStr"/>
+      <c r="AF41" t="inlineStr"/>
+      <c r="AG41" t="n">
+        <v>-0.49241518</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>16</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>16</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>11</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>18</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>18</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>45</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>45</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>45</v>
+      </c>
+      <c r="AZ41" t="inlineStr"/>
+      <c r="BA41" t="n">
+        <v>1.66666667</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>-0.62068966</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>-0.63265306</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>-0.46428571</v>
+      </c>
+      <c r="BE41" t="inlineStr"/>
+      <c r="BF41" t="inlineStr"/>
+      <c r="BG41" t="inlineStr"/>
+      <c r="BH41" t="n">
+        <v>-0.46428571</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>47</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1068469</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>MASAYA</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>DC Liga de Super Mascotas</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Masaya</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Cinemas</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>28.79218575</v>
+      </c>
+      <c r="H42" t="n">
+        <v>28.79218575</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>51.186108</v>
+      </c>
+      <c r="L42" t="n">
+        <v>51.186108</v>
+      </c>
+      <c r="M42" t="n">
+        <v>67.18176674999999</v>
+      </c>
+      <c r="N42" t="n">
+        <v>67.18176674999999</v>
+      </c>
+      <c r="O42" t="n">
+        <v>147.16006051</v>
+      </c>
+      <c r="P42" t="n">
+        <v>147.16006051</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
+      <c r="R42" t="n">
+        <v>0</v>
+      </c>
+      <c r="S42" t="n">
+        <v>0</v>
+      </c>
+      <c r="T42" t="n">
+        <v>0</v>
+      </c>
+      <c r="U42" t="n">
+        <v>0</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="n">
+        <v>147.16006051</v>
+      </c>
+      <c r="X42" t="n">
+        <v>147.16006051</v>
+      </c>
+      <c r="Y42" t="inlineStr"/>
+      <c r="Z42" t="inlineStr"/>
+      <c r="AA42" t="n">
+        <v>-0.11214213</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>-0.37003093</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>-0.27953712</v>
+      </c>
+      <c r="AD42" t="inlineStr"/>
+      <c r="AE42" t="inlineStr"/>
+      <c r="AF42" t="inlineStr"/>
+      <c r="AG42" t="n">
+        <v>-0.27953712</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>9</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>9</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>16</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>16</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>21</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>21</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>46</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>46</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>46</v>
+      </c>
+      <c r="AZ42" t="inlineStr"/>
+      <c r="BA42" t="inlineStr"/>
+      <c r="BB42" t="n">
+        <v>0.14285714</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>-0.27586207</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>-0.13953488</v>
+      </c>
+      <c r="BE42" t="inlineStr"/>
+      <c r="BF42" t="inlineStr"/>
+      <c r="BG42" t="inlineStr"/>
+      <c r="BH42" t="n">
+        <v>-0.13953488</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>52</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1004436</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>PLAZA INTER</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>DC Liga de Super Mascotas</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Managua</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Cinemas</t>
+        </is>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>6.34262643</v>
+      </c>
+      <c r="L43" t="n">
+        <v>6.34262643</v>
+      </c>
+      <c r="M43" t="n">
+        <v>22.19919249</v>
+      </c>
+      <c r="N43" t="n">
+        <v>22.19919249</v>
+      </c>
+      <c r="O43" t="n">
+        <v>28.54181892</v>
+      </c>
+      <c r="P43" t="n">
+        <v>28.54181892</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
+      <c r="R43" t="n">
+        <v>0</v>
+      </c>
+      <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
+        <v>28.54181892</v>
+      </c>
+      <c r="X43" t="n">
+        <v>28.54181892</v>
+      </c>
+      <c r="Y43" t="inlineStr"/>
+      <c r="Z43" t="inlineStr"/>
+      <c r="AA43" t="n">
+        <v>-0.93360812</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>-0.85189171</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>-0.88370122</v>
+      </c>
+      <c r="AD43" t="inlineStr"/>
+      <c r="AE43" t="inlineStr"/>
+      <c r="AF43" t="inlineStr"/>
+      <c r="AG43" t="n">
+        <v>-0.88370122</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>2</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>7</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>7</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>9</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ43" t="inlineStr"/>
+      <c r="BA43" t="inlineStr"/>
+      <c r="BB43" t="n">
+        <v>-0.91666667</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>-0.825</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>-0.859375</v>
+      </c>
+      <c r="BE43" t="inlineStr"/>
+      <c r="BF43" t="inlineStr"/>
+      <c r="BG43" t="inlineStr"/>
+      <c r="BH43" t="n">
+        <v>-0.859375</v>
       </c>
     </row>
   </sheetData>

--- a/Data Transformation/Nicaragua.xlsx
+++ b/Data Transformation/Nicaragua.xlsx
@@ -797,10 +797,10 @@
         <v>3118.875271</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>260.10332055</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>260.10332055</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -815,10 +815,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>3118.875271</v>
+        <v>3378.97859155</v>
       </c>
       <c r="X2" t="n">
-        <v>3118.875271</v>
+        <v>3378.97859155</v>
       </c>
       <c r="Y2" t="n">
         <v>-0.85109462</v>
@@ -835,11 +835,13 @@
       <c r="AC2" t="n">
         <v>-0.69707654</v>
       </c>
-      <c r="AD2" t="inlineStr"/>
+      <c r="AD2" t="n">
+        <v>-0.66276495</v>
+      </c>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="inlineStr"/>
       <c r="AG2" t="n">
-        <v>-0.69707654</v>
+        <v>-0.69468534</v>
       </c>
       <c r="AH2" t="n">
         <v>120</v>
@@ -869,10 +871,10 @@
         <v>756</v>
       </c>
       <c r="AQ2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="AS2" t="n">
         <v>0</v>
@@ -890,10 +892,10 @@
         <v>120</v>
       </c>
       <c r="AX2" t="n">
-        <v>756</v>
+        <v>827</v>
       </c>
       <c r="AY2" t="n">
-        <v>756</v>
+        <v>827</v>
       </c>
       <c r="AZ2" t="n">
         <v>-0.79130435</v>
@@ -910,11 +912,13 @@
       <c r="BD2" t="n">
         <v>-0.669869</v>
       </c>
-      <c r="BE2" t="inlineStr"/>
+      <c r="BE2" t="n">
+        <v>-0.57738095</v>
+      </c>
       <c r="BF2" t="inlineStr"/>
       <c r="BG2" t="inlineStr"/>
       <c r="BH2" t="n">
-        <v>-0.669869</v>
+        <v>-0.6635476</v>
       </c>
     </row>
     <row r="3">
@@ -975,10 +979,10 @@
         <v>2697.59913651</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>121.97705174</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>121.97705174</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -993,10 +997,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>2697.59913651</v>
+        <v>2819.57618825</v>
       </c>
       <c r="X3" t="n">
-        <v>2697.59913651</v>
+        <v>2819.57618825</v>
       </c>
       <c r="Y3" t="n">
         <v>-0.8407109699999999</v>
@@ -1013,11 +1017,13 @@
       <c r="AC3" t="n">
         <v>-0.5405813699999999</v>
       </c>
-      <c r="AD3" t="inlineStr"/>
+      <c r="AD3" t="n">
+        <v>-0.56144638</v>
+      </c>
       <c r="AE3" t="inlineStr"/>
       <c r="AF3" t="inlineStr"/>
       <c r="AG3" t="n">
-        <v>-0.5405813699999999</v>
+        <v>-0.54152501</v>
       </c>
       <c r="AH3" t="n">
         <v>40</v>
@@ -1047,10 +1053,10 @@
         <v>463</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="AS3" t="n">
         <v>0</v>
@@ -1068,10 +1074,10 @@
         <v>40</v>
       </c>
       <c r="AX3" t="n">
-        <v>463</v>
+        <v>505</v>
       </c>
       <c r="AY3" t="n">
-        <v>463</v>
+        <v>505</v>
       </c>
       <c r="AZ3" t="n">
         <v>-0.8326359800000001</v>
@@ -1088,11 +1094,13 @@
       <c r="BD3" t="n">
         <v>-0.53090172</v>
       </c>
-      <c r="BE3" t="inlineStr"/>
+      <c r="BE3" t="n">
+        <v>-0.10638298</v>
+      </c>
       <c r="BF3" t="inlineStr"/>
       <c r="BG3" t="inlineStr"/>
       <c r="BH3" t="n">
-        <v>-0.53090172</v>
+        <v>-0.51160542</v>
       </c>
     </row>
     <row r="4">
@@ -1153,10 +1161,10 @@
         <v>2407.00169212</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>208.94503109</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>208.94503109</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -1171,10 +1179,10 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>2407.00169212</v>
+        <v>2615.94672321</v>
       </c>
       <c r="X4" t="n">
-        <v>2407.00169212</v>
+        <v>2615.94672321</v>
       </c>
       <c r="Y4" t="n">
         <v>-0.83783945</v>
@@ -1191,11 +1199,13 @@
       <c r="AC4" t="n">
         <v>-0.54334422</v>
       </c>
-      <c r="AD4" t="inlineStr"/>
+      <c r="AD4" t="n">
+        <v>-0.53271684</v>
+      </c>
       <c r="AE4" t="inlineStr"/>
       <c r="AF4" t="inlineStr"/>
       <c r="AG4" t="n">
-        <v>-0.54334422</v>
+        <v>-0.54251316</v>
       </c>
       <c r="AH4" t="n">
         <v>77</v>
@@ -1225,10 +1235,10 @@
         <v>601</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AR4" t="n">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="AS4" t="n">
         <v>0</v>
@@ -1246,10 +1256,10 @@
         <v>77</v>
       </c>
       <c r="AX4" t="n">
-        <v>601</v>
+        <v>681</v>
       </c>
       <c r="AY4" t="n">
-        <v>601</v>
+        <v>681</v>
       </c>
       <c r="AZ4" t="n">
         <v>-0.78309859</v>
@@ -1266,11 +1276,13 @@
       <c r="BD4" t="n">
         <v>-0.50978793</v>
       </c>
-      <c r="BE4" t="inlineStr"/>
+      <c r="BE4" t="n">
+        <v>-0.20792079</v>
+      </c>
       <c r="BF4" t="inlineStr"/>
       <c r="BG4" t="inlineStr"/>
       <c r="BH4" t="n">
-        <v>-0.50978793</v>
+        <v>-0.48681236</v>
       </c>
     </row>
     <row r="5">
@@ -1331,10 +1343,10 @@
         <v>1918.64449397</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>87.87875825</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>87.87875825</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -1349,10 +1361,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>1918.64449397</v>
+        <v>2006.52325222</v>
       </c>
       <c r="X5" t="n">
-        <v>1918.64449397</v>
+        <v>2006.52325222</v>
       </c>
       <c r="Y5" t="n">
         <v>0.67940196</v>
@@ -1369,11 +1381,13 @@
       <c r="AC5" t="n">
         <v>0.39151926</v>
       </c>
-      <c r="AD5" t="inlineStr"/>
+      <c r="AD5" t="n">
+        <v>-0.42849987</v>
+      </c>
       <c r="AE5" t="inlineStr"/>
       <c r="AF5" t="inlineStr"/>
       <c r="AG5" t="n">
-        <v>0.39151926</v>
+        <v>0.30924424</v>
       </c>
       <c r="AH5" t="n">
         <v>36</v>
@@ -1403,10 +1417,10 @@
         <v>327</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AR5" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="AS5" t="n">
         <v>0</v>
@@ -1424,10 +1438,10 @@
         <v>36</v>
       </c>
       <c r="AX5" t="n">
-        <v>327</v>
+        <v>356</v>
       </c>
       <c r="AY5" t="n">
-        <v>327</v>
+        <v>356</v>
       </c>
       <c r="AZ5" t="n">
         <v>0.44</v>
@@ -1444,11 +1458,13 @@
       <c r="BD5" t="n">
         <v>0.32926829</v>
       </c>
-      <c r="BE5" t="inlineStr"/>
+      <c r="BE5" t="n">
+        <v>-0.25641026</v>
+      </c>
       <c r="BF5" t="inlineStr"/>
       <c r="BG5" t="inlineStr"/>
       <c r="BH5" t="n">
-        <v>0.32926829</v>
+        <v>0.24912281</v>
       </c>
     </row>
     <row r="6">
@@ -1509,10 +1525,10 @@
         <v>1150.26868466</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>41.33834592</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>41.33834592</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1527,10 +1543,10 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>1150.26868466</v>
+        <v>1191.60703058</v>
       </c>
       <c r="X6" t="n">
-        <v>1150.26868466</v>
+        <v>1191.60703058</v>
       </c>
       <c r="Y6" t="n">
         <v>-0.8119717400000001</v>
@@ -1547,11 +1563,13 @@
       <c r="AC6" t="n">
         <v>-0.5328235099999999</v>
       </c>
-      <c r="AD6" t="inlineStr"/>
+      <c r="AD6" t="n">
+        <v>-0.76348018</v>
+      </c>
       <c r="AE6" t="inlineStr"/>
       <c r="AF6" t="inlineStr"/>
       <c r="AG6" t="n">
-        <v>-0.5328235099999999</v>
+        <v>-0.54811148</v>
       </c>
       <c r="AH6" t="n">
         <v>37</v>
@@ -1581,10 +1599,10 @@
         <v>311</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AR6" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AS6" t="n">
         <v>0</v>
@@ -1602,10 +1620,10 @@
         <v>37</v>
       </c>
       <c r="AX6" t="n">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="AY6" t="n">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="AZ6" t="n">
         <v>-0.72794118</v>
@@ -1622,11 +1640,13 @@
       <c r="BD6" t="n">
         <v>-0.50713154</v>
       </c>
-      <c r="BE6" t="inlineStr"/>
+      <c r="BE6" t="n">
+        <v>-0.54545455</v>
+      </c>
       <c r="BF6" t="inlineStr"/>
       <c r="BG6" t="inlineStr"/>
       <c r="BH6" t="n">
-        <v>-0.50713154</v>
+        <v>-0.5096296299999999</v>
       </c>
     </row>
     <row r="7">
@@ -1687,10 +1707,10 @@
         <v>1147.50074024</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>23.70139349</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>23.70139349</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1705,10 +1725,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>1147.50074024</v>
+        <v>1171.20213372</v>
       </c>
       <c r="X7" t="n">
-        <v>1147.50074024</v>
+        <v>1171.20213372</v>
       </c>
       <c r="Y7" t="n">
         <v>-0.93624381</v>
@@ -1725,11 +1745,13 @@
       <c r="AC7" t="n">
         <v>-0.55960973</v>
       </c>
-      <c r="AD7" t="inlineStr"/>
+      <c r="AD7" t="n">
+        <v>-0.85191069</v>
+      </c>
       <c r="AE7" t="inlineStr"/>
       <c r="AF7" t="inlineStr"/>
       <c r="AG7" t="n">
-        <v>-0.55960973</v>
+        <v>-0.5765249</v>
       </c>
       <c r="AH7" t="n">
         <v>15</v>
@@ -1759,10 +1781,10 @@
         <v>290</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AS7" t="n">
         <v>0</v>
@@ -1780,10 +1802,10 @@
         <v>15</v>
       </c>
       <c r="AX7" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="AY7" t="n">
-        <v>290</v>
+        <v>300</v>
       </c>
       <c r="AZ7" t="n">
         <v>-0.92105263</v>
@@ -1800,11 +1822,13 @@
       <c r="BD7" t="n">
         <v>-0.53150242</v>
       </c>
-      <c r="BE7" t="inlineStr"/>
+      <c r="BE7" t="n">
+        <v>-0.72972973</v>
+      </c>
       <c r="BF7" t="inlineStr"/>
       <c r="BG7" t="inlineStr"/>
       <c r="BH7" t="n">
-        <v>-0.53150242</v>
+        <v>-0.54268293</v>
       </c>
     </row>
     <row r="8">
@@ -1812,16 +1836,16 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>1004437</v>
+        <v>1004434</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>GALERÍAS</t>
+          <t>Metrocentro Managua</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Thor Amor y Trueno</t>
+          <t>¡Nop!</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -1831,44 +1855,44 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Cinemas</t>
+          <t>Cinemark</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>106.48935947</v>
+        <v>184.43690003</v>
       </c>
       <c r="H8" t="n">
-        <v>106.48935947</v>
+        <v>184.43690003</v>
       </c>
       <c r="I8" t="n">
-        <v>118.173145</v>
+        <v>172.47492914</v>
       </c>
       <c r="J8" t="n">
-        <v>118.173145</v>
+        <v>172.47492914</v>
       </c>
       <c r="K8" t="n">
-        <v>552.69869228</v>
+        <v>369.70835617</v>
       </c>
       <c r="L8" t="n">
-        <v>552.69869228</v>
+        <v>369.70835617</v>
       </c>
       <c r="M8" t="n">
-        <v>362.55899217</v>
+        <v>327.98055073</v>
       </c>
       <c r="N8" t="n">
-        <v>362.55899217</v>
+        <v>327.98055073</v>
       </c>
       <c r="O8" t="n">
-        <v>1139.92018891</v>
+        <v>1054.60073607</v>
       </c>
       <c r="P8" t="n">
-        <v>1139.92018891</v>
+        <v>1054.60073607</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>109.04866487</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>109.04866487</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1883,64 +1907,52 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>1139.92018891</v>
+        <v>1163.64940094</v>
       </c>
       <c r="X8" t="n">
-        <v>1139.92018891</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>-0.03931587</v>
-      </c>
-      <c r="Z8" t="n">
-        <v>-0.40408626</v>
-      </c>
-      <c r="AA8" t="n">
-        <v>0.1774676</v>
-      </c>
-      <c r="AB8" t="n">
-        <v>-0.09096429</v>
-      </c>
-      <c r="AC8" t="n">
-        <v>-0.03182316</v>
-      </c>
+        <v>1163.64940094</v>
+      </c>
+      <c r="Y8" t="inlineStr"/>
+      <c r="Z8" t="inlineStr"/>
+      <c r="AA8" t="inlineStr"/>
+      <c r="AB8" t="inlineStr"/>
+      <c r="AC8" t="inlineStr"/>
       <c r="AD8" t="inlineStr"/>
       <c r="AE8" t="inlineStr"/>
       <c r="AF8" t="inlineStr"/>
-      <c r="AG8" t="n">
-        <v>-0.03182316</v>
-      </c>
+      <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="n">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="AI8" t="n">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="AJ8" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AK8" t="n">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="AL8" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AM8" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="AN8" t="n">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="AO8" t="n">
-        <v>65</v>
+        <v>74</v>
       </c>
       <c r="AP8" t="n">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AS8" t="n">
         <v>0</v>
@@ -1955,51 +1967,39 @@
         <v>0</v>
       </c>
       <c r="AW8" t="n">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="AX8" t="n">
-        <v>199</v>
+        <v>260</v>
       </c>
       <c r="AY8" t="n">
-        <v>199</v>
-      </c>
-      <c r="AZ8" t="n">
-        <v>-0.125</v>
-      </c>
-      <c r="BA8" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="BB8" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="BC8" t="n">
-        <v>-0.07142857</v>
-      </c>
-      <c r="BD8" t="n">
-        <v>-0.04784689</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="AZ8" t="inlineStr"/>
+      <c r="BA8" t="inlineStr"/>
+      <c r="BB8" t="inlineStr"/>
+      <c r="BC8" t="inlineStr"/>
+      <c r="BD8" t="inlineStr"/>
       <c r="BE8" t="inlineStr"/>
       <c r="BF8" t="inlineStr"/>
       <c r="BG8" t="inlineStr"/>
-      <c r="BH8" t="n">
-        <v>-0.04784689</v>
-      </c>
+      <c r="BH8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>1004434</v>
+        <v>1004437</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Metrocentro Managua</t>
+          <t>GALERÍAS</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>¡Nop!</t>
+          <t>Thor Amor y Trueno</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
@@ -2009,44 +2009,44 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Cinemark</t>
+          <t>Cinemas</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>184.43690003</v>
+        <v>106.48935947</v>
       </c>
       <c r="H9" t="n">
-        <v>184.43690003</v>
+        <v>106.48935947</v>
       </c>
       <c r="I9" t="n">
-        <v>172.47492914</v>
+        <v>118.173145</v>
       </c>
       <c r="J9" t="n">
-        <v>172.47492914</v>
+        <v>118.173145</v>
       </c>
       <c r="K9" t="n">
-        <v>369.70835617</v>
+        <v>552.69869228</v>
       </c>
       <c r="L9" t="n">
-        <v>369.70835617</v>
+        <v>552.69869228</v>
       </c>
       <c r="M9" t="n">
-        <v>327.98055073</v>
+        <v>362.55899217</v>
       </c>
       <c r="N9" t="n">
-        <v>327.98055073</v>
+        <v>362.55899217</v>
       </c>
       <c r="O9" t="n">
-        <v>1054.60073607</v>
+        <v>1139.92018891</v>
       </c>
       <c r="P9" t="n">
-        <v>1054.60073607</v>
+        <v>1139.92018891</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>20.86390272</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>20.86390272</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -2061,52 +2061,66 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>1054.60073607</v>
+        <v>1160.78409163</v>
       </c>
       <c r="X9" t="n">
-        <v>1054.60073607</v>
-      </c>
-      <c r="Y9" t="inlineStr"/>
-      <c r="Z9" t="inlineStr"/>
-      <c r="AA9" t="inlineStr"/>
-      <c r="AB9" t="inlineStr"/>
-      <c r="AC9" t="inlineStr"/>
-      <c r="AD9" t="inlineStr"/>
+        <v>1160.78409163</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>-0.03931587</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>-0.40408626</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>0.1774676</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>-0.09096429</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>-0.03182316</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>-0.75047918</v>
+      </c>
       <c r="AE9" t="inlineStr"/>
       <c r="AF9" t="inlineStr"/>
-      <c r="AG9" t="inlineStr"/>
+      <c r="AG9" t="n">
+        <v>-0.07947649</v>
+      </c>
       <c r="AH9" t="n">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="AI9" t="n">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="AJ9" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AK9" t="n">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="AL9" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AM9" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AN9" t="n">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="AO9" t="n">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="AP9" t="n">
-        <v>238</v>
+        <v>199</v>
       </c>
       <c r="AQ9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AR9" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AS9" t="n">
         <v>0</v>
@@ -2121,23 +2135,37 @@
         <v>0</v>
       </c>
       <c r="AW9" t="n">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="AX9" t="n">
-        <v>238</v>
+        <v>209</v>
       </c>
       <c r="AY9" t="n">
-        <v>238</v>
-      </c>
-      <c r="AZ9" t="inlineStr"/>
-      <c r="BA9" t="inlineStr"/>
-      <c r="BB9" t="inlineStr"/>
-      <c r="BC9" t="inlineStr"/>
-      <c r="BD9" t="inlineStr"/>
-      <c r="BE9" t="inlineStr"/>
+        <v>209</v>
+      </c>
+      <c r="AZ9" t="n">
+        <v>-0.125</v>
+      </c>
+      <c r="BA9" t="n">
+        <v>-0.4</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>-0.07142857</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>-0.04784689</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>-0.47368421</v>
+      </c>
       <c r="BF9" t="inlineStr"/>
       <c r="BG9" t="inlineStr"/>
-      <c r="BH9" t="inlineStr"/>
+      <c r="BH9" t="n">
+        <v>-0.08333333</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -2153,7 +2181,7 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Minions Nace un Villano</t>
+          <t>After Amor Infinito</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
@@ -2167,40 +2195,40 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>84.03980015</v>
+        <v>125.96233534</v>
       </c>
       <c r="H10" t="n">
-        <v>84.03980015</v>
+        <v>125.96233534</v>
       </c>
       <c r="I10" t="n">
-        <v>143.20982826</v>
+        <v>251.42393702</v>
       </c>
       <c r="J10" t="n">
-        <v>143.20982826</v>
+        <v>251.42393702</v>
       </c>
       <c r="K10" t="n">
-        <v>315.40657203</v>
+        <v>244.21893595</v>
       </c>
       <c r="L10" t="n">
-        <v>315.40657203</v>
+        <v>244.21893595</v>
       </c>
       <c r="M10" t="n">
-        <v>459.14495249</v>
+        <v>309.73159049</v>
       </c>
       <c r="N10" t="n">
-        <v>459.14495249</v>
+        <v>309.73159049</v>
       </c>
       <c r="O10" t="n">
-        <v>1001.80115292</v>
+        <v>931.33679881</v>
       </c>
       <c r="P10" t="n">
-        <v>1001.80115292</v>
+        <v>931.33679881</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>115.14092447</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>115.14092447</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -2215,62 +2243,52 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>1001.80115292</v>
+        <v>1046.47772327</v>
       </c>
       <c r="X10" t="n">
-        <v>1001.80115292</v>
+        <v>1046.47772327</v>
       </c>
       <c r="Y10" t="inlineStr"/>
-      <c r="Z10" t="n">
-        <v>-0.06502983</v>
-      </c>
-      <c r="AA10" t="n">
-        <v>-0.13839016</v>
-      </c>
-      <c r="AB10" t="n">
-        <v>0.03872996</v>
-      </c>
-      <c r="AC10" t="n">
-        <v>-0.04525407</v>
-      </c>
+      <c r="Z10" t="inlineStr"/>
+      <c r="AA10" t="inlineStr"/>
+      <c r="AB10" t="inlineStr"/>
+      <c r="AC10" t="inlineStr"/>
       <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="inlineStr"/>
       <c r="AF10" t="inlineStr"/>
-      <c r="AG10" t="n">
-        <v>-0.04525407</v>
-      </c>
+      <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="n">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="AI10" t="n">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="AJ10" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AK10" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AL10" t="n">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="AM10" t="n">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="AN10" t="n">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="AO10" t="n">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="AP10" t="n">
-        <v>187</v>
+        <v>248</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AS10" t="n">
         <v>0</v>
@@ -2285,49 +2303,39 @@
         <v>0</v>
       </c>
       <c r="AW10" t="n">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="AX10" t="n">
-        <v>187</v>
+        <v>267</v>
       </c>
       <c r="AY10" t="n">
-        <v>187</v>
+        <v>267</v>
       </c>
       <c r="AZ10" t="inlineStr"/>
-      <c r="BA10" t="n">
-        <v>0.07407407000000001</v>
-      </c>
-      <c r="BB10" t="n">
-        <v>-0.1641791</v>
-      </c>
-      <c r="BC10" t="n">
-        <v>0</v>
-      </c>
-      <c r="BD10" t="n">
-        <v>-0.05142857</v>
-      </c>
+      <c r="BA10" t="inlineStr"/>
+      <c r="BB10" t="inlineStr"/>
+      <c r="BC10" t="inlineStr"/>
+      <c r="BD10" t="inlineStr"/>
       <c r="BE10" t="inlineStr"/>
       <c r="BF10" t="inlineStr"/>
       <c r="BG10" t="inlineStr"/>
-      <c r="BH10" t="n">
-        <v>-0.05142857</v>
-      </c>
+      <c r="BH10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>1004434</v>
+        <v>1004437</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Metrocentro Managua</t>
+          <t>GALERÍAS</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Tren Bala</t>
+          <t>Minions Nace un Villano</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
@@ -2337,44 +2345,44 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Cinemark</t>
+          <t>Cinemas</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>112.10870394</v>
+        <v>84.03980015</v>
       </c>
       <c r="H11" t="n">
-        <v>112.10870394</v>
+        <v>84.03980015</v>
       </c>
       <c r="I11" t="n">
-        <v>148.55098735</v>
+        <v>143.20982826</v>
       </c>
       <c r="J11" t="n">
-        <v>148.55098735</v>
+        <v>143.20982826</v>
       </c>
       <c r="K11" t="n">
-        <v>299.32745766</v>
+        <v>315.40657203</v>
       </c>
       <c r="L11" t="n">
-        <v>299.32745766</v>
+        <v>315.40657203</v>
       </c>
       <c r="M11" t="n">
-        <v>385.28673686</v>
+        <v>459.14495249</v>
       </c>
       <c r="N11" t="n">
-        <v>385.28673686</v>
+        <v>459.14495249</v>
       </c>
       <c r="O11" t="n">
-        <v>945.27388582</v>
+        <v>1001.80115292</v>
       </c>
       <c r="P11" t="n">
-        <v>945.27388582</v>
+        <v>1001.80115292</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>11.97226375</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>11.97226375</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -2389,64 +2397,64 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>945.27388582</v>
+        <v>1013.77341667</v>
       </c>
       <c r="X11" t="n">
-        <v>945.27388582</v>
-      </c>
-      <c r="Y11" t="n">
-        <v>-0.38152105</v>
-      </c>
+        <v>1013.77341667</v>
+      </c>
+      <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="n">
-        <v>-0.3107113</v>
+        <v>-0.06502983</v>
       </c>
       <c r="AA11" t="n">
-        <v>-0.55779039</v>
+        <v>-0.13839016</v>
       </c>
       <c r="AB11" t="n">
-        <v>-0.38989078</v>
+        <v>0.03872996</v>
       </c>
       <c r="AC11" t="n">
-        <v>-0.44564361</v>
-      </c>
-      <c r="AD11" t="inlineStr"/>
+        <v>-0.04525407</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>-0.72115781</v>
+      </c>
       <c r="AE11" t="inlineStr"/>
       <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="n">
-        <v>-0.44564361</v>
+        <v>-0.0741531</v>
       </c>
       <c r="AH11" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AI11" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AJ11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AK11" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL11" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="AM11" t="n">
-        <v>70</v>
+        <v>56</v>
       </c>
       <c r="AN11" t="n">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AO11" t="n">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="AP11" t="n">
-        <v>227</v>
+        <v>187</v>
       </c>
       <c r="AQ11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AS11" t="n">
         <v>0</v>
@@ -2461,34 +2469,34 @@
         <v>0</v>
       </c>
       <c r="AW11" t="n">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="AX11" t="n">
-        <v>227</v>
+        <v>192</v>
       </c>
       <c r="AY11" t="n">
-        <v>227</v>
-      </c>
-      <c r="AZ11" t="n">
-        <v>-0.31914894</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="AZ11" t="inlineStr"/>
       <c r="BA11" t="n">
-        <v>-0.26086957</v>
+        <v>0.07407407000000001</v>
       </c>
       <c r="BB11" t="n">
-        <v>-0.56790123</v>
+        <v>-0.1641791</v>
       </c>
       <c r="BC11" t="n">
-        <v>-0.34532374</v>
+        <v>0</v>
       </c>
       <c r="BD11" t="n">
-        <v>-0.42385787</v>
-      </c>
-      <c r="BE11" t="inlineStr"/>
+        <v>-0.05142857</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>-0.61538462</v>
+      </c>
       <c r="BF11" t="inlineStr"/>
       <c r="BG11" t="inlineStr"/>
       <c r="BH11" t="n">
-        <v>-0.42385787</v>
+        <v>-0.09042553</v>
       </c>
     </row>
     <row r="12">
@@ -2496,16 +2504,16 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>1004437</v>
+        <v>1004434</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>GALERÍAS</t>
+          <t>Metrocentro Managua</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>After Amor Infinito</t>
+          <t>Tren Bala</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -2515,44 +2523,44 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Cinemas</t>
+          <t>Cinemark</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>125.96233534</v>
+        <v>112.10870394</v>
       </c>
       <c r="H12" t="n">
-        <v>125.96233534</v>
+        <v>112.10870394</v>
       </c>
       <c r="I12" t="n">
-        <v>251.42393702</v>
+        <v>148.55098735</v>
       </c>
       <c r="J12" t="n">
-        <v>251.42393702</v>
+        <v>148.55098735</v>
       </c>
       <c r="K12" t="n">
-        <v>244.21893595</v>
+        <v>299.32745766</v>
       </c>
       <c r="L12" t="n">
-        <v>244.21893595</v>
+        <v>299.32745766</v>
       </c>
       <c r="M12" t="n">
-        <v>309.73159049</v>
+        <v>385.28673686</v>
       </c>
       <c r="N12" t="n">
-        <v>309.73159049</v>
+        <v>385.28673686</v>
       </c>
       <c r="O12" t="n">
-        <v>931.33679881</v>
+        <v>945.27388582</v>
       </c>
       <c r="P12" t="n">
-        <v>931.33679881</v>
+        <v>945.27388582</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>46.73514209</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>46.73514209</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -2567,52 +2575,66 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>931.33679881</v>
+        <v>992.00902791</v>
       </c>
       <c r="X12" t="n">
-        <v>931.33679881</v>
-      </c>
-      <c r="Y12" t="inlineStr"/>
-      <c r="Z12" t="inlineStr"/>
-      <c r="AA12" t="inlineStr"/>
-      <c r="AB12" t="inlineStr"/>
-      <c r="AC12" t="inlineStr"/>
-      <c r="AD12" t="inlineStr"/>
+        <v>992.00902791</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>-0.38152105</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>-0.3107113</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>-0.55779039</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>-0.38989078</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>-0.44564361</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>-0.53246331</v>
+      </c>
       <c r="AE12" t="inlineStr"/>
       <c r="AF12" t="inlineStr"/>
-      <c r="AG12" t="inlineStr"/>
+      <c r="AG12" t="n">
+        <v>-0.45045131</v>
+      </c>
       <c r="AH12" t="n">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="AI12" t="n">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="AJ12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AK12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL12" t="n">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="AM12" t="n">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="AN12" t="n">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="AO12" t="n">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="AP12" t="n">
-        <v>248</v>
+        <v>227</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AR12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AS12" t="n">
         <v>0</v>
@@ -2627,23 +2649,37 @@
         <v>0</v>
       </c>
       <c r="AW12" t="n">
-        <v>114</v>
+        <v>32</v>
       </c>
       <c r="AX12" t="n">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="AY12" t="n">
-        <v>248</v>
-      </c>
-      <c r="AZ12" t="inlineStr"/>
-      <c r="BA12" t="inlineStr"/>
-      <c r="BB12" t="inlineStr"/>
-      <c r="BC12" t="inlineStr"/>
-      <c r="BD12" t="inlineStr"/>
-      <c r="BE12" t="inlineStr"/>
+        <v>242</v>
+      </c>
+      <c r="AZ12" t="n">
+        <v>-0.31914894</v>
+      </c>
+      <c r="BA12" t="n">
+        <v>-0.26086957</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>-0.56790123</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>-0.34532374</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>-0.42385787</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>-0.46428571</v>
+      </c>
       <c r="BF12" t="inlineStr"/>
       <c r="BG12" t="inlineStr"/>
-      <c r="BH12" t="inlineStr"/>
+      <c r="BH12" t="n">
+        <v>-0.42654028</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -2703,10 +2739,10 @@
         <v>906.59888663</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>39.94741907</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>39.94741907</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -2721,10 +2757,10 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>906.59888663</v>
+        <v>946.5463056999999</v>
       </c>
       <c r="X13" t="n">
-        <v>906.59888663</v>
+        <v>946.5463056999999</v>
       </c>
       <c r="Y13" t="n">
         <v>0.42333087</v>
@@ -2741,11 +2777,13 @@
       <c r="AC13" t="n">
         <v>-0.27410986</v>
       </c>
-      <c r="AD13" t="inlineStr"/>
+      <c r="AD13" t="n">
+        <v>1.21401366</v>
+      </c>
       <c r="AE13" t="inlineStr"/>
       <c r="AF13" t="inlineStr"/>
       <c r="AG13" t="n">
-        <v>-0.27410986</v>
+        <v>-0.25291776</v>
       </c>
       <c r="AH13" t="n">
         <v>13</v>
@@ -2775,10 +2813,10 @@
         <v>172</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AS13" t="n">
         <v>0</v>
@@ -2796,10 +2834,10 @@
         <v>13</v>
       </c>
       <c r="AX13" t="n">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="AY13" t="n">
-        <v>172</v>
+        <v>187</v>
       </c>
       <c r="AZ13" t="n">
         <v>0.625</v>
@@ -2816,28 +2854,30 @@
       <c r="BD13" t="n">
         <v>-0.22869955</v>
       </c>
-      <c r="BE13" t="inlineStr"/>
+      <c r="BE13" t="n">
+        <v>4</v>
+      </c>
       <c r="BF13" t="inlineStr"/>
       <c r="BG13" t="inlineStr"/>
       <c r="BH13" t="n">
-        <v>-0.22869955</v>
+        <v>-0.17256637</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>1004437</v>
+        <v>1004434</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>GALERÍAS</t>
+          <t>Metrocentro Managua</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>¡Nop!</t>
+          <t>Minions Nace un Villano</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
@@ -2847,44 +2887,44 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Cinemas</t>
+          <t>Cinemark</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>181.26558682</v>
+        <v>54.52433244</v>
       </c>
       <c r="H14" t="n">
-        <v>181.26558682</v>
+        <v>54.52433244</v>
       </c>
       <c r="I14" t="n">
-        <v>135.47627498</v>
+        <v>105.71044044</v>
       </c>
       <c r="J14" t="n">
-        <v>135.47627498</v>
+        <v>105.71044044</v>
       </c>
       <c r="K14" t="n">
-        <v>196.56578214</v>
+        <v>211.69906625</v>
       </c>
       <c r="L14" t="n">
-        <v>196.56578214</v>
+        <v>211.69906625</v>
       </c>
       <c r="M14" t="n">
-        <v>280.93940474</v>
+        <v>376.38480504</v>
       </c>
       <c r="N14" t="n">
-        <v>280.93940474</v>
+        <v>376.38480504</v>
       </c>
       <c r="O14" t="n">
-        <v>794.24704868</v>
+        <v>748.31864416</v>
       </c>
       <c r="P14" t="n">
-        <v>794.24704868</v>
+        <v>748.31864416</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>160.23477288</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>160.23477288</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -2899,52 +2939,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>794.24704868</v>
+        <v>908.55341704</v>
       </c>
       <c r="X14" t="n">
-        <v>794.24704868</v>
+        <v>908.55341704</v>
       </c>
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr"/>
-      <c r="AA14" t="inlineStr"/>
-      <c r="AB14" t="inlineStr"/>
-      <c r="AC14" t="inlineStr"/>
+      <c r="AA14" t="n">
+        <v>1.59488371</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>4.77673974</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>3.00770024</v>
+      </c>
       <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="inlineStr"/>
       <c r="AF14" t="inlineStr"/>
-      <c r="AG14" t="inlineStr"/>
+      <c r="AG14" t="n">
+        <v>3.00770024</v>
+      </c>
       <c r="AH14" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AI14" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AK14" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AL14" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="AM14" t="n">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="AN14" t="n">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="AO14" t="n">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="AP14" t="n">
-        <v>135</v>
+        <v>183</v>
       </c>
       <c r="AQ14" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="AR14" t="n">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="AS14" t="n">
         <v>0</v>
@@ -2959,39 +3007,47 @@
         <v>0</v>
       </c>
       <c r="AW14" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AX14" t="n">
-        <v>135</v>
+        <v>224</v>
       </c>
       <c r="AY14" t="n">
-        <v>135</v>
+        <v>224</v>
       </c>
       <c r="AZ14" t="inlineStr"/>
       <c r="BA14" t="inlineStr"/>
-      <c r="BB14" t="inlineStr"/>
-      <c r="BC14" t="inlineStr"/>
-      <c r="BD14" t="inlineStr"/>
+      <c r="BB14" t="n">
+        <v>1.2173913</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>4.16666667</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>2.51219512</v>
+      </c>
       <c r="BE14" t="inlineStr"/>
       <c r="BF14" t="inlineStr"/>
       <c r="BG14" t="inlineStr"/>
-      <c r="BH14" t="inlineStr"/>
+      <c r="BH14" t="n">
+        <v>2.51219512</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>1004432</v>
+        <v>1004437</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>BELLO HORIZONTE</t>
+          <t>GALERÍAS</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>After Amor Infinito</t>
+          <t>¡Nop!</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -3005,40 +3061,40 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>136.50556085</v>
+        <v>181.26558682</v>
       </c>
       <c r="H15" t="n">
-        <v>136.50556085</v>
+        <v>181.26558682</v>
       </c>
       <c r="I15" t="n">
-        <v>152.25085277</v>
+        <v>135.47627498</v>
       </c>
       <c r="J15" t="n">
-        <v>152.25085277</v>
+        <v>135.47627498</v>
       </c>
       <c r="K15" t="n">
-        <v>223.49412592</v>
+        <v>196.56578214</v>
       </c>
       <c r="L15" t="n">
-        <v>223.49412592</v>
+        <v>196.56578214</v>
       </c>
       <c r="M15" t="n">
-        <v>260.68750983</v>
+        <v>280.93940474</v>
       </c>
       <c r="N15" t="n">
-        <v>260.68750983</v>
+        <v>280.93940474</v>
       </c>
       <c r="O15" t="n">
-        <v>772.93804937</v>
+        <v>794.24704868</v>
       </c>
       <c r="P15" t="n">
-        <v>772.93804937</v>
+        <v>794.24704868</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>58.1129237</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>58.1129237</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -3053,10 +3109,10 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>772.93804937</v>
+        <v>852.35997238</v>
       </c>
       <c r="X15" t="n">
-        <v>772.93804937</v>
+        <v>852.35997238</v>
       </c>
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr"/>
@@ -3074,31 +3130,31 @@
         <v>29</v>
       </c>
       <c r="AJ15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>23</v>
+      </c>
+      <c r="AL15" t="n">
         <v>32</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AM15" t="n">
         <v>32</v>
       </c>
-      <c r="AL15" t="n">
-        <v>50</v>
-      </c>
-      <c r="AM15" t="n">
-        <v>50</v>
-      </c>
       <c r="AN15" t="n">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="AO15" t="n">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="AP15" t="n">
-        <v>168</v>
+        <v>135</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="AS15" t="n">
         <v>0</v>
@@ -3116,10 +3172,10 @@
         <v>29</v>
       </c>
       <c r="AX15" t="n">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="AY15" t="n">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="AZ15" t="inlineStr"/>
       <c r="BA15" t="inlineStr"/>
@@ -3133,19 +3189,19 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>1004434</v>
+        <v>1004432</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Metrocentro Managua</t>
+          <t>BELLO HORIZONTE</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Minions Nace un Villano</t>
+          <t>After Amor Infinito</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
@@ -3155,44 +3211,44 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Cinemark</t>
+          <t>Cinemas</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>54.52433244</v>
+        <v>136.50556085</v>
       </c>
       <c r="H16" t="n">
-        <v>54.52433244</v>
+        <v>136.50556085</v>
       </c>
       <c r="I16" t="n">
-        <v>105.71044044</v>
+        <v>152.25085277</v>
       </c>
       <c r="J16" t="n">
-        <v>105.71044044</v>
+        <v>152.25085277</v>
       </c>
       <c r="K16" t="n">
-        <v>211.69906625</v>
+        <v>223.49412592</v>
       </c>
       <c r="L16" t="n">
-        <v>211.69906625</v>
+        <v>223.49412592</v>
       </c>
       <c r="M16" t="n">
-        <v>376.38480504</v>
+        <v>260.68750983</v>
       </c>
       <c r="N16" t="n">
-        <v>376.38480504</v>
+        <v>260.68750983</v>
       </c>
       <c r="O16" t="n">
-        <v>748.31864416</v>
+        <v>772.93804937</v>
       </c>
       <c r="P16" t="n">
-        <v>748.31864416</v>
+        <v>772.93804937</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>74.27549368</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>74.27549368</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -3207,60 +3263,52 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>748.31864416</v>
+        <v>847.21354305</v>
       </c>
       <c r="X16" t="n">
-        <v>748.31864416</v>
+        <v>847.21354305</v>
       </c>
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr"/>
-      <c r="AA16" t="n">
-        <v>1.59488371</v>
-      </c>
-      <c r="AB16" t="n">
-        <v>4.77673974</v>
-      </c>
-      <c r="AC16" t="n">
-        <v>3.00770024</v>
-      </c>
+      <c r="AA16" t="inlineStr"/>
+      <c r="AB16" t="inlineStr"/>
+      <c r="AC16" t="inlineStr"/>
       <c r="AD16" t="inlineStr"/>
       <c r="AE16" t="inlineStr"/>
       <c r="AF16" t="inlineStr"/>
-      <c r="AG16" t="n">
-        <v>3.00770024</v>
-      </c>
+      <c r="AG16" t="inlineStr"/>
       <c r="AH16" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AI16" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AJ16" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AK16" t="n">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="AL16" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AM16" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AN16" t="n">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="AO16" t="n">
-        <v>93</v>
+        <v>57</v>
       </c>
       <c r="AP16" t="n">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AR16" t="n">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AS16" t="n">
         <v>0</v>
@@ -3275,31 +3323,23 @@
         <v>0</v>
       </c>
       <c r="AW16" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AX16" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AY16" t="n">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="AZ16" t="inlineStr"/>
       <c r="BA16" t="inlineStr"/>
-      <c r="BB16" t="n">
-        <v>1.2173913</v>
-      </c>
-      <c r="BC16" t="n">
-        <v>4.16666667</v>
-      </c>
-      <c r="BD16" t="n">
-        <v>2.51219512</v>
-      </c>
+      <c r="BB16" t="inlineStr"/>
+      <c r="BC16" t="inlineStr"/>
+      <c r="BD16" t="inlineStr"/>
       <c r="BE16" t="inlineStr"/>
       <c r="BF16" t="inlineStr"/>
       <c r="BG16" t="inlineStr"/>
-      <c r="BH16" t="n">
-        <v>2.51219512</v>
-      </c>
+      <c r="BH16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -3359,10 +3399,10 @@
         <v>693.23794099</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>56.74981538999999</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>56.74981539</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -3377,10 +3417,10 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>693.23794099</v>
+        <v>749.9877563800001</v>
       </c>
       <c r="X17" t="n">
-        <v>693.23794099</v>
+        <v>749.98775638</v>
       </c>
       <c r="Y17" t="n">
         <v>-0.63302973</v>
@@ -3397,11 +3437,13 @@
       <c r="AC17" t="n">
         <v>-0.37585591</v>
       </c>
-      <c r="AD17" t="inlineStr"/>
+      <c r="AD17" t="n">
+        <v>-0.58825737</v>
+      </c>
       <c r="AE17" t="inlineStr"/>
       <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="n">
-        <v>-0.37585591</v>
+        <v>-0.39930344</v>
       </c>
       <c r="AH17" t="n">
         <v>15</v>
@@ -3431,10 +3473,10 @@
         <v>177</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AR17" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AS17" t="n">
         <v>0</v>
@@ -3452,10 +3494,10 @@
         <v>15</v>
       </c>
       <c r="AX17" t="n">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="AY17" t="n">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="AZ17" t="n">
         <v>-0.625</v>
@@ -3472,11 +3514,13 @@
       <c r="BD17" t="n">
         <v>-0.36785714</v>
       </c>
-      <c r="BE17" t="inlineStr"/>
+      <c r="BE17" t="n">
+        <v>-0.66666667</v>
+      </c>
       <c r="BF17" t="inlineStr"/>
       <c r="BG17" t="inlineStr"/>
       <c r="BH17" t="n">
-        <v>-0.36785714</v>
+        <v>-0.4068323</v>
       </c>
     </row>
     <row r="18">
@@ -3537,10 +3581,10 @@
         <v>692.95975561</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>16.69112217</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>16.69112217</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -3555,10 +3599,10 @@
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>692.95975561</v>
+        <v>709.65087779</v>
       </c>
       <c r="X18" t="n">
-        <v>692.95975561</v>
+        <v>709.65087779</v>
       </c>
       <c r="Y18" t="n">
         <v>0.35696127</v>
@@ -3575,11 +3619,13 @@
       <c r="AC18" t="n">
         <v>0.95499741</v>
       </c>
-      <c r="AD18" t="inlineStr"/>
+      <c r="AD18" t="n">
+        <v>-0.71180345</v>
+      </c>
       <c r="AE18" t="inlineStr"/>
       <c r="AF18" t="inlineStr"/>
       <c r="AG18" t="n">
-        <v>0.95499741</v>
+        <v>0.72090249</v>
       </c>
       <c r="AH18" t="n">
         <v>26</v>
@@ -3609,10 +3655,10 @@
         <v>173</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AR18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AS18" t="n">
         <v>0</v>
@@ -3630,10 +3676,10 @@
         <v>26</v>
       </c>
       <c r="AX18" t="n">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="AY18" t="n">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="AZ18" t="n">
         <v>0.52941176</v>
@@ -3650,16 +3696,18 @@
       <c r="BD18" t="n">
         <v>1.13580247</v>
       </c>
-      <c r="BE18" t="inlineStr"/>
+      <c r="BE18" t="n">
+        <v>-0.66666667</v>
+      </c>
       <c r="BF18" t="inlineStr"/>
       <c r="BG18" t="inlineStr"/>
       <c r="BH18" t="n">
-        <v>1.13580247</v>
+        <v>0.85416667</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" t="n">
         <v>1004432</v>
@@ -3715,10 +3763,10 @@
         <v>646.85053061</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>30.39175163</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>30.39175163</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -3733,10 +3781,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>646.85053061</v>
+        <v>677.24228223</v>
       </c>
       <c r="X19" t="n">
-        <v>646.85053061</v>
+        <v>677.24228223</v>
       </c>
       <c r="Y19" t="n">
         <v>-0.31230089</v>
@@ -3753,11 +3801,13 @@
       <c r="AC19" t="n">
         <v>-0.41445281</v>
       </c>
-      <c r="AD19" t="inlineStr"/>
+      <c r="AD19" t="n">
+        <v>-0.6456180500000001</v>
+      </c>
       <c r="AE19" t="inlineStr"/>
       <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="n">
-        <v>-0.41445281</v>
+        <v>-0.43110587</v>
       </c>
       <c r="AH19" t="n">
         <v>15</v>
@@ -3787,10 +3837,10 @@
         <v>176</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AR19" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AS19" t="n">
         <v>0</v>
@@ -3808,10 +3858,10 @@
         <v>15</v>
       </c>
       <c r="AX19" t="n">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="AY19" t="n">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="AZ19" t="n">
         <v>-0.25</v>
@@ -3828,11 +3878,13 @@
       <c r="BD19" t="n">
         <v>-0.36917563</v>
       </c>
-      <c r="BE19" t="inlineStr"/>
+      <c r="BE19" t="n">
+        <v>-0.63636364</v>
+      </c>
       <c r="BF19" t="inlineStr"/>
       <c r="BG19" t="inlineStr"/>
       <c r="BH19" t="n">
-        <v>-0.36917563</v>
+        <v>-0.3974359</v>
       </c>
     </row>
     <row r="20">
@@ -3893,10 +3945,10 @@
         <v>613.70474382</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>54.24614707</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>54.24614707</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -3911,10 +3963,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>613.70474382</v>
+        <v>667.95089089</v>
       </c>
       <c r="X20" t="n">
-        <v>613.70474382</v>
+        <v>667.95089089</v>
       </c>
       <c r="Y20" t="n">
         <v>2.55440612</v>
@@ -3931,11 +3983,13 @@
       <c r="AC20" t="n">
         <v>0.98408948</v>
       </c>
-      <c r="AD20" t="inlineStr"/>
+      <c r="AD20" t="n">
+        <v>4.99448825</v>
+      </c>
       <c r="AE20" t="inlineStr"/>
       <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="n">
-        <v>0.98408948</v>
+        <v>1.09808364</v>
       </c>
       <c r="AH20" t="n">
         <v>22</v>
@@ -3965,10 +4019,10 @@
         <v>131</v>
       </c>
       <c r="AQ20" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AR20" t="n">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="AS20" t="n">
         <v>0</v>
@@ -3986,10 +4040,10 @@
         <v>22</v>
       </c>
       <c r="AX20" t="n">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="AY20" t="n">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="AZ20" t="n">
         <v>1.44444444</v>
@@ -4006,11 +4060,13 @@
       <c r="BD20" t="n">
         <v>0.95522388</v>
       </c>
-      <c r="BE20" t="inlineStr"/>
+      <c r="BE20" t="n">
+        <v>6.33333333</v>
+      </c>
       <c r="BF20" t="inlineStr"/>
       <c r="BG20" t="inlineStr"/>
       <c r="BH20" t="n">
-        <v>0.95522388</v>
+        <v>1.18571429</v>
       </c>
     </row>
     <row r="21">
@@ -4018,16 +4074,16 @@
         <v>22</v>
       </c>
       <c r="B21" t="n">
-        <v>1004434</v>
+        <v>1004437</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Metrocentro Managua</t>
+          <t>GALERÍAS</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>After Amor Infinito</t>
+          <t>Escalera al Infierno</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -4037,44 +4093,44 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Cinemark</t>
+          <t>Cinemas</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>66.7644887</v>
+        <v>51.186108</v>
       </c>
       <c r="H21" t="n">
-        <v>66.7644887</v>
+        <v>51.186108</v>
       </c>
       <c r="I21" t="n">
-        <v>109.04866488</v>
+        <v>80.06174935999999</v>
       </c>
       <c r="J21" t="n">
-        <v>109.04866488</v>
+        <v>80.06174935999999</v>
       </c>
       <c r="K21" t="n">
-        <v>285.97455992</v>
+        <v>185.403316</v>
       </c>
       <c r="L21" t="n">
-        <v>285.97455992</v>
+        <v>185.403316</v>
       </c>
       <c r="M21" t="n">
-        <v>131.02530907</v>
+        <v>275.12533051</v>
       </c>
       <c r="N21" t="n">
-        <v>131.02530907</v>
+        <v>275.12533051</v>
       </c>
       <c r="O21" t="n">
-        <v>592.81302257</v>
+        <v>591.77650388</v>
       </c>
       <c r="P21" t="n">
-        <v>592.81302257</v>
+        <v>591.77650388</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>46.45695672</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>46.45695672</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -4089,52 +4145,64 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>592.81302257</v>
+        <v>638.2334605999999</v>
       </c>
       <c r="X21" t="n">
-        <v>592.81302257</v>
-      </c>
-      <c r="Y21" t="inlineStr"/>
-      <c r="Z21" t="inlineStr"/>
-      <c r="AA21" t="inlineStr"/>
+        <v>638.2334605999999</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>-0.27339536</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>-0.41888517</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>0.05692343</v>
+      </c>
       <c r="AB21" t="inlineStr"/>
-      <c r="AC21" t="inlineStr"/>
-      <c r="AD21" t="inlineStr"/>
+      <c r="AC21" t="n">
+        <v>-0.17460564</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>1.73518999</v>
+      </c>
       <c r="AE21" t="inlineStr"/>
       <c r="AF21" t="inlineStr"/>
-      <c r="AG21" t="inlineStr"/>
+      <c r="AG21" t="n">
+        <v>-0.0936371</v>
+      </c>
       <c r="AH21" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AI21" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AJ21" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="AK21" t="n">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="AL21" t="n">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="AM21" t="n">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="AN21" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="AO21" t="n">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="AP21" t="n">
-        <v>139</v>
+        <v>96</v>
       </c>
       <c r="AQ21" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AR21" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AS21" t="n">
         <v>0</v>
@@ -4149,39 +4217,51 @@
         <v>0</v>
       </c>
       <c r="AW21" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="AX21" t="n">
-        <v>139</v>
+        <v>110</v>
       </c>
       <c r="AY21" t="n">
-        <v>139</v>
-      </c>
-      <c r="AZ21" t="inlineStr"/>
-      <c r="BA21" t="inlineStr"/>
-      <c r="BB21" t="inlineStr"/>
+        <v>110</v>
+      </c>
+      <c r="AZ21" t="n">
+        <v>-0.18181818</v>
+      </c>
+      <c r="BA21" t="n">
+        <v>-0.43478261</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>0.10714286</v>
+      </c>
       <c r="BC21" t="inlineStr"/>
-      <c r="BD21" t="inlineStr"/>
-      <c r="BE21" t="inlineStr"/>
+      <c r="BD21" t="n">
+        <v>-0.14516129</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>2.5</v>
+      </c>
       <c r="BF21" t="inlineStr"/>
       <c r="BG21" t="inlineStr"/>
-      <c r="BH21" t="inlineStr"/>
+      <c r="BH21" t="n">
+        <v>0.01515152</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>23</v>
       </c>
       <c r="B22" t="n">
-        <v>1004437</v>
+        <v>1004434</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>GALERÍAS</t>
+          <t>Metrocentro Managua</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Escalera al Infierno</t>
+          <t>After Amor Infinito</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -4191,44 +4271,44 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Cinemas</t>
+          <t>Cinemark</t>
         </is>
       </c>
       <c r="G22" t="n">
-        <v>51.186108</v>
+        <v>66.7644887</v>
       </c>
       <c r="H22" t="n">
-        <v>51.186108</v>
+        <v>66.7644887</v>
       </c>
       <c r="I22" t="n">
-        <v>80.06174935999999</v>
+        <v>109.04866488</v>
       </c>
       <c r="J22" t="n">
-        <v>80.06174935999999</v>
+        <v>109.04866488</v>
       </c>
       <c r="K22" t="n">
-        <v>185.403316</v>
+        <v>285.97455992</v>
       </c>
       <c r="L22" t="n">
-        <v>185.403316</v>
+        <v>285.97455992</v>
       </c>
       <c r="M22" t="n">
-        <v>275.12533051</v>
+        <v>131.02530907</v>
       </c>
       <c r="N22" t="n">
-        <v>275.12533051</v>
+        <v>131.02530907</v>
       </c>
       <c r="O22" t="n">
-        <v>591.77650388</v>
+        <v>592.81302257</v>
       </c>
       <c r="P22" t="n">
-        <v>591.77650388</v>
+        <v>592.81302257</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>37.55502489</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>37.55502489</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -4243,62 +4323,52 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>591.77650388</v>
+        <v>630.36804746</v>
       </c>
       <c r="X22" t="n">
-        <v>591.77650388</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>-0.27339536</v>
-      </c>
-      <c r="Z22" t="n">
-        <v>-0.41888517</v>
-      </c>
-      <c r="AA22" t="n">
-        <v>0.05692343</v>
-      </c>
+        <v>630.36804746</v>
+      </c>
+      <c r="Y22" t="inlineStr"/>
+      <c r="Z22" t="inlineStr"/>
+      <c r="AA22" t="inlineStr"/>
       <c r="AB22" t="inlineStr"/>
-      <c r="AC22" t="n">
-        <v>-0.17460564</v>
-      </c>
+      <c r="AC22" t="inlineStr"/>
       <c r="AD22" t="inlineStr"/>
       <c r="AE22" t="inlineStr"/>
       <c r="AF22" t="inlineStr"/>
-      <c r="AG22" t="n">
-        <v>-0.17460564</v>
-      </c>
+      <c r="AG22" t="inlineStr"/>
       <c r="AH22" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AI22" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="AK22" t="n">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="AL22" t="n">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="AM22" t="n">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="AN22" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="AO22" t="n">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="AP22" t="n">
-        <v>96</v>
+        <v>139</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AR22" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AS22" t="n">
         <v>0</v>
@@ -4313,49 +4383,39 @@
         <v>0</v>
       </c>
       <c r="AW22" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AX22" t="n">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="AY22" t="n">
-        <v>96</v>
-      </c>
-      <c r="AZ22" t="n">
-        <v>-0.18181818</v>
-      </c>
-      <c r="BA22" t="n">
-        <v>-0.43478261</v>
-      </c>
-      <c r="BB22" t="n">
-        <v>0.10714286</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="AZ22" t="inlineStr"/>
+      <c r="BA22" t="inlineStr"/>
+      <c r="BB22" t="inlineStr"/>
       <c r="BC22" t="inlineStr"/>
-      <c r="BD22" t="n">
-        <v>-0.14516129</v>
-      </c>
+      <c r="BD22" t="inlineStr"/>
       <c r="BE22" t="inlineStr"/>
       <c r="BF22" t="inlineStr"/>
       <c r="BG22" t="inlineStr"/>
-      <c r="BH22" t="n">
-        <v>-0.14516129</v>
-      </c>
+      <c r="BH22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>24</v>
       </c>
       <c r="B23" t="n">
-        <v>1004437</v>
+        <v>1004432</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>GALERÍAS</t>
+          <t>BELLO HORIZONTE</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>El Telefono Negro</t>
+          <t>Tren Bala</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -4369,40 +4429,40 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>24.72344654</v>
+        <v>88.96368119</v>
       </c>
       <c r="H23" t="n">
-        <v>24.72344654</v>
+        <v>88.96368119</v>
       </c>
       <c r="I23" t="n">
-        <v>73.66348585999999</v>
+        <v>110.92641612</v>
       </c>
       <c r="J23" t="n">
-        <v>73.66348585999999</v>
+        <v>110.92641612</v>
       </c>
       <c r="K23" t="n">
-        <v>292.86242968</v>
+        <v>123.87594507</v>
       </c>
       <c r="L23" t="n">
-        <v>292.86242968</v>
+        <v>123.87594507</v>
       </c>
       <c r="M23" t="n">
-        <v>175.42369406</v>
+        <v>221.10173174</v>
       </c>
       <c r="N23" t="n">
-        <v>175.42369406</v>
+        <v>221.10173174</v>
       </c>
       <c r="O23" t="n">
-        <v>566.67305613</v>
+        <v>544.86777412</v>
       </c>
       <c r="P23" t="n">
-        <v>566.67305613</v>
+        <v>544.86777412</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>44.76002596</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>44.76002596</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -4417,64 +4477,66 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>566.67305613</v>
+        <v>589.6278000900001</v>
       </c>
       <c r="X23" t="n">
-        <v>566.67305613</v>
+        <v>589.6278000900001</v>
       </c>
       <c r="Y23" t="n">
-        <v>-0.85294409</v>
+        <v>-0.13389476</v>
       </c>
       <c r="Z23" t="n">
-        <v>-0.62010806</v>
+        <v>0.08803413</v>
       </c>
       <c r="AA23" t="n">
-        <v>-0.04356378</v>
+        <v>-0.70948744</v>
       </c>
       <c r="AB23" t="n">
-        <v>-0.49134449</v>
+        <v>-0.35388944</v>
       </c>
       <c r="AC23" t="n">
-        <v>-0.44065886</v>
-      </c>
-      <c r="AD23" t="inlineStr"/>
+        <v>-0.44017201</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>-0.44692175</v>
+      </c>
       <c r="AE23" t="inlineStr"/>
       <c r="AF23" t="inlineStr"/>
       <c r="AG23" t="n">
-        <v>-0.44065886</v>
+        <v>-0.44069018</v>
       </c>
       <c r="AH23" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="AI23" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="AJ23" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="AK23" t="n">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="AL23" t="n">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="AM23" t="n">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="AN23" t="n">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="AO23" t="n">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="AP23" t="n">
-        <v>102</v>
+        <v>140</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AR23" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="AS23" t="n">
         <v>0</v>
@@ -4489,34 +4551,36 @@
         <v>0</v>
       </c>
       <c r="AW23" t="n">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="AX23" t="n">
-        <v>102</v>
+        <v>159</v>
       </c>
       <c r="AY23" t="n">
-        <v>102</v>
+        <v>159</v>
       </c>
       <c r="AZ23" t="n">
-        <v>-0.83333333</v>
+        <v>0.08</v>
       </c>
       <c r="BA23" t="n">
-        <v>-0.61764706</v>
+        <v>0.23076923</v>
       </c>
       <c r="BB23" t="n">
-        <v>0.01960784</v>
+        <v>-0.69565217</v>
       </c>
       <c r="BC23" t="n">
-        <v>-0.41818182</v>
+        <v>-0.32911392</v>
       </c>
       <c r="BD23" t="n">
-        <v>-0.4</v>
-      </c>
-      <c r="BE23" t="inlineStr"/>
+        <v>-0.36936937</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>-0.38709677</v>
+      </c>
       <c r="BF23" t="inlineStr"/>
       <c r="BG23" t="inlineStr"/>
       <c r="BH23" t="n">
-        <v>-0.4</v>
+        <v>-0.3715415</v>
       </c>
     </row>
     <row r="24">
@@ -4524,16 +4588,16 @@
         <v>25</v>
       </c>
       <c r="B24" t="n">
-        <v>1004432</v>
+        <v>1004437</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>BELLO HORIZONTE</t>
+          <t>GALERÍAS</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Tren Bala</t>
+          <t>El Telefono Negro</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
@@ -4547,40 +4611,40 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>88.96368119</v>
+        <v>24.72344654</v>
       </c>
       <c r="H24" t="n">
-        <v>88.96368119</v>
+        <v>24.72344654</v>
       </c>
       <c r="I24" t="n">
-        <v>110.92641612</v>
+        <v>73.66348585999999</v>
       </c>
       <c r="J24" t="n">
-        <v>110.92641612</v>
+        <v>73.66348585999999</v>
       </c>
       <c r="K24" t="n">
-        <v>123.87594507</v>
+        <v>292.86242968</v>
       </c>
       <c r="L24" t="n">
-        <v>123.87594507</v>
+        <v>292.86242968</v>
       </c>
       <c r="M24" t="n">
-        <v>221.10173174</v>
+        <v>175.42369406</v>
       </c>
       <c r="N24" t="n">
-        <v>221.10173174</v>
+        <v>175.42369406</v>
       </c>
       <c r="O24" t="n">
-        <v>544.86777412</v>
+        <v>566.67305613</v>
       </c>
       <c r="P24" t="n">
-        <v>544.86777412</v>
+        <v>566.67305613</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>8.34556109</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>8.34556109</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -4595,64 +4659,66 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>544.86777412</v>
+        <v>575.01861722</v>
       </c>
       <c r="X24" t="n">
-        <v>544.86777412</v>
+        <v>575.01861722</v>
       </c>
       <c r="Y24" t="n">
-        <v>-0.13389476</v>
+        <v>-0.85294409</v>
       </c>
       <c r="Z24" t="n">
-        <v>0.08803413</v>
+        <v>-0.62010806</v>
       </c>
       <c r="AA24" t="n">
-        <v>-0.70948744</v>
+        <v>-0.04356378</v>
       </c>
       <c r="AB24" t="n">
-        <v>-0.35388944</v>
+        <v>-0.49134449</v>
       </c>
       <c r="AC24" t="n">
-        <v>-0.44017201</v>
-      </c>
-      <c r="AD24" t="inlineStr"/>
+        <v>-0.44065886</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>-0.81243779</v>
+      </c>
       <c r="AE24" t="inlineStr"/>
       <c r="AF24" t="inlineStr"/>
       <c r="AG24" t="n">
-        <v>-0.44017201</v>
+        <v>-0.45630014</v>
       </c>
       <c r="AH24" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="AI24" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="AJ24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK24" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL24" t="n">
+        <v>52</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>52</v>
+      </c>
+      <c r="AN24" t="n">
         <v>32</v>
       </c>
-      <c r="AK24" t="n">
+      <c r="AO24" t="n">
         <v>32</v>
       </c>
-      <c r="AL24" t="n">
-        <v>28</v>
-      </c>
-      <c r="AM24" t="n">
-        <v>28</v>
-      </c>
-      <c r="AN24" t="n">
-        <v>53</v>
-      </c>
-      <c r="AO24" t="n">
-        <v>53</v>
-      </c>
       <c r="AP24" t="n">
-        <v>140</v>
+        <v>102</v>
       </c>
       <c r="AQ24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AR24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AS24" t="n">
         <v>0</v>
@@ -4667,39 +4733,41 @@
         <v>0</v>
       </c>
       <c r="AW24" t="n">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="AX24" t="n">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="AY24" t="n">
-        <v>140</v>
+        <v>106</v>
       </c>
       <c r="AZ24" t="n">
-        <v>0.08</v>
+        <v>-0.83333333</v>
       </c>
       <c r="BA24" t="n">
-        <v>0.23076923</v>
+        <v>-0.61764706</v>
       </c>
       <c r="BB24" t="n">
-        <v>-0.69565217</v>
+        <v>0.01960784</v>
       </c>
       <c r="BC24" t="n">
-        <v>-0.32911392</v>
+        <v>-0.41818182</v>
       </c>
       <c r="BD24" t="n">
-        <v>-0.36936937</v>
-      </c>
-      <c r="BE24" t="inlineStr"/>
+        <v>-0.4</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>-0.77777778</v>
+      </c>
       <c r="BF24" t="inlineStr"/>
       <c r="BG24" t="inlineStr"/>
       <c r="BH24" t="n">
-        <v>-0.36936937</v>
+        <v>-0.43617021</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B25" t="n">
         <v>1004434</v>
@@ -4755,10 +4823,10 @@
         <v>526.04853387</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>36.16409804</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>36.16409804</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -4773,10 +4841,10 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>526.04853387</v>
+        <v>562.21263191</v>
       </c>
       <c r="X25" t="n">
-        <v>526.04853387</v>
+        <v>562.21263191</v>
       </c>
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr"/>
@@ -4815,10 +4883,10 @@
         <v>112</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AR25" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AS25" t="n">
         <v>0</v>
@@ -4836,10 +4904,10 @@
         <v>37</v>
       </c>
       <c r="AX25" t="n">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="AY25" t="n">
-        <v>112</v>
+        <v>120</v>
       </c>
       <c r="AZ25" t="inlineStr"/>
       <c r="BA25" t="inlineStr"/>
@@ -4909,10 +4977,10 @@
         <v>485.76729236</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>33.93861509</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>33.93861509</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -4927,10 +4995,10 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>485.7672923599999</v>
+        <v>519.70590745</v>
       </c>
       <c r="X26" t="n">
-        <v>485.76729236</v>
+        <v>519.70590745</v>
       </c>
       <c r="Y26" t="n">
         <v>6.08334215</v>
@@ -4947,11 +5015,13 @@
       <c r="AC26" t="n">
         <v>-0.22689183</v>
       </c>
-      <c r="AD26" t="inlineStr"/>
+      <c r="AD26" t="n">
+        <v>-0.627368</v>
+      </c>
       <c r="AE26" t="inlineStr"/>
       <c r="AF26" t="inlineStr"/>
       <c r="AG26" t="n">
-        <v>-0.22689183</v>
+        <v>-0.27759267</v>
       </c>
       <c r="AH26" t="n">
         <v>23</v>
@@ -4981,10 +5051,10 @@
         <v>86</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AR26" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AS26" t="n">
         <v>0</v>
@@ -5002,10 +5072,10 @@
         <v>23</v>
       </c>
       <c r="AX26" t="n">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="AY26" t="n">
-        <v>86</v>
+        <v>94</v>
       </c>
       <c r="AZ26" t="n">
         <v>6.66666667</v>
@@ -5022,11 +5092,13 @@
       <c r="BD26" t="n">
         <v>-0.28333333</v>
       </c>
-      <c r="BE26" t="inlineStr"/>
+      <c r="BE26" t="n">
+        <v>-0.65217391</v>
+      </c>
       <c r="BF26" t="inlineStr"/>
       <c r="BG26" t="inlineStr"/>
       <c r="BH26" t="n">
-        <v>-0.28333333</v>
+        <v>-0.34265734</v>
       </c>
     </row>
     <row r="27">
@@ -5087,10 +5159,10 @@
         <v>462.01026179</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>56.13780758</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>56.13780758</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -5105,10 +5177,10 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>462.01026179</v>
+        <v>518.1480693799999</v>
       </c>
       <c r="X27" t="n">
-        <v>462.01026179</v>
+        <v>518.14806938</v>
       </c>
       <c r="Y27" t="n">
         <v>-0.31696881</v>
@@ -5125,11 +5197,13 @@
       <c r="AC27" t="n">
         <v>-0.28694699</v>
       </c>
-      <c r="AD27" t="inlineStr"/>
+      <c r="AD27" t="n">
+        <v>-0.183085</v>
+      </c>
       <c r="AE27" t="inlineStr"/>
       <c r="AF27" t="inlineStr"/>
       <c r="AG27" t="n">
-        <v>-0.28694699</v>
+        <v>-0.27698773</v>
       </c>
       <c r="AH27" t="n">
         <v>10</v>
@@ -5159,10 +5233,10 @@
         <v>79</v>
       </c>
       <c r="AQ27" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AR27" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AS27" t="n">
         <v>0</v>
@@ -5180,10 +5254,10 @@
         <v>10</v>
       </c>
       <c r="AX27" t="n">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="AY27" t="n">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="AZ27" t="n">
         <v>-0.375</v>
@@ -5200,11 +5274,13 @@
       <c r="BD27" t="n">
         <v>-0.30701754</v>
       </c>
-      <c r="BE27" t="inlineStr"/>
+      <c r="BE27" t="n">
+        <v>-0.26315789</v>
+      </c>
       <c r="BF27" t="inlineStr"/>
       <c r="BG27" t="inlineStr"/>
       <c r="BH27" t="n">
-        <v>-0.30701754</v>
+        <v>-0.30075188</v>
       </c>
     </row>
     <row r="28">
@@ -5265,10 +5341,10 @@
         <v>432.8842536</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>41.52584285</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>41.52584285</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -5283,10 +5359,10 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>432.8842536</v>
+        <v>474.41009646</v>
       </c>
       <c r="X28" t="n">
-        <v>432.8842536</v>
+        <v>474.41009646</v>
       </c>
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr"/>
@@ -5325,10 +5401,10 @@
         <v>91</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AR28" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AS28" t="n">
         <v>0</v>
@@ -5346,10 +5422,10 @@
         <v>21</v>
       </c>
       <c r="AX28" t="n">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AY28" t="n">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="AZ28" t="inlineStr"/>
       <c r="BA28" t="inlineStr"/>
@@ -5419,10 +5495,10 @@
         <v>418.66898121</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>42.78490984</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>42.78490984</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -5437,10 +5513,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>418.66898121</v>
+        <v>461.45389105</v>
       </c>
       <c r="X29" t="n">
-        <v>418.66898121</v>
+        <v>461.45389105</v>
       </c>
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr"/>
@@ -5479,10 +5555,10 @@
         <v>47</v>
       </c>
       <c r="AQ29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AR29" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AS29" t="n">
         <v>0</v>
@@ -5500,10 +5576,10 @@
         <v>10</v>
       </c>
       <c r="AX29" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="AY29" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="AZ29" t="inlineStr"/>
       <c r="BA29" t="inlineStr"/>
@@ -5573,10 +5649,10 @@
         <v>344.75512852</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>45.17730402</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>45.17730402</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -5591,10 +5667,10 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>344.75512852</v>
+        <v>389.93243254</v>
       </c>
       <c r="X30" t="n">
-        <v>344.75512852</v>
+        <v>389.93243254</v>
       </c>
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr"/>
@@ -5633,10 +5709,10 @@
         <v>85</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AR30" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AS30" t="n">
         <v>0</v>
@@ -5654,10 +5730,10 @@
         <v>3</v>
       </c>
       <c r="AX30" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AY30" t="n">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="AZ30" t="inlineStr"/>
       <c r="BA30" t="inlineStr"/>
@@ -5727,10 +5803,10 @@
         <v>330.51203759</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>51.68684167</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>51.68684167</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -5745,10 +5821,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>330.51203759</v>
+        <v>382.19887926</v>
       </c>
       <c r="X31" t="n">
-        <v>330.51203759</v>
+        <v>382.19887926</v>
       </c>
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr"/>
@@ -5787,10 +5863,10 @@
         <v>79</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AR31" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AS31" t="n">
         <v>0</v>
@@ -5808,10 +5884,10 @@
         <v>15</v>
       </c>
       <c r="AX31" t="n">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AY31" t="n">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AZ31" t="inlineStr"/>
       <c r="BA31" t="inlineStr"/>
@@ -5828,16 +5904,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="n">
-        <v>1004436</v>
+        <v>1009211</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>PLAZA INTER</t>
+          <t>GALERÍAS</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Minions Nace un Villano</t>
+          <t>After Amor Infinito</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -5851,40 +5927,40 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>38.389581</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>38.389581</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>53.91232462</v>
+        <v>37.61066197</v>
       </c>
       <c r="J32" t="n">
-        <v>53.91232462</v>
+        <v>37.61066197</v>
       </c>
       <c r="K32" t="n">
-        <v>108.15847169</v>
+        <v>112.8319859</v>
       </c>
       <c r="L32" t="n">
-        <v>108.15847169</v>
+        <v>112.8319859</v>
       </c>
       <c r="M32" t="n">
-        <v>114.16727567</v>
+        <v>117.28295181</v>
       </c>
       <c r="N32" t="n">
-        <v>114.16727567</v>
+        <v>117.28295181</v>
       </c>
       <c r="O32" t="n">
-        <v>314.62765299</v>
+        <v>267.72559968</v>
       </c>
       <c r="P32" t="n">
-        <v>314.62765299</v>
+        <v>267.72559968</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>94.02665492</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>94.02665492</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -5899,64 +5975,52 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>314.62765299</v>
+        <v>361.7522546</v>
       </c>
       <c r="X32" t="n">
-        <v>314.62765299</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0.192675</v>
-      </c>
-      <c r="Z32" t="n">
-        <v>-0.36745518</v>
-      </c>
-      <c r="AA32" t="n">
-        <v>-0.4564192</v>
-      </c>
-      <c r="AB32" t="n">
-        <v>-0.63429986</v>
-      </c>
-      <c r="AC32" t="n">
-        <v>-0.49946355</v>
-      </c>
+        <v>361.7522546</v>
+      </c>
+      <c r="Y32" t="inlineStr"/>
+      <c r="Z32" t="inlineStr"/>
+      <c r="AA32" t="inlineStr"/>
+      <c r="AB32" t="inlineStr"/>
+      <c r="AC32" t="inlineStr"/>
       <c r="AD32" t="inlineStr"/>
       <c r="AE32" t="inlineStr"/>
       <c r="AF32" t="inlineStr"/>
-      <c r="AG32" t="n">
-        <v>-0.49946355</v>
-      </c>
+      <c r="AG32" t="inlineStr"/>
       <c r="AH32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI32" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ32" t="n">
+        <v>4</v>
+      </c>
+      <c r="AK32" t="n">
+        <v>4</v>
+      </c>
+      <c r="AL32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM32" t="n">
+        <v>12</v>
+      </c>
+      <c r="AN32" t="n">
         <v>14</v>
       </c>
-      <c r="AI32" t="n">
+      <c r="AO32" t="n">
         <v>14</v>
       </c>
-      <c r="AJ32" t="n">
-        <v>17</v>
-      </c>
-      <c r="AK32" t="n">
-        <v>17</v>
-      </c>
-      <c r="AL32" t="n">
-        <v>32</v>
-      </c>
-      <c r="AM32" t="n">
-        <v>32</v>
-      </c>
-      <c r="AN32" t="n">
-        <v>36</v>
-      </c>
-      <c r="AO32" t="n">
-        <v>36</v>
-      </c>
       <c r="AP32" t="n">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="AQ32" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AR32" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AS32" t="n">
         <v>0</v>
@@ -5971,39 +6035,27 @@
         <v>0</v>
       </c>
       <c r="AW32" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AX32" t="n">
-        <v>99</v>
+        <v>40</v>
       </c>
       <c r="AY32" t="n">
-        <v>99</v>
-      </c>
-      <c r="AZ32" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="BA32" t="n">
-        <v>-0.32</v>
-      </c>
-      <c r="BB32" t="n">
-        <v>-0.39622642</v>
-      </c>
-      <c r="BC32" t="n">
-        <v>-0.53846154</v>
-      </c>
-      <c r="BD32" t="n">
-        <v>-0.40361446</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="AZ32" t="inlineStr"/>
+      <c r="BA32" t="inlineStr"/>
+      <c r="BB32" t="inlineStr"/>
+      <c r="BC32" t="inlineStr"/>
+      <c r="BD32" t="inlineStr"/>
       <c r="BE32" t="inlineStr"/>
       <c r="BF32" t="inlineStr"/>
       <c r="BG32" t="inlineStr"/>
-      <c r="BH32" t="n">
-        <v>-0.40361446</v>
-      </c>
+      <c r="BH32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B33" t="n">
         <v>1004432</v>
@@ -6059,10 +6111,10 @@
         <v>305.83699531</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>19.44515733</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>19.44515733</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -6077,10 +6129,10 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>305.83699531</v>
+        <v>325.28215265</v>
       </c>
       <c r="X33" t="n">
-        <v>305.83699531</v>
+        <v>325.28215265</v>
       </c>
       <c r="Y33" t="n">
         <v>0.12832137</v>
@@ -6097,11 +6149,13 @@
       <c r="AC33" t="n">
         <v>-0.34514394</v>
       </c>
-      <c r="AD33" t="inlineStr"/>
+      <c r="AD33" t="n">
+        <v>-0.66024915</v>
+      </c>
       <c r="AE33" t="inlineStr"/>
       <c r="AF33" t="inlineStr"/>
       <c r="AG33" t="n">
-        <v>-0.34514394</v>
+        <v>-0.37954386</v>
       </c>
       <c r="AH33" t="n">
         <v>8</v>
@@ -6131,10 +6185,10 @@
         <v>84</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AR33" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AS33" t="n">
         <v>0</v>
@@ -6152,10 +6206,10 @@
         <v>8</v>
       </c>
       <c r="AX33" t="n">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="AY33" t="n">
-        <v>84</v>
+        <v>92</v>
       </c>
       <c r="AZ33" t="n">
         <v>-0.38461538</v>
@@ -6172,28 +6226,30 @@
       <c r="BD33" t="n">
         <v>-0.35877863</v>
       </c>
-      <c r="BE33" t="inlineStr"/>
+      <c r="BE33" t="n">
+        <v>-0.66666667</v>
+      </c>
       <c r="BF33" t="inlineStr"/>
       <c r="BG33" t="inlineStr"/>
       <c r="BH33" t="n">
-        <v>-0.35877863</v>
+        <v>-0.40645161</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B34" t="n">
-        <v>1004432</v>
+        <v>1004436</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>BELLO HORIZONTE</t>
+          <t>PLAZA INTER</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Thor Amor y Trueno</t>
+          <t>Minions Nace un Villano</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -6207,40 +6263,40 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>17.03885389</v>
+        <v>38.389581</v>
       </c>
       <c r="H34" t="n">
-        <v>17.03885389</v>
+        <v>38.389581</v>
       </c>
       <c r="I34" t="n">
-        <v>134.18271302</v>
+        <v>53.91232462</v>
       </c>
       <c r="J34" t="n">
-        <v>134.18271302</v>
+        <v>53.91232462</v>
       </c>
       <c r="K34" t="n">
-        <v>87.93439531999999</v>
+        <v>108.15847169</v>
       </c>
       <c r="L34" t="n">
-        <v>87.93439531999999</v>
+        <v>108.15847169</v>
       </c>
       <c r="M34" t="n">
-        <v>44.12019961</v>
+        <v>114.16727567</v>
       </c>
       <c r="N34" t="n">
-        <v>44.12019961</v>
+        <v>114.16727567</v>
       </c>
       <c r="O34" t="n">
-        <v>283.27616184</v>
+        <v>314.62765299</v>
       </c>
       <c r="P34" t="n">
-        <v>283.27616184</v>
+        <v>314.62765299</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>4.17278054</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>4.17278054</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -6255,64 +6311,66 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>283.27616184</v>
+        <v>318.80043353</v>
       </c>
       <c r="X34" t="n">
-        <v>283.27616184</v>
+        <v>318.80043353</v>
       </c>
       <c r="Y34" t="n">
-        <v>-0.76929789</v>
+        <v>0.192675</v>
       </c>
       <c r="Z34" t="n">
-        <v>0.47960363</v>
+        <v>-0.36745518</v>
       </c>
       <c r="AA34" t="n">
-        <v>-0.56856609</v>
+        <v>-0.4564192</v>
       </c>
       <c r="AB34" t="n">
-        <v>-0.79224557</v>
+        <v>-0.63429986</v>
       </c>
       <c r="AC34" t="n">
-        <v>-0.51220743</v>
-      </c>
-      <c r="AD34" t="inlineStr"/>
+        <v>-0.49946355</v>
+      </c>
+      <c r="AD34" t="n">
+        <v>-0.819007</v>
+      </c>
       <c r="AE34" t="inlineStr"/>
       <c r="AF34" t="inlineStr"/>
       <c r="AG34" t="n">
-        <v>-0.51220743</v>
+        <v>-0.51076902</v>
       </c>
       <c r="AH34" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AI34" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AJ34" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AK34" t="n">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="AL34" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="AM34" t="n">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="AN34" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="AO34" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="AP34" t="n">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS34" t="n">
         <v>0</v>
@@ -6327,34 +6385,36 @@
         <v>0</v>
       </c>
       <c r="AW34" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AX34" t="n">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="AY34" t="n">
-        <v>68</v>
+        <v>101</v>
       </c>
       <c r="AZ34" t="n">
-        <v>-0.76190476</v>
+        <v>0.4</v>
       </c>
       <c r="BA34" t="n">
-        <v>0.54545455</v>
+        <v>-0.32</v>
       </c>
       <c r="BB34" t="n">
-        <v>-0.62</v>
+        <v>-0.39622642</v>
       </c>
       <c r="BC34" t="n">
-        <v>-0.81132075</v>
+        <v>-0.53846154</v>
       </c>
       <c r="BD34" t="n">
-        <v>-0.53424658</v>
-      </c>
-      <c r="BE34" t="inlineStr"/>
+        <v>-0.40361446</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>-0.8</v>
+      </c>
       <c r="BF34" t="inlineStr"/>
       <c r="BG34" t="inlineStr"/>
       <c r="BH34" t="n">
-        <v>-0.53424658</v>
+        <v>-0.42613636</v>
       </c>
     </row>
     <row r="35">
@@ -6362,21 +6422,21 @@
         <v>39</v>
       </c>
       <c r="B35" t="n">
-        <v>1068469</v>
+        <v>1004432</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>MASAYA</t>
+          <t>BELLO HORIZONTE</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Minions Nace un Villano</t>
+          <t>Thor Amor y Trueno</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Masaya</t>
+          <t>Managua</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -6385,40 +6445,40 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>17.03885389</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>17.03885389</v>
       </c>
       <c r="I35" t="n">
-        <v>31.12894286</v>
+        <v>134.18271302</v>
       </c>
       <c r="J35" t="n">
-        <v>31.12894286</v>
+        <v>134.18271302</v>
       </c>
       <c r="K35" t="n">
-        <v>92.20454075000001</v>
+        <v>87.93439531999999</v>
       </c>
       <c r="L35" t="n">
-        <v>92.20454075000001</v>
+        <v>87.93439531999999</v>
       </c>
       <c r="M35" t="n">
-        <v>146.70105465</v>
+        <v>44.12019961</v>
       </c>
       <c r="N35" t="n">
-        <v>146.70105465</v>
+        <v>44.12019961</v>
       </c>
       <c r="O35" t="n">
-        <v>270.03453825</v>
+        <v>283.27616184</v>
       </c>
       <c r="P35" t="n">
-        <v>270.03453825</v>
+        <v>283.27616184</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>29.90492723</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>29.90492723</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -6433,62 +6493,66 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>270.03453825</v>
+        <v>313.18108907</v>
       </c>
       <c r="X35" t="n">
-        <v>270.03453825</v>
-      </c>
-      <c r="Y35" t="inlineStr"/>
+        <v>313.18108907</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>-0.76929789</v>
+      </c>
       <c r="Z35" t="n">
-        <v>5.65459558</v>
+        <v>0.47960363</v>
       </c>
       <c r="AA35" t="n">
-        <v>-0.46172705</v>
+        <v>-0.56856609</v>
       </c>
       <c r="AB35" t="n">
-        <v>-0.22108664</v>
+        <v>-0.79224557</v>
       </c>
       <c r="AC35" t="n">
-        <v>-0.25878926</v>
-      </c>
-      <c r="AD35" t="inlineStr"/>
+        <v>-0.51220743</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>0.04273056</v>
+      </c>
       <c r="AE35" t="inlineStr"/>
       <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="n">
-        <v>-0.25878926</v>
+        <v>-0.48609151</v>
       </c>
       <c r="AH35" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AI35" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ35" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="AK35" t="n">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="AL35" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AM35" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="AN35" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="AO35" t="n">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="AP35" t="n">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AR35" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AS35" t="n">
         <v>0</v>
@@ -6503,32 +6567,36 @@
         <v>0</v>
       </c>
       <c r="AW35" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AX35" t="n">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="AY35" t="n">
-        <v>71</v>
-      </c>
-      <c r="AZ35" t="inlineStr"/>
+        <v>82</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>-0.76190476</v>
+      </c>
       <c r="BA35" t="n">
-        <v>8</v>
+        <v>0.54545455</v>
       </c>
       <c r="BB35" t="n">
-        <v>-0.4893617</v>
+        <v>-0.62</v>
       </c>
       <c r="BC35" t="n">
-        <v>-0.28301887</v>
+        <v>-0.81132075</v>
       </c>
       <c r="BD35" t="n">
-        <v>-0.2970297</v>
-      </c>
-      <c r="BE35" t="inlineStr"/>
+        <v>-0.53424658</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>0.16666667</v>
+      </c>
       <c r="BF35" t="inlineStr"/>
       <c r="BG35" t="inlineStr"/>
       <c r="BH35" t="n">
-        <v>-0.2970297</v>
+        <v>-0.48101266</v>
       </c>
     </row>
     <row r="36">
@@ -6536,21 +6604,21 @@
         <v>40</v>
       </c>
       <c r="B36" t="n">
-        <v>1009211</v>
+        <v>1068469</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>GALERÍAS</t>
+          <t>MASAYA</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>After Amor Infinito</t>
+          <t>Minions Nace un Villano</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Managua</t>
+          <t>Masaya</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -6565,34 +6633,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>37.61066197</v>
+        <v>31.12894286</v>
       </c>
       <c r="J36" t="n">
-        <v>37.61066197</v>
+        <v>31.12894286</v>
       </c>
       <c r="K36" t="n">
-        <v>112.8319859</v>
+        <v>92.20454075000001</v>
       </c>
       <c r="L36" t="n">
-        <v>112.8319859</v>
+        <v>92.20454075000001</v>
       </c>
       <c r="M36" t="n">
-        <v>117.28295181</v>
+        <v>146.70105465</v>
       </c>
       <c r="N36" t="n">
-        <v>117.28295181</v>
+        <v>146.70105465</v>
       </c>
       <c r="O36" t="n">
-        <v>267.72559968</v>
+        <v>270.03453825</v>
       </c>
       <c r="P36" t="n">
-        <v>267.72559968</v>
+        <v>270.03453825</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>4.17278054</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>4.17278054</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -6607,20 +6675,32 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>267.72559968</v>
+        <v>274.20731879</v>
       </c>
       <c r="X36" t="n">
-        <v>267.72559968</v>
+        <v>274.20731879</v>
       </c>
       <c r="Y36" t="inlineStr"/>
-      <c r="Z36" t="inlineStr"/>
-      <c r="AA36" t="inlineStr"/>
-      <c r="AB36" t="inlineStr"/>
-      <c r="AC36" t="inlineStr"/>
-      <c r="AD36" t="inlineStr"/>
+      <c r="Z36" t="n">
+        <v>5.65459558</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>-0.46172705</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>-0.22108664</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>-0.25878926</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>-0.80018373</v>
+      </c>
       <c r="AE36" t="inlineStr"/>
       <c r="AF36" t="inlineStr"/>
-      <c r="AG36" t="inlineStr"/>
+      <c r="AG36" t="n">
+        <v>-0.28814032</v>
+      </c>
       <c r="AH36" t="n">
         <v>0</v>
       </c>
@@ -6628,31 +6708,31 @@
         <v>0</v>
       </c>
       <c r="AJ36" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AK36" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AL36" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="AM36" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="AN36" t="n">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="AO36" t="n">
-        <v>14</v>
+        <v>38</v>
       </c>
       <c r="AP36" t="n">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="AQ36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS36" t="n">
         <v>0</v>
@@ -6670,41 +6750,53 @@
         <v>0</v>
       </c>
       <c r="AX36" t="n">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="AY36" t="n">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="AZ36" t="inlineStr"/>
-      <c r="BA36" t="inlineStr"/>
-      <c r="BB36" t="inlineStr"/>
-      <c r="BC36" t="inlineStr"/>
-      <c r="BD36" t="inlineStr"/>
-      <c r="BE36" t="inlineStr"/>
+      <c r="BA36" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>-0.4893617</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>-0.28301887</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>-0.2970297</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>-0.8</v>
+      </c>
       <c r="BF36" t="inlineStr"/>
       <c r="BG36" t="inlineStr"/>
-      <c r="BH36" t="inlineStr"/>
+      <c r="BH36" t="n">
+        <v>-0.34234234</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>41</v>
       </c>
       <c r="B37" t="n">
-        <v>1004436</v>
+        <v>1068469</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>PLAZA INTER</t>
+          <t>MASAYA</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Tren Bala</t>
+          <t>After Amor Infinito</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Managua</t>
+          <t>Masaya</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
@@ -6713,40 +6805,40 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>33.68824826</v>
+        <v>64.38600379</v>
       </c>
       <c r="H37" t="n">
-        <v>33.68824826</v>
+        <v>64.38600379</v>
       </c>
       <c r="I37" t="n">
-        <v>60.7484519</v>
+        <v>42.06162788</v>
       </c>
       <c r="J37" t="n">
-        <v>60.7484519</v>
+        <v>42.06162788</v>
       </c>
       <c r="K37" t="n">
-        <v>70.77035802</v>
+        <v>39.72487078</v>
       </c>
       <c r="L37" t="n">
-        <v>70.77035802</v>
+        <v>39.72487078</v>
       </c>
       <c r="M37" t="n">
-        <v>68.82306043</v>
+        <v>84.62398942999999</v>
       </c>
       <c r="N37" t="n">
-        <v>68.82306043</v>
+        <v>84.62398942999999</v>
       </c>
       <c r="O37" t="n">
-        <v>234.03011861</v>
+        <v>230.79649187</v>
       </c>
       <c r="P37" t="n">
-        <v>234.03011861</v>
+        <v>230.79649187</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>28.70873014</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>28.70873014</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -6761,49 +6853,37 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>234.03011861</v>
+        <v>259.50522201</v>
       </c>
       <c r="X37" t="n">
-        <v>234.03011861</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>-0.35161439</v>
-      </c>
-      <c r="Z37" t="n">
-        <v>0.30019902</v>
-      </c>
-      <c r="AA37" t="n">
-        <v>-0.59346401</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>-0.80958884</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>-0.63098688</v>
-      </c>
+        <v>259.50522201</v>
+      </c>
+      <c r="Y37" t="inlineStr"/>
+      <c r="Z37" t="inlineStr"/>
+      <c r="AA37" t="inlineStr"/>
+      <c r="AB37" t="inlineStr"/>
+      <c r="AC37" t="inlineStr"/>
       <c r="AD37" t="inlineStr"/>
       <c r="AE37" t="inlineStr"/>
       <c r="AF37" t="inlineStr"/>
-      <c r="AG37" t="n">
-        <v>-0.63098688</v>
-      </c>
+      <c r="AG37" t="inlineStr"/>
       <c r="AH37" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AI37" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AJ37" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AK37" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="AL37" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AM37" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="AN37" t="n">
         <v>19</v>
@@ -6812,13 +6892,13 @@
         <v>19</v>
       </c>
       <c r="AP37" t="n">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AR37" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AS37" t="n">
         <v>0</v>
@@ -6833,56 +6913,44 @@
         <v>0</v>
       </c>
       <c r="AW37" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AX37" t="n">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="AY37" t="n">
-        <v>64</v>
-      </c>
-      <c r="AZ37" t="n">
-        <v>-0.41176471</v>
-      </c>
-      <c r="BA37" t="n">
-        <v>0.41666667</v>
-      </c>
-      <c r="BB37" t="n">
-        <v>-0.52631579</v>
-      </c>
-      <c r="BC37" t="n">
-        <v>-0.77647059</v>
-      </c>
-      <c r="BD37" t="n">
-        <v>-0.57894737</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="AZ37" t="inlineStr"/>
+      <c r="BA37" t="inlineStr"/>
+      <c r="BB37" t="inlineStr"/>
+      <c r="BC37" t="inlineStr"/>
+      <c r="BD37" t="inlineStr"/>
       <c r="BE37" t="inlineStr"/>
       <c r="BF37" t="inlineStr"/>
       <c r="BG37" t="inlineStr"/>
-      <c r="BH37" t="n">
-        <v>-0.57894737</v>
-      </c>
+      <c r="BH37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>42</v>
       </c>
       <c r="B38" t="n">
-        <v>1068469</v>
+        <v>1004436</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>MASAYA</t>
+          <t>PLAZA INTER</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>After Amor Infinito</t>
+          <t>Tren Bala</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Masaya</t>
+          <t>Managua</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
@@ -6891,40 +6959,40 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>64.38600379</v>
+        <v>33.68824826</v>
       </c>
       <c r="H38" t="n">
-        <v>64.38600379</v>
+        <v>33.68824826</v>
       </c>
       <c r="I38" t="n">
-        <v>42.06162788</v>
+        <v>60.7484519</v>
       </c>
       <c r="J38" t="n">
-        <v>42.06162788</v>
+        <v>60.7484519</v>
       </c>
       <c r="K38" t="n">
-        <v>39.72487078</v>
+        <v>70.77035802</v>
       </c>
       <c r="L38" t="n">
-        <v>39.72487078</v>
+        <v>70.77035802</v>
       </c>
       <c r="M38" t="n">
-        <v>84.62398942999999</v>
+        <v>68.82306043</v>
       </c>
       <c r="N38" t="n">
-        <v>84.62398942999999</v>
+        <v>68.82306043</v>
       </c>
       <c r="O38" t="n">
-        <v>230.79649187</v>
+        <v>234.03011861</v>
       </c>
       <c r="P38" t="n">
-        <v>230.79649187</v>
+        <v>234.03011861</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>18.86096806</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>18.86096806</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -6939,37 +7007,51 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>230.79649187</v>
+        <v>252.89108666</v>
       </c>
       <c r="X38" t="n">
-        <v>230.79649187</v>
-      </c>
-      <c r="Y38" t="inlineStr"/>
-      <c r="Z38" t="inlineStr"/>
-      <c r="AA38" t="inlineStr"/>
-      <c r="AB38" t="inlineStr"/>
-      <c r="AC38" t="inlineStr"/>
-      <c r="AD38" t="inlineStr"/>
+        <v>252.89108666</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>-0.35161439</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>0.30019902</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>-0.59346401</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>-0.80958884</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>-0.63098688</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>-0.55199922</v>
+      </c>
       <c r="AE38" t="inlineStr"/>
       <c r="AF38" t="inlineStr"/>
-      <c r="AG38" t="inlineStr"/>
+      <c r="AG38" t="n">
+        <v>-0.62606987</v>
+      </c>
       <c r="AH38" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AI38" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AJ38" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AK38" t="n">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="AL38" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="AM38" t="n">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="AN38" t="n">
         <v>19</v>
@@ -6978,13 +7060,13 @@
         <v>19</v>
       </c>
       <c r="AP38" t="n">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AR38" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AS38" t="n">
         <v>0</v>
@@ -6999,23 +7081,37 @@
         <v>0</v>
       </c>
       <c r="AW38" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AX38" t="n">
-        <v>51</v>
+        <v>72</v>
       </c>
       <c r="AY38" t="n">
-        <v>51</v>
-      </c>
-      <c r="AZ38" t="inlineStr"/>
-      <c r="BA38" t="inlineStr"/>
-      <c r="BB38" t="inlineStr"/>
-      <c r="BC38" t="inlineStr"/>
-      <c r="BD38" t="inlineStr"/>
-      <c r="BE38" t="inlineStr"/>
+        <v>72</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>-0.41176471</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>0.41666667</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>-0.52631579</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>-0.77647059</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>-0.57894737</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>-0.57894737</v>
+      </c>
       <c r="BF38" t="inlineStr"/>
       <c r="BG38" t="inlineStr"/>
-      <c r="BH38" t="inlineStr"/>
+      <c r="BH38" t="n">
+        <v>-0.57894737</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -7075,10 +7171,10 @@
         <v>211.47651795</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>25.95469498</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>25.95469498</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -7093,10 +7189,10 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>211.47651795</v>
+        <v>237.43121293</v>
       </c>
       <c r="X39" t="n">
-        <v>211.47651795</v>
+        <v>237.43121293</v>
       </c>
       <c r="Y39" t="inlineStr"/>
       <c r="Z39" t="inlineStr"/>
@@ -7135,10 +7231,10 @@
         <v>55</v>
       </c>
       <c r="AQ39" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AR39" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AS39" t="n">
         <v>0</v>
@@ -7156,10 +7252,10 @@
         <v>7</v>
       </c>
       <c r="AX39" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="AY39" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="AZ39" t="inlineStr"/>
       <c r="BA39" t="inlineStr"/>
@@ -7229,10 +7325,10 @@
         <v>209.62964528</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>13.90926848</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>13.90926848</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -7247,10 +7343,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>209.62964528</v>
+        <v>223.53891376</v>
       </c>
       <c r="X40" t="n">
-        <v>209.62964528</v>
+        <v>223.53891376</v>
       </c>
       <c r="Y40" t="n">
         <v>-0.83638859</v>
@@ -7267,11 +7363,13 @@
       <c r="AC40" t="n">
         <v>-0.70787903</v>
       </c>
-      <c r="AD40" t="inlineStr"/>
+      <c r="AD40" t="n">
+        <v>-0.15332087</v>
+      </c>
       <c r="AE40" t="inlineStr"/>
       <c r="AF40" t="inlineStr"/>
       <c r="AG40" t="n">
-        <v>-0.70787903</v>
+        <v>-0.69546787</v>
       </c>
       <c r="AH40" t="n">
         <v>6</v>
@@ -7301,10 +7399,10 @@
         <v>49</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AR40" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AS40" t="n">
         <v>0</v>
@@ -7322,10 +7420,10 @@
         <v>6</v>
       </c>
       <c r="AX40" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="AY40" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="AZ40" t="n">
         <v>-0.8125</v>
@@ -7342,16 +7440,18 @@
       <c r="BD40" t="n">
         <v>-0.73076923</v>
       </c>
-      <c r="BE40" t="inlineStr"/>
+      <c r="BE40" t="n">
+        <v>-0.33333333</v>
+      </c>
       <c r="BF40" t="inlineStr"/>
       <c r="BG40" t="inlineStr"/>
       <c r="BH40" t="n">
-        <v>-0.73076923</v>
+        <v>-0.71808511</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41" t="n">
         <v>1068469</v>
@@ -7407,10 +7507,10 @@
         <v>184.31171661</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>16.1486607</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>16.1486607</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -7425,10 +7525,10 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>184.31171661</v>
+        <v>200.46037732</v>
       </c>
       <c r="X41" t="n">
-        <v>184.31171661</v>
+        <v>200.46037732</v>
       </c>
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="n">
@@ -7443,11 +7543,13 @@
       <c r="AC41" t="n">
         <v>-0.49241518</v>
       </c>
-      <c r="AD41" t="inlineStr"/>
+      <c r="AD41" t="n">
+        <v>0.93322246</v>
+      </c>
       <c r="AE41" t="inlineStr"/>
       <c r="AF41" t="inlineStr"/>
       <c r="AG41" t="n">
-        <v>-0.49241518</v>
+        <v>-0.46035677</v>
       </c>
       <c r="AH41" t="n">
         <v>0</v>
@@ -7477,10 +7579,10 @@
         <v>45</v>
       </c>
       <c r="AQ41" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AR41" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AS41" t="n">
         <v>0</v>
@@ -7498,10 +7600,10 @@
         <v>0</v>
       </c>
       <c r="AX41" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="AY41" t="n">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="AZ41" t="inlineStr"/>
       <c r="BA41" t="n">
@@ -7516,11 +7618,13 @@
       <c r="BD41" t="n">
         <v>-0.46428571</v>
       </c>
-      <c r="BE41" t="inlineStr"/>
+      <c r="BE41" t="n">
+        <v>0.75</v>
+      </c>
       <c r="BF41" t="inlineStr"/>
       <c r="BG41" t="inlineStr"/>
       <c r="BH41" t="n">
-        <v>-0.46428571</v>
+        <v>-0.40909091</v>
       </c>
     </row>
     <row r="42">
@@ -7581,10 +7685,10 @@
         <v>147.16006051</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>12.51834163</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>12.51834163</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -7599,10 +7703,10 @@
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>147.16006051</v>
+        <v>159.67840214</v>
       </c>
       <c r="X42" t="n">
-        <v>147.16006051</v>
+        <v>159.67840214</v>
       </c>
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr"/>
@@ -7649,10 +7753,10 @@
         <v>46</v>
       </c>
       <c r="AQ42" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AR42" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AS42" t="n">
         <v>0</v>
@@ -7670,10 +7774,10 @@
         <v>9</v>
       </c>
       <c r="AX42" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="AY42" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="AZ42" t="inlineStr"/>
       <c r="BA42" t="inlineStr"/>
@@ -7751,10 +7855,10 @@
         <v>28.54181892</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>4.17278054</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>4.17278054</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -7769,10 +7873,10 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>28.54181892</v>
+        <v>32.71459946</v>
       </c>
       <c r="X43" t="n">
-        <v>28.54181892</v>
+        <v>32.71459946</v>
       </c>
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr"/>
@@ -7785,11 +7889,13 @@
       <c r="AC43" t="n">
         <v>-0.88370122</v>
       </c>
-      <c r="AD43" t="inlineStr"/>
+      <c r="AD43" t="n">
+        <v>-0.819007</v>
+      </c>
       <c r="AE43" t="inlineStr"/>
       <c r="AF43" t="inlineStr"/>
       <c r="AG43" t="n">
-        <v>-0.88370122</v>
+        <v>-0.8781456399999999</v>
       </c>
       <c r="AH43" t="n">
         <v>0</v>
@@ -7819,10 +7925,10 @@
         <v>9</v>
       </c>
       <c r="AQ43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AR43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AS43" t="n">
         <v>0</v>
@@ -7840,10 +7946,10 @@
         <v>0</v>
       </c>
       <c r="AX43" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AY43" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AZ43" t="inlineStr"/>
       <c r="BA43" t="inlineStr"/>
@@ -7856,11 +7962,13 @@
       <c r="BD43" t="n">
         <v>-0.859375</v>
       </c>
-      <c r="BE43" t="inlineStr"/>
+      <c r="BE43" t="n">
+        <v>-0.8</v>
+      </c>
       <c r="BF43" t="inlineStr"/>
       <c r="BG43" t="inlineStr"/>
       <c r="BH43" t="n">
-        <v>-0.859375</v>
+        <v>-0.85135135</v>
       </c>
     </row>
   </sheetData>
